--- a/BackTest/2020-01-25 BackTest DVP.xlsx
+++ b/BackTest/2020-01-25 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.85</v>
+        <v>3.829</v>
       </c>
       <c r="C2" t="n">
-        <v>3.939</v>
+        <v>3.97</v>
       </c>
       <c r="D2" t="n">
-        <v>3.939</v>
+        <v>3.97</v>
       </c>
       <c r="E2" t="n">
-        <v>3.831</v>
+        <v>3.829</v>
       </c>
       <c r="F2" t="n">
-        <v>450</v>
+        <v>274.4444</v>
       </c>
       <c r="G2" t="n">
-        <v>3.953733333333337</v>
+        <v>3.951000000000004</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.829</v>
+        <v>3.85</v>
       </c>
       <c r="C3" t="n">
-        <v>3.829</v>
+        <v>3.939</v>
       </c>
       <c r="D3" t="n">
-        <v>3.829</v>
+        <v>3.939</v>
       </c>
       <c r="E3" t="n">
-        <v>3.829</v>
+        <v>3.831</v>
       </c>
       <c r="F3" t="n">
-        <v>144.4444</v>
+        <v>450</v>
       </c>
       <c r="G3" t="n">
-        <v>3.95356666666667</v>
+        <v>3.953733333333337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>3.829</v>
       </c>
       <c r="C4" t="n">
-        <v>3.899</v>
+        <v>3.829</v>
       </c>
       <c r="D4" t="n">
-        <v>3.899</v>
+        <v>3.829</v>
       </c>
       <c r="E4" t="n">
         <v>3.829</v>
       </c>
       <c r="F4" t="n">
-        <v>2730</v>
+        <v>144.4444</v>
       </c>
       <c r="G4" t="n">
-        <v>3.95486666666667</v>
+        <v>3.95356666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.84</v>
+        <v>3.829</v>
       </c>
       <c r="C5" t="n">
-        <v>3.94</v>
+        <v>3.899</v>
       </c>
       <c r="D5" t="n">
-        <v>3.94</v>
+        <v>3.899</v>
       </c>
       <c r="E5" t="n">
-        <v>3.84</v>
+        <v>3.829</v>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>2730</v>
       </c>
       <c r="G5" t="n">
-        <v>3.956600000000003</v>
+        <v>3.95486666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.939</v>
+        <v>3.84</v>
       </c>
       <c r="C6" t="n">
-        <v>3.939</v>
+        <v>3.94</v>
       </c>
       <c r="D6" t="n">
-        <v>3.939</v>
+        <v>3.94</v>
       </c>
       <c r="E6" t="n">
-        <v>3.939</v>
+        <v>3.84</v>
       </c>
       <c r="F6" t="n">
-        <v>2558.3476</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>3.95746666666667</v>
+        <v>3.956600000000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.933</v>
+        <v>3.939</v>
       </c>
       <c r="C7" t="n">
-        <v>3.864</v>
+        <v>3.939</v>
       </c>
       <c r="D7" t="n">
-        <v>3.933</v>
+        <v>3.939</v>
       </c>
       <c r="E7" t="n">
-        <v>3.864</v>
+        <v>3.939</v>
       </c>
       <c r="F7" t="n">
-        <v>1540</v>
+        <v>2558.3476</v>
       </c>
       <c r="G7" t="n">
-        <v>3.957900000000004</v>
+        <v>3.95746666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.858</v>
+        <v>3.933</v>
       </c>
       <c r="C8" t="n">
-        <v>3.845</v>
+        <v>3.864</v>
       </c>
       <c r="D8" t="n">
-        <v>3.858</v>
+        <v>3.933</v>
       </c>
       <c r="E8" t="n">
-        <v>3.845</v>
+        <v>3.864</v>
       </c>
       <c r="F8" t="n">
-        <v>144.4444</v>
+        <v>1540</v>
       </c>
       <c r="G8" t="n">
-        <v>3.958083333333337</v>
+        <v>3.957900000000004</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.845</v>
+        <v>3.858</v>
       </c>
       <c r="C9" t="n">
         <v>3.845</v>
       </c>
       <c r="D9" t="n">
-        <v>3.845</v>
+        <v>3.858</v>
       </c>
       <c r="E9" t="n">
         <v>3.845</v>
       </c>
       <c r="F9" t="n">
-        <v>266.6666</v>
+        <v>144.4444</v>
       </c>
       <c r="G9" t="n">
-        <v>3.958850000000004</v>
+        <v>3.958083333333337</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.846</v>
+        <v>3.845</v>
       </c>
       <c r="C10" t="n">
-        <v>3.863</v>
+        <v>3.845</v>
       </c>
       <c r="D10" t="n">
-        <v>3.863</v>
+        <v>3.845</v>
       </c>
       <c r="E10" t="n">
         <v>3.845</v>
       </c>
       <c r="F10" t="n">
-        <v>16530</v>
+        <v>266.6666</v>
       </c>
       <c r="G10" t="n">
-        <v>3.958283333333337</v>
+        <v>3.958850000000004</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="C11" t="n">
         <v>3.863</v>
       </c>
-      <c r="C11" t="n">
-        <v>3.889</v>
-      </c>
       <c r="D11" t="n">
-        <v>3.889</v>
+        <v>3.863</v>
       </c>
       <c r="E11" t="n">
-        <v>3.863</v>
+        <v>3.845</v>
       </c>
       <c r="F11" t="n">
-        <v>190</v>
+        <v>16530</v>
       </c>
       <c r="G11" t="n">
-        <v>3.956350000000004</v>
+        <v>3.958283333333337</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.888</v>
+        <v>3.863</v>
       </c>
       <c r="C12" t="n">
         <v>3.889</v>
@@ -792,13 +792,13 @@
         <v>3.889</v>
       </c>
       <c r="E12" t="n">
-        <v>3.887</v>
+        <v>3.863</v>
       </c>
       <c r="F12" t="n">
-        <v>560</v>
+        <v>190</v>
       </c>
       <c r="G12" t="n">
-        <v>3.954416666666671</v>
+        <v>3.956350000000004</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>3.888</v>
       </c>
       <c r="C13" t="n">
-        <v>3.97</v>
+        <v>3.889</v>
       </c>
       <c r="D13" t="n">
-        <v>3.97</v>
+        <v>3.889</v>
       </c>
       <c r="E13" t="n">
-        <v>3.888</v>
+        <v>3.887</v>
       </c>
       <c r="F13" t="n">
-        <v>17760</v>
+        <v>560</v>
       </c>
       <c r="G13" t="n">
-        <v>3.953800000000004</v>
+        <v>3.954416666666671</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.958</v>
+        <v>3.888</v>
       </c>
       <c r="C14" t="n">
-        <v>3.968</v>
+        <v>3.97</v>
       </c>
       <c r="D14" t="n">
-        <v>3.968</v>
+        <v>3.97</v>
       </c>
       <c r="E14" t="n">
-        <v>3.958</v>
+        <v>3.888</v>
       </c>
       <c r="F14" t="n">
-        <v>270.4</v>
+        <v>17760</v>
       </c>
       <c r="G14" t="n">
-        <v>3.95656666666667</v>
+        <v>3.953800000000004</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>3.958</v>
       </c>
       <c r="C15" t="n">
-        <v>3.958</v>
+        <v>3.968</v>
       </c>
       <c r="D15" t="n">
-        <v>3.958</v>
+        <v>3.968</v>
       </c>
       <c r="E15" t="n">
         <v>3.958</v>
       </c>
       <c r="F15" t="n">
-        <v>9.6</v>
+        <v>270.4</v>
       </c>
       <c r="G15" t="n">
-        <v>3.959033333333337</v>
+        <v>3.95656666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.952</v>
+        <v>3.958</v>
       </c>
       <c r="C16" t="n">
-        <v>3.943</v>
+        <v>3.958</v>
       </c>
       <c r="D16" t="n">
-        <v>3.952</v>
+        <v>3.958</v>
       </c>
       <c r="E16" t="n">
-        <v>3.943</v>
+        <v>3.958</v>
       </c>
       <c r="F16" t="n">
-        <v>280</v>
+        <v>9.6</v>
       </c>
       <c r="G16" t="n">
-        <v>3.96071666666667</v>
+        <v>3.959033333333337</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.928</v>
+        <v>3.952</v>
       </c>
       <c r="C17" t="n">
-        <v>3.883</v>
+        <v>3.943</v>
       </c>
       <c r="D17" t="n">
-        <v>3.928</v>
+        <v>3.952</v>
       </c>
       <c r="E17" t="n">
-        <v>3.883</v>
+        <v>3.943</v>
       </c>
       <c r="F17" t="n">
-        <v>980</v>
+        <v>280</v>
       </c>
       <c r="G17" t="n">
-        <v>3.961500000000004</v>
+        <v>3.96071666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.874</v>
+        <v>3.928</v>
       </c>
       <c r="C18" t="n">
-        <v>3.958</v>
+        <v>3.883</v>
       </c>
       <c r="D18" t="n">
-        <v>3.958</v>
+        <v>3.928</v>
       </c>
       <c r="E18" t="n">
-        <v>3.873</v>
+        <v>3.883</v>
       </c>
       <c r="F18" t="n">
-        <v>2930</v>
+        <v>980</v>
       </c>
       <c r="G18" t="n">
-        <v>3.95986666666667</v>
+        <v>3.961500000000004</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.873</v>
+        <v>3.874</v>
       </c>
       <c r="C19" t="n">
-        <v>3.873</v>
+        <v>3.958</v>
       </c>
       <c r="D19" t="n">
-        <v>3.873</v>
+        <v>3.958</v>
       </c>
       <c r="E19" t="n">
         <v>3.873</v>
       </c>
       <c r="F19" t="n">
-        <v>3.4945</v>
+        <v>2930</v>
       </c>
       <c r="G19" t="n">
-        <v>3.957250000000003</v>
+        <v>3.95986666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.867</v>
+        <v>3.873</v>
       </c>
       <c r="C20" t="n">
-        <v>3.848</v>
+        <v>3.873</v>
       </c>
       <c r="D20" t="n">
-        <v>3.867</v>
+        <v>3.873</v>
       </c>
       <c r="E20" t="n">
-        <v>3.848</v>
+        <v>3.873</v>
       </c>
       <c r="F20" t="n">
-        <v>840</v>
+        <v>3.4945</v>
       </c>
       <c r="G20" t="n">
-        <v>3.95371666666667</v>
+        <v>3.957250000000003</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.847</v>
+        <v>3.867</v>
       </c>
       <c r="C21" t="n">
-        <v>3.827</v>
+        <v>3.848</v>
       </c>
       <c r="D21" t="n">
-        <v>3.847</v>
+        <v>3.867</v>
       </c>
       <c r="E21" t="n">
-        <v>3.827</v>
+        <v>3.848</v>
       </c>
       <c r="F21" t="n">
-        <v>735.5556</v>
+        <v>840</v>
       </c>
       <c r="G21" t="n">
-        <v>3.954000000000003</v>
+        <v>3.95371666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.826</v>
+        <v>3.847</v>
       </c>
       <c r="C22" t="n">
-        <v>3.823</v>
+        <v>3.827</v>
       </c>
       <c r="D22" t="n">
-        <v>3.826</v>
+        <v>3.847</v>
       </c>
       <c r="E22" t="n">
-        <v>3.823</v>
+        <v>3.827</v>
       </c>
       <c r="F22" t="n">
-        <v>455.5556</v>
+        <v>735.5556</v>
       </c>
       <c r="G22" t="n">
-        <v>3.95006666666667</v>
+        <v>3.954000000000003</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.823</v>
+        <v>3.826</v>
       </c>
       <c r="C23" t="n">
         <v>3.823</v>
       </c>
       <c r="D23" t="n">
-        <v>3.823</v>
+        <v>3.826</v>
       </c>
       <c r="E23" t="n">
         <v>3.823</v>
       </c>
       <c r="F23" t="n">
-        <v>144.4444</v>
+        <v>455.5556</v>
       </c>
       <c r="G23" t="n">
-        <v>3.94816666666667</v>
+        <v>3.95006666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>3.823</v>
       </c>
       <c r="F24" t="n">
-        <v>26540.6631</v>
+        <v>144.4444</v>
       </c>
       <c r="G24" t="n">
-        <v>3.944233333333337</v>
+        <v>3.94816666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>3.823</v>
       </c>
       <c r="F25" t="n">
-        <v>3314.8925</v>
+        <v>26540.6631</v>
       </c>
       <c r="G25" t="n">
-        <v>3.940300000000004</v>
+        <v>3.944233333333337</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.83</v>
+        <v>3.823</v>
       </c>
       <c r="C26" t="n">
-        <v>3.83</v>
+        <v>3.823</v>
       </c>
       <c r="D26" t="n">
-        <v>3.83</v>
+        <v>3.823</v>
       </c>
       <c r="E26" t="n">
-        <v>3.83</v>
+        <v>3.823</v>
       </c>
       <c r="F26" t="n">
-        <v>144.4444</v>
+        <v>3314.8925</v>
       </c>
       <c r="G26" t="n">
-        <v>3.936466666666671</v>
+        <v>3.940300000000004</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.836</v>
+        <v>3.83</v>
       </c>
       <c r="C27" t="n">
-        <v>3.959</v>
+        <v>3.83</v>
       </c>
       <c r="D27" t="n">
-        <v>3.959</v>
+        <v>3.83</v>
       </c>
       <c r="E27" t="n">
-        <v>3.836</v>
+        <v>3.83</v>
       </c>
       <c r="F27" t="n">
-        <v>32750</v>
+        <v>144.4444</v>
       </c>
       <c r="G27" t="n">
-        <v>3.934800000000004</v>
+        <v>3.936466666666671</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.83</v>
+        <v>3.836</v>
       </c>
       <c r="C28" t="n">
         <v>3.959</v>
@@ -1352,13 +1352,13 @@
         <v>3.959</v>
       </c>
       <c r="E28" t="n">
-        <v>3.824</v>
+        <v>3.836</v>
       </c>
       <c r="F28" t="n">
-        <v>16470</v>
+        <v>32750</v>
       </c>
       <c r="G28" t="n">
-        <v>3.934266666666671</v>
+        <v>3.934800000000004</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.831</v>
+        <v>3.83</v>
       </c>
       <c r="C29" t="n">
         <v>3.959</v>
@@ -1387,13 +1387,13 @@
         <v>3.959</v>
       </c>
       <c r="E29" t="n">
-        <v>3.831</v>
+        <v>3.824</v>
       </c>
       <c r="F29" t="n">
-        <v>15880</v>
+        <v>16470</v>
       </c>
       <c r="G29" t="n">
-        <v>3.933916666666671</v>
+        <v>3.934266666666671</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.848</v>
+        <v>3.831</v>
       </c>
       <c r="C30" t="n">
-        <v>3.899</v>
+        <v>3.959</v>
       </c>
       <c r="D30" t="n">
-        <v>3.899</v>
+        <v>3.959</v>
       </c>
       <c r="E30" t="n">
-        <v>3.848</v>
+        <v>3.831</v>
       </c>
       <c r="F30" t="n">
-        <v>12140</v>
+        <v>15880</v>
       </c>
       <c r="G30" t="n">
-        <v>3.931900000000004</v>
+        <v>3.933916666666671</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.865</v>
+        <v>3.848</v>
       </c>
       <c r="C31" t="n">
-        <v>3.865</v>
+        <v>3.899</v>
       </c>
       <c r="D31" t="n">
-        <v>3.865</v>
+        <v>3.899</v>
       </c>
       <c r="E31" t="n">
-        <v>3.865</v>
+        <v>3.848</v>
       </c>
       <c r="F31" t="n">
-        <v>140</v>
+        <v>12140</v>
       </c>
       <c r="G31" t="n">
-        <v>3.929483333333338</v>
+        <v>3.931900000000004</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.86</v>
+        <v>3.865</v>
       </c>
       <c r="C32" t="n">
-        <v>3.94</v>
+        <v>3.865</v>
       </c>
       <c r="D32" t="n">
-        <v>3.94</v>
+        <v>3.865</v>
       </c>
       <c r="E32" t="n">
-        <v>3.86</v>
+        <v>3.865</v>
       </c>
       <c r="F32" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="G32" t="n">
-        <v>3.928166666666671</v>
+        <v>3.929483333333338</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.854</v>
+        <v>3.86</v>
       </c>
       <c r="C33" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="D33" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="E33" t="n">
-        <v>3.854</v>
+        <v>3.86</v>
       </c>
       <c r="F33" t="n">
-        <v>10180</v>
+        <v>280</v>
       </c>
       <c r="G33" t="n">
-        <v>3.926333333333338</v>
+        <v>3.928166666666671</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.869</v>
+        <v>3.854</v>
       </c>
       <c r="C34" t="n">
-        <v>3.869</v>
+        <v>3.93</v>
       </c>
       <c r="D34" t="n">
-        <v>3.869</v>
+        <v>3.93</v>
       </c>
       <c r="E34" t="n">
-        <v>3.869</v>
+        <v>3.854</v>
       </c>
       <c r="F34" t="n">
-        <v>140</v>
+        <v>10180</v>
       </c>
       <c r="G34" t="n">
-        <v>3.926733333333338</v>
+        <v>3.926333333333338</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.86</v>
+        <v>3.869</v>
       </c>
       <c r="C35" t="n">
-        <v>3.87</v>
+        <v>3.869</v>
       </c>
       <c r="D35" t="n">
-        <v>3.87</v>
+        <v>3.869</v>
       </c>
       <c r="E35" t="n">
-        <v>3.86</v>
+        <v>3.869</v>
       </c>
       <c r="F35" t="n">
-        <v>12070.675</v>
+        <v>140</v>
       </c>
       <c r="G35" t="n">
-        <v>3.923900000000005</v>
+        <v>3.926733333333338</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.868</v>
+        <v>3.86</v>
       </c>
       <c r="C36" t="n">
-        <v>3.865</v>
+        <v>3.87</v>
       </c>
       <c r="D36" t="n">
-        <v>3.868</v>
+        <v>3.87</v>
       </c>
       <c r="E36" t="n">
-        <v>3.865</v>
+        <v>3.86</v>
       </c>
       <c r="F36" t="n">
-        <v>280</v>
+        <v>12070.675</v>
       </c>
       <c r="G36" t="n">
-        <v>3.921016666666671</v>
+        <v>3.923900000000005</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.859</v>
+        <v>3.868</v>
       </c>
       <c r="C37" t="n">
-        <v>3.93</v>
+        <v>3.865</v>
       </c>
       <c r="D37" t="n">
-        <v>3.93</v>
+        <v>3.868</v>
       </c>
       <c r="E37" t="n">
-        <v>3.854</v>
+        <v>3.865</v>
       </c>
       <c r="F37" t="n">
-        <v>11340</v>
+        <v>280</v>
       </c>
       <c r="G37" t="n">
-        <v>3.919183333333338</v>
+        <v>3.921016666666671</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.879</v>
+        <v>3.859</v>
       </c>
       <c r="C38" t="n">
-        <v>3.871</v>
+        <v>3.93</v>
       </c>
       <c r="D38" t="n">
-        <v>3.879</v>
+        <v>3.93</v>
       </c>
       <c r="E38" t="n">
-        <v>3.871</v>
+        <v>3.854</v>
       </c>
       <c r="F38" t="n">
-        <v>11597.8022</v>
+        <v>11340</v>
       </c>
       <c r="G38" t="n">
-        <v>3.916416666666672</v>
+        <v>3.919183333333338</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.865</v>
+        <v>3.879</v>
       </c>
       <c r="C39" t="n">
-        <v>3.865</v>
+        <v>3.871</v>
       </c>
       <c r="D39" t="n">
-        <v>3.93</v>
+        <v>3.879</v>
       </c>
       <c r="E39" t="n">
-        <v>3.859</v>
+        <v>3.871</v>
       </c>
       <c r="F39" t="n">
-        <v>16264.4444</v>
+        <v>11597.8022</v>
       </c>
       <c r="G39" t="n">
-        <v>3.913583333333338</v>
+        <v>3.916416666666672</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1769,16 +1769,16 @@
         <v>3.865</v>
       </c>
       <c r="D40" t="n">
-        <v>3.865</v>
+        <v>3.93</v>
       </c>
       <c r="E40" t="n">
-        <v>3.865</v>
+        <v>3.859</v>
       </c>
       <c r="F40" t="n">
-        <v>135.5556</v>
+        <v>16264.4444</v>
       </c>
       <c r="G40" t="n">
-        <v>3.910766666666672</v>
+        <v>3.913583333333338</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.861</v>
+        <v>3.865</v>
       </c>
       <c r="C41" t="n">
-        <v>3.861</v>
+        <v>3.865</v>
       </c>
       <c r="D41" t="n">
-        <v>3.861</v>
+        <v>3.865</v>
       </c>
       <c r="E41" t="n">
-        <v>3.861</v>
+        <v>3.865</v>
       </c>
       <c r="F41" t="n">
-        <v>7182.9696</v>
+        <v>135.5556</v>
       </c>
       <c r="G41" t="n">
-        <v>3.908283333333339</v>
+        <v>3.910766666666672</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.863</v>
+        <v>3.861</v>
       </c>
       <c r="C42" t="n">
-        <v>3.93</v>
+        <v>3.861</v>
       </c>
       <c r="D42" t="n">
-        <v>3.93</v>
+        <v>3.861</v>
       </c>
       <c r="E42" t="n">
-        <v>3.863</v>
+        <v>3.861</v>
       </c>
       <c r="F42" t="n">
-        <v>19740</v>
+        <v>7182.9696</v>
       </c>
       <c r="G42" t="n">
-        <v>3.906783333333339</v>
+        <v>3.908283333333339</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.887</v>
+        <v>3.863</v>
       </c>
       <c r="C43" t="n">
-        <v>3.883</v>
+        <v>3.93</v>
       </c>
       <c r="D43" t="n">
-        <v>3.887</v>
+        <v>3.93</v>
       </c>
       <c r="E43" t="n">
-        <v>3.883</v>
+        <v>3.863</v>
       </c>
       <c r="F43" t="n">
-        <v>12000</v>
+        <v>19740</v>
       </c>
       <c r="G43" t="n">
-        <v>3.904500000000005</v>
+        <v>3.906783333333339</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.93</v>
+        <v>3.887</v>
       </c>
       <c r="C44" t="n">
-        <v>3.93</v>
+        <v>3.883</v>
       </c>
       <c r="D44" t="n">
-        <v>3.93</v>
+        <v>3.887</v>
       </c>
       <c r="E44" t="n">
-        <v>3.93</v>
+        <v>3.883</v>
       </c>
       <c r="F44" t="n">
-        <v>140</v>
+        <v>12000</v>
       </c>
       <c r="G44" t="n">
-        <v>3.903000000000005</v>
+        <v>3.904500000000005</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.895</v>
+        <v>3.93</v>
       </c>
       <c r="C45" t="n">
         <v>3.93</v>
@@ -1947,13 +1947,13 @@
         <v>3.93</v>
       </c>
       <c r="E45" t="n">
-        <v>3.888</v>
+        <v>3.93</v>
       </c>
       <c r="F45" t="n">
-        <v>308.8943</v>
+        <v>140</v>
       </c>
       <c r="G45" t="n">
-        <v>3.902000000000005</v>
+        <v>3.903000000000005</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.924</v>
+        <v>3.895</v>
       </c>
       <c r="C46" t="n">
-        <v>3.924</v>
+        <v>3.93</v>
       </c>
       <c r="D46" t="n">
-        <v>3.924</v>
+        <v>3.93</v>
       </c>
       <c r="E46" t="n">
-        <v>3.924</v>
+        <v>3.888</v>
       </c>
       <c r="F46" t="n">
-        <v>140</v>
+        <v>308.8943</v>
       </c>
       <c r="G46" t="n">
-        <v>3.900900000000005</v>
+        <v>3.902000000000005</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.921</v>
+        <v>3.924</v>
       </c>
       <c r="C47" t="n">
-        <v>3.902</v>
+        <v>3.924</v>
       </c>
       <c r="D47" t="n">
-        <v>3.921</v>
+        <v>3.924</v>
       </c>
       <c r="E47" t="n">
-        <v>3.902</v>
+        <v>3.924</v>
       </c>
       <c r="F47" t="n">
-        <v>700</v>
+        <v>140</v>
       </c>
       <c r="G47" t="n">
-        <v>3.899550000000005</v>
+        <v>3.900900000000005</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.893</v>
+        <v>3.921</v>
       </c>
       <c r="C48" t="n">
-        <v>3.9</v>
+        <v>3.902</v>
       </c>
       <c r="D48" t="n">
-        <v>3.9</v>
+        <v>3.921</v>
       </c>
       <c r="E48" t="n">
-        <v>3.883</v>
+        <v>3.902</v>
       </c>
       <c r="F48" t="n">
-        <v>1130</v>
+        <v>700</v>
       </c>
       <c r="G48" t="n">
-        <v>3.898233333333338</v>
+        <v>3.899550000000005</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.883</v>
+        <v>3.893</v>
       </c>
       <c r="C49" t="n">
-        <v>3.883</v>
+        <v>3.9</v>
       </c>
       <c r="D49" t="n">
-        <v>3.883</v>
+        <v>3.9</v>
       </c>
       <c r="E49" t="n">
         <v>3.883</v>
       </c>
       <c r="F49" t="n">
-        <v>136.2761</v>
+        <v>1130</v>
       </c>
       <c r="G49" t="n">
-        <v>3.897400000000005</v>
+        <v>3.898233333333338</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.88</v>
+        <v>3.883</v>
       </c>
       <c r="C50" t="n">
-        <v>3.765</v>
+        <v>3.883</v>
       </c>
       <c r="D50" t="n">
-        <v>3.88</v>
+        <v>3.883</v>
       </c>
       <c r="E50" t="n">
-        <v>3.765</v>
+        <v>3.883</v>
       </c>
       <c r="F50" t="n">
-        <v>378610.6241</v>
+        <v>136.2761</v>
       </c>
       <c r="G50" t="n">
-        <v>3.896166666666672</v>
+        <v>3.897400000000005</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.89</v>
+        <v>3.88</v>
       </c>
       <c r="C51" t="n">
-        <v>3.89</v>
+        <v>3.765</v>
       </c>
       <c r="D51" t="n">
-        <v>3.89</v>
+        <v>3.88</v>
       </c>
       <c r="E51" t="n">
-        <v>3.89</v>
+        <v>3.765</v>
       </c>
       <c r="F51" t="n">
-        <v>140</v>
+        <v>378610.6241</v>
       </c>
       <c r="G51" t="n">
-        <v>3.895666666666671</v>
+        <v>3.896166666666672</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.73</v>
+        <v>3.89</v>
       </c>
       <c r="C52" t="n">
-        <v>3.671</v>
+        <v>3.89</v>
       </c>
       <c r="D52" t="n">
-        <v>3.73</v>
+        <v>3.89</v>
       </c>
       <c r="E52" t="n">
-        <v>3.671</v>
+        <v>3.89</v>
       </c>
       <c r="F52" t="n">
-        <v>669144.639</v>
+        <v>140</v>
       </c>
       <c r="G52" t="n">
-        <v>3.892866666666671</v>
+        <v>3.895666666666671</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.65</v>
+        <v>3.73</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>3.671</v>
       </c>
       <c r="D53" t="n">
-        <v>3.65</v>
+        <v>3.73</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>3.671</v>
       </c>
       <c r="F53" t="n">
-        <v>1309464.6639</v>
+        <v>669144.639</v>
       </c>
       <c r="G53" t="n">
-        <v>3.879050000000005</v>
+        <v>3.892866666666671</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="C54" t="n">
-        <v>3.579</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>3.579</v>
+        <v>3.65</v>
       </c>
       <c r="E54" t="n">
-        <v>3.56</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>37986.56479156189</v>
+        <v>1309464.6639</v>
       </c>
       <c r="G54" t="n">
-        <v>3.874883333333338</v>
+        <v>3.879050000000005</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>3.56</v>
       </c>
       <c r="C55" t="n">
+        <v>3.579</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.579</v>
+      </c>
+      <c r="E55" t="n">
         <v>3.56</v>
       </c>
-      <c r="D55" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3.301</v>
-      </c>
       <c r="F55" t="n">
-        <v>35444.5874</v>
+        <v>37986.56479156189</v>
       </c>
       <c r="G55" t="n">
-        <v>3.868216666666671</v>
+        <v>3.874883333333338</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.579</v>
+        <v>3.56</v>
       </c>
       <c r="C56" t="n">
-        <v>3.412</v>
+        <v>3.56</v>
       </c>
       <c r="D56" t="n">
-        <v>3.579</v>
+        <v>3.56</v>
       </c>
       <c r="E56" t="n">
-        <v>3.4</v>
+        <v>3.301</v>
       </c>
       <c r="F56" t="n">
-        <v>105156.7884</v>
+        <v>35444.5874</v>
       </c>
       <c r="G56" t="n">
-        <v>3.858583333333338</v>
+        <v>3.868216666666671</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.54</v>
+        <v>3.579</v>
       </c>
       <c r="C57" t="n">
-        <v>3.456</v>
+        <v>3.412</v>
       </c>
       <c r="D57" t="n">
-        <v>3.57</v>
+        <v>3.579</v>
       </c>
       <c r="E57" t="n">
-        <v>3.456</v>
+        <v>3.4</v>
       </c>
       <c r="F57" t="n">
-        <v>19932.997</v>
+        <v>105156.7884</v>
       </c>
       <c r="G57" t="n">
-        <v>3.849700000000004</v>
+        <v>3.858583333333338</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.55</v>
+        <v>3.54</v>
       </c>
       <c r="C58" t="n">
-        <v>3.699</v>
+        <v>3.456</v>
       </c>
       <c r="D58" t="n">
-        <v>3.836</v>
+        <v>3.57</v>
       </c>
       <c r="E58" t="n">
-        <v>3.55</v>
+        <v>3.456</v>
       </c>
       <c r="F58" t="n">
-        <v>790133.6878</v>
+        <v>19932.997</v>
       </c>
       <c r="G58" t="n">
-        <v>3.847533333333338</v>
+        <v>3.849700000000004</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="C59" t="n">
         <v>3.699</v>
       </c>
       <c r="D59" t="n">
-        <v>3.71</v>
+        <v>3.836</v>
       </c>
       <c r="E59" t="n">
-        <v>3.699</v>
+        <v>3.55</v>
       </c>
       <c r="F59" t="n">
-        <v>431459.7042</v>
+        <v>790133.6878</v>
       </c>
       <c r="G59" t="n">
-        <v>3.842850000000005</v>
+        <v>3.847533333333338</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="C60" t="n">
-        <v>3.432</v>
+        <v>3.699</v>
       </c>
       <c r="D60" t="n">
-        <v>3.45</v>
+        <v>3.71</v>
       </c>
       <c r="E60" t="n">
-        <v>3.432</v>
+        <v>3.699</v>
       </c>
       <c r="F60" t="n">
-        <v>321033.4871</v>
+        <v>431459.7042</v>
       </c>
       <c r="G60" t="n">
-        <v>3.833550000000004</v>
+        <v>3.842850000000005</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
       <c r="C61" t="n">
-        <v>3.59</v>
+        <v>3.432</v>
       </c>
       <c r="D61" t="n">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
       <c r="E61" t="n">
-        <v>3.59</v>
+        <v>3.432</v>
       </c>
       <c r="F61" t="n">
-        <v>2450</v>
+        <v>321033.4871</v>
       </c>
       <c r="G61" t="n">
-        <v>3.827216666666671</v>
+        <v>3.833550000000004</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>3.59</v>
       </c>
       <c r="F62" t="n">
-        <v>10816.0493</v>
+        <v>2450</v>
       </c>
       <c r="G62" t="n">
-        <v>3.821400000000005</v>
+        <v>3.827216666666671</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.444</v>
+        <v>3.59</v>
       </c>
       <c r="C63" t="n">
-        <v>3.439</v>
+        <v>3.59</v>
       </c>
       <c r="D63" t="n">
-        <v>3.444</v>
+        <v>3.59</v>
       </c>
       <c r="E63" t="n">
-        <v>3.439</v>
+        <v>3.59</v>
       </c>
       <c r="F63" t="n">
-        <v>33201.7415</v>
+        <v>10816.0493</v>
       </c>
       <c r="G63" t="n">
-        <v>3.814900000000004</v>
+        <v>3.821400000000005</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.599</v>
+        <v>3.444</v>
       </c>
       <c r="C64" t="n">
-        <v>3.599</v>
+        <v>3.439</v>
       </c>
       <c r="D64" t="n">
-        <v>3.599</v>
+        <v>3.444</v>
       </c>
       <c r="E64" t="n">
-        <v>3.599</v>
+        <v>3.439</v>
       </c>
       <c r="F64" t="n">
-        <v>9022.155000000001</v>
+        <v>33201.7415</v>
       </c>
       <c r="G64" t="n">
-        <v>3.809900000000004</v>
+        <v>3.814900000000004</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>3.599</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1101</v>
+        <v>9022.155000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>3.804216666666671</v>
+        <v>3.809900000000004</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.562</v>
+        <v>3.599</v>
       </c>
       <c r="C66" t="n">
-        <v>3.562</v>
+        <v>3.599</v>
       </c>
       <c r="D66" t="n">
-        <v>3.562</v>
+        <v>3.599</v>
       </c>
       <c r="E66" t="n">
-        <v>3.562</v>
+        <v>3.599</v>
       </c>
       <c r="F66" t="n">
-        <v>1824.5115</v>
+        <v>0.1101</v>
       </c>
       <c r="G66" t="n">
-        <v>3.797933333333338</v>
+        <v>3.804216666666671</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.589</v>
+        <v>3.562</v>
       </c>
       <c r="C67" t="n">
-        <v>3.589</v>
+        <v>3.562</v>
       </c>
       <c r="D67" t="n">
-        <v>3.589</v>
+        <v>3.562</v>
       </c>
       <c r="E67" t="n">
-        <v>3.589</v>
+        <v>3.562</v>
       </c>
       <c r="F67" t="n">
-        <v>30000</v>
+        <v>1824.5115</v>
       </c>
       <c r="G67" t="n">
-        <v>3.793350000000004</v>
+        <v>3.797933333333338</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.55</v>
+        <v>3.589</v>
       </c>
       <c r="C68" t="n">
-        <v>3.55</v>
+        <v>3.589</v>
       </c>
       <c r="D68" t="n">
-        <v>3.55</v>
+        <v>3.589</v>
       </c>
       <c r="E68" t="n">
-        <v>3.55</v>
+        <v>3.589</v>
       </c>
       <c r="F68" t="n">
-        <v>287.7903</v>
+        <v>30000</v>
       </c>
       <c r="G68" t="n">
-        <v>3.788433333333338</v>
+        <v>3.793350000000004</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.484</v>
+        <v>3.55</v>
       </c>
       <c r="C69" t="n">
-        <v>3.445</v>
+        <v>3.55</v>
       </c>
       <c r="D69" t="n">
-        <v>3.484</v>
+        <v>3.55</v>
       </c>
       <c r="E69" t="n">
-        <v>3.445</v>
+        <v>3.55</v>
       </c>
       <c r="F69" t="n">
-        <v>18303.4986</v>
+        <v>287.7903</v>
       </c>
       <c r="G69" t="n">
-        <v>3.781766666666671</v>
+        <v>3.788433333333338</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.443</v>
+        <v>3.484</v>
       </c>
       <c r="C70" t="n">
-        <v>3.443</v>
+        <v>3.445</v>
       </c>
       <c r="D70" t="n">
-        <v>3.443</v>
+        <v>3.484</v>
       </c>
       <c r="E70" t="n">
-        <v>3.443</v>
+        <v>3.445</v>
       </c>
       <c r="F70" t="n">
-        <v>54910.4959</v>
+        <v>18303.4986</v>
       </c>
       <c r="G70" t="n">
-        <v>3.774766666666671</v>
+        <v>3.781766666666671</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.529</v>
+        <v>3.443</v>
       </c>
       <c r="C71" t="n">
-        <v>3.53</v>
+        <v>3.443</v>
       </c>
       <c r="D71" t="n">
-        <v>3.53</v>
+        <v>3.443</v>
       </c>
       <c r="E71" t="n">
-        <v>3.529</v>
+        <v>3.443</v>
       </c>
       <c r="F71" t="n">
-        <v>6647.8308</v>
+        <v>54910.4959</v>
       </c>
       <c r="G71" t="n">
-        <v>3.768783333333338</v>
+        <v>3.774766666666671</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.45</v>
+        <v>3.529</v>
       </c>
       <c r="C72" t="n">
-        <v>3.464</v>
+        <v>3.53</v>
       </c>
       <c r="D72" t="n">
-        <v>3.464</v>
+        <v>3.53</v>
       </c>
       <c r="E72" t="n">
-        <v>3.45</v>
+        <v>3.529</v>
       </c>
       <c r="F72" t="n">
-        <v>570021.6486</v>
+        <v>6647.8308</v>
       </c>
       <c r="G72" t="n">
-        <v>3.761700000000004</v>
+        <v>3.768783333333338</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.443</v>
+        <v>3.45</v>
       </c>
       <c r="C73" t="n">
-        <v>3.442</v>
+        <v>3.464</v>
       </c>
       <c r="D73" t="n">
-        <v>3.443</v>
+        <v>3.464</v>
       </c>
       <c r="E73" t="n">
-        <v>3.442</v>
+        <v>3.45</v>
       </c>
       <c r="F73" t="n">
-        <v>64030.5731</v>
+        <v>570021.6486</v>
       </c>
       <c r="G73" t="n">
-        <v>3.752900000000004</v>
+        <v>3.761700000000004</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.442</v>
+        <v>3.443</v>
       </c>
       <c r="C74" t="n">
         <v>3.442</v>
       </c>
       <c r="D74" t="n">
-        <v>3.442</v>
+        <v>3.443</v>
       </c>
       <c r="E74" t="n">
         <v>3.442</v>
       </c>
       <c r="F74" t="n">
-        <v>170000</v>
+        <v>64030.5731</v>
       </c>
       <c r="G74" t="n">
-        <v>3.744133333333338</v>
+        <v>3.752900000000004</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>3.442</v>
       </c>
       <c r="C75" t="n">
-        <v>3.441</v>
+        <v>3.442</v>
       </c>
       <c r="D75" t="n">
         <v>3.442</v>
       </c>
       <c r="E75" t="n">
-        <v>3.441</v>
+        <v>3.442</v>
       </c>
       <c r="F75" t="n">
-        <v>125138.967</v>
+        <v>170000</v>
       </c>
       <c r="G75" t="n">
-        <v>3.735516666666671</v>
+        <v>3.744133333333338</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,35 +3023,31 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.44</v>
+        <v>3.442</v>
       </c>
       <c r="C76" t="n">
-        <v>3.44</v>
+        <v>3.441</v>
       </c>
       <c r="D76" t="n">
-        <v>3.44</v>
+        <v>3.442</v>
       </c>
       <c r="E76" t="n">
-        <v>3.44</v>
+        <v>3.441</v>
       </c>
       <c r="F76" t="n">
-        <v>841.8372000000001</v>
+        <v>125138.967</v>
       </c>
       <c r="G76" t="n">
-        <v>3.727133333333338</v>
+        <v>3.735516666666671</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>3.441</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3.441</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
@@ -3062,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.436</v>
+        <v>3.44</v>
       </c>
       <c r="C77" t="n">
-        <v>3.436</v>
+        <v>3.44</v>
       </c>
       <c r="D77" t="n">
-        <v>3.436</v>
+        <v>3.44</v>
       </c>
       <c r="E77" t="n">
-        <v>3.436</v>
+        <v>3.44</v>
       </c>
       <c r="F77" t="n">
-        <v>17055.2208</v>
+        <v>841.8372000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>3.719683333333338</v>
+        <v>3.727133333333338</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3086,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>3.441</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3103,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.411</v>
+        <v>3.436</v>
       </c>
       <c r="C78" t="n">
-        <v>3.411</v>
+        <v>3.436</v>
       </c>
       <c r="D78" t="n">
-        <v>3.411</v>
+        <v>3.436</v>
       </c>
       <c r="E78" t="n">
-        <v>3.411</v>
+        <v>3.436</v>
       </c>
       <c r="F78" t="n">
-        <v>23740.8125</v>
+        <v>17055.2208</v>
       </c>
       <c r="G78" t="n">
-        <v>3.710566666666671</v>
+        <v>3.719683333333338</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3127,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>3.441</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3144,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.381</v>
+        <v>3.411</v>
       </c>
       <c r="C79" t="n">
-        <v>3.311</v>
+        <v>3.411</v>
       </c>
       <c r="D79" t="n">
-        <v>3.381</v>
+        <v>3.411</v>
       </c>
       <c r="E79" t="n">
-        <v>3.311</v>
+        <v>3.411</v>
       </c>
       <c r="F79" t="n">
-        <v>74425.2608</v>
+        <v>23740.8125</v>
       </c>
       <c r="G79" t="n">
-        <v>3.701200000000005</v>
+        <v>3.710566666666671</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3179,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.302</v>
+        <v>3.381</v>
       </c>
       <c r="C80" t="n">
-        <v>3.302</v>
+        <v>3.311</v>
       </c>
       <c r="D80" t="n">
-        <v>3.302</v>
+        <v>3.381</v>
       </c>
       <c r="E80" t="n">
-        <v>3.302</v>
+        <v>3.311</v>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>74425.2608</v>
       </c>
       <c r="G80" t="n">
-        <v>3.692100000000004</v>
+        <v>3.701200000000005</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3214,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.301</v>
+        <v>3.302</v>
       </c>
       <c r="C81" t="n">
-        <v>3.212</v>
+        <v>3.302</v>
       </c>
       <c r="D81" t="n">
-        <v>3.301</v>
+        <v>3.302</v>
       </c>
       <c r="E81" t="n">
-        <v>3.211</v>
+        <v>3.302</v>
       </c>
       <c r="F81" t="n">
-        <v>139442.7956</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="n">
-        <v>3.681850000000004</v>
+        <v>3.692100000000004</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3249,38 +3233,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>3.301</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.301</v>
+      </c>
+      <c r="E82" t="n">
         <v>3.211</v>
       </c>
-      <c r="C82" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="D82" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="E82" t="n">
-        <v>3.133</v>
-      </c>
       <c r="F82" t="n">
-        <v>1185080.422</v>
+        <v>139442.7956</v>
       </c>
       <c r="G82" t="n">
-        <v>3.672116666666671</v>
+        <v>3.681850000000004</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>3.212</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3290,38 +3268,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.174</v>
+        <v>3.211</v>
       </c>
       <c r="C83" t="n">
-        <v>3.174</v>
+        <v>3.239</v>
       </c>
       <c r="D83" t="n">
-        <v>3.174</v>
+        <v>3.24</v>
       </c>
       <c r="E83" t="n">
-        <v>3.174</v>
+        <v>3.133</v>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>1185080.422</v>
       </c>
       <c r="G83" t="n">
-        <v>3.661300000000004</v>
+        <v>3.672116666666671</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3331,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.257</v>
+        <v>3.174</v>
       </c>
       <c r="C84" t="n">
-        <v>3.257</v>
+        <v>3.174</v>
       </c>
       <c r="D84" t="n">
-        <v>3.257</v>
+        <v>3.174</v>
       </c>
       <c r="E84" t="n">
-        <v>3.257</v>
+        <v>3.174</v>
       </c>
       <c r="F84" t="n">
-        <v>5769.3299</v>
+        <v>300</v>
       </c>
       <c r="G84" t="n">
-        <v>3.651866666666671</v>
+        <v>3.661300000000004</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3356,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3370,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.435</v>
+        <v>3.257</v>
       </c>
       <c r="C85" t="n">
-        <v>3.435</v>
+        <v>3.257</v>
       </c>
       <c r="D85" t="n">
-        <v>3.435</v>
+        <v>3.257</v>
       </c>
       <c r="E85" t="n">
-        <v>3.435</v>
+        <v>3.257</v>
       </c>
       <c r="F85" t="n">
-        <v>160</v>
+        <v>5769.3299</v>
       </c>
       <c r="G85" t="n">
-        <v>3.645400000000004</v>
+        <v>3.651866666666671</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3395,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3409,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.39</v>
+        <v>3.435</v>
       </c>
       <c r="C86" t="n">
-        <v>3.436</v>
+        <v>3.435</v>
       </c>
       <c r="D86" t="n">
-        <v>3.436</v>
+        <v>3.435</v>
       </c>
       <c r="E86" t="n">
-        <v>3.39</v>
+        <v>3.435</v>
       </c>
       <c r="F86" t="n">
-        <v>606531.4295</v>
+        <v>160</v>
       </c>
       <c r="G86" t="n">
-        <v>3.638833333333337</v>
+        <v>3.645400000000004</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3434,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3448,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.688</v>
+        <v>3.39</v>
       </c>
       <c r="C87" t="n">
-        <v>3.688</v>
+        <v>3.436</v>
       </c>
       <c r="D87" t="n">
-        <v>3.688</v>
+        <v>3.436</v>
       </c>
       <c r="E87" t="n">
-        <v>3.688</v>
+        <v>3.39</v>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>606531.4295</v>
       </c>
       <c r="G87" t="n">
-        <v>3.63431666666667</v>
+        <v>3.638833333333337</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3473,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3487,38 +3443,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.321</v>
+        <v>3.688</v>
       </c>
       <c r="C88" t="n">
-        <v>3.321</v>
+        <v>3.688</v>
       </c>
       <c r="D88" t="n">
-        <v>3.321</v>
+        <v>3.688</v>
       </c>
       <c r="E88" t="n">
-        <v>3.321</v>
+        <v>3.688</v>
       </c>
       <c r="F88" t="n">
         <v>200</v>
       </c>
       <c r="G88" t="n">
-        <v>3.623683333333337</v>
+        <v>3.63431666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>3.688</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3528,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.488</v>
+        <v>3.321</v>
       </c>
       <c r="C89" t="n">
-        <v>3.588</v>
+        <v>3.321</v>
       </c>
       <c r="D89" t="n">
-        <v>3.588</v>
+        <v>3.321</v>
       </c>
       <c r="E89" t="n">
-        <v>3.488</v>
+        <v>3.321</v>
       </c>
       <c r="F89" t="n">
-        <v>20400</v>
+        <v>200</v>
       </c>
       <c r="G89" t="n">
-        <v>3.617500000000004</v>
+        <v>3.623683333333337</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3553,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3567,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>3.488</v>
+      </c>
+      <c r="C90" t="n">
         <v>3.588</v>
       </c>
-      <c r="C90" t="n">
-        <v>3.675</v>
-      </c>
       <c r="D90" t="n">
-        <v>3.678</v>
+        <v>3.588</v>
       </c>
       <c r="E90" t="n">
-        <v>3.588</v>
+        <v>3.488</v>
       </c>
       <c r="F90" t="n">
-        <v>31420.0001</v>
+        <v>20400</v>
       </c>
       <c r="G90" t="n">
-        <v>3.61376666666667</v>
+        <v>3.617500000000004</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3592,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3606,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="C91" t="n">
         <v>3.675</v>
       </c>
-      <c r="C91" t="n">
-        <v>3.677</v>
-      </c>
       <c r="D91" t="n">
-        <v>3.677</v>
+        <v>3.678</v>
       </c>
       <c r="E91" t="n">
-        <v>3.342</v>
+        <v>3.588</v>
       </c>
       <c r="F91" t="n">
-        <v>840.0001</v>
+        <v>31420.0001</v>
       </c>
       <c r="G91" t="n">
-        <v>3.610633333333337</v>
+        <v>3.61376666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3631,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3645,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.599</v>
+        <v>3.675</v>
       </c>
       <c r="C92" t="n">
-        <v>3.672</v>
+        <v>3.677</v>
       </c>
       <c r="D92" t="n">
-        <v>3.672</v>
+        <v>3.677</v>
       </c>
       <c r="E92" t="n">
-        <v>3.599</v>
+        <v>3.342</v>
       </c>
       <c r="F92" t="n">
-        <v>150</v>
+        <v>840.0001</v>
       </c>
       <c r="G92" t="n">
-        <v>3.60616666666667</v>
+        <v>3.610633333333337</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3670,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3687,19 +3621,19 @@
         <v>3.599</v>
       </c>
       <c r="C93" t="n">
-        <v>3.688</v>
+        <v>3.672</v>
       </c>
       <c r="D93" t="n">
-        <v>3.688</v>
+        <v>3.672</v>
       </c>
       <c r="E93" t="n">
         <v>3.599</v>
       </c>
       <c r="F93" t="n">
-        <v>31000</v>
+        <v>150</v>
       </c>
       <c r="G93" t="n">
-        <v>3.602133333333336</v>
+        <v>3.60616666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3709,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3723,7 +3653,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.621</v>
+        <v>3.599</v>
       </c>
       <c r="C94" t="n">
         <v>3.688</v>
@@ -3735,10 +3665,10 @@
         <v>3.599</v>
       </c>
       <c r="F94" t="n">
-        <v>2700</v>
+        <v>31000</v>
       </c>
       <c r="G94" t="n">
-        <v>3.599116666666669</v>
+        <v>3.602133333333336</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3748,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3762,7 +3688,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.688</v>
+        <v>3.621</v>
       </c>
       <c r="C95" t="n">
         <v>3.688</v>
@@ -3771,13 +3697,13 @@
         <v>3.688</v>
       </c>
       <c r="E95" t="n">
-        <v>3.688</v>
+        <v>3.599</v>
       </c>
       <c r="F95" t="n">
-        <v>150</v>
+        <v>2700</v>
       </c>
       <c r="G95" t="n">
-        <v>3.596083333333336</v>
+        <v>3.599116666666669</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3787,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3801,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.687</v>
+        <v>3.688</v>
       </c>
       <c r="C96" t="n">
-        <v>3.764</v>
+        <v>3.688</v>
       </c>
       <c r="D96" t="n">
-        <v>3.764</v>
+        <v>3.688</v>
       </c>
       <c r="E96" t="n">
-        <v>3.687</v>
+        <v>3.688</v>
       </c>
       <c r="F96" t="n">
-        <v>40211.8967</v>
+        <v>150</v>
       </c>
       <c r="G96" t="n">
-        <v>3.594400000000002</v>
+        <v>3.596083333333336</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3826,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3840,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>3.687</v>
+      </c>
+      <c r="C97" t="n">
         <v>3.764</v>
       </c>
-      <c r="C97" t="n">
-        <v>3.784</v>
-      </c>
       <c r="D97" t="n">
-        <v>3.784</v>
+        <v>3.764</v>
       </c>
       <c r="E97" t="n">
-        <v>3.764</v>
+        <v>3.687</v>
       </c>
       <c r="F97" t="n">
-        <v>110986.7011</v>
+        <v>40211.8967</v>
       </c>
       <c r="G97" t="n">
-        <v>3.591966666666669</v>
+        <v>3.594400000000002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3865,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3879,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.705</v>
+        <v>3.764</v>
       </c>
       <c r="C98" t="n">
-        <v>3.705</v>
+        <v>3.784</v>
       </c>
       <c r="D98" t="n">
-        <v>3.705</v>
+        <v>3.784</v>
       </c>
       <c r="E98" t="n">
-        <v>3.705</v>
+        <v>3.764</v>
       </c>
       <c r="F98" t="n">
-        <v>150</v>
+        <v>110986.7011</v>
       </c>
       <c r="G98" t="n">
-        <v>3.589200000000003</v>
+        <v>3.591966666666669</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3904,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3918,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.699</v>
+        <v>3.705</v>
       </c>
       <c r="C99" t="n">
-        <v>3.77</v>
+        <v>3.705</v>
       </c>
       <c r="D99" t="n">
-        <v>3.77</v>
+        <v>3.705</v>
       </c>
       <c r="E99" t="n">
-        <v>3.692</v>
+        <v>3.705</v>
       </c>
       <c r="F99" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="G99" t="n">
-        <v>3.587616666666669</v>
+        <v>3.589200000000003</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3943,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3957,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.722</v>
+        <v>3.699</v>
       </c>
       <c r="C100" t="n">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
       <c r="D100" t="n">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
       <c r="E100" t="n">
-        <v>3.695</v>
+        <v>3.692</v>
       </c>
       <c r="F100" t="n">
-        <v>104835.4604</v>
+        <v>600</v>
       </c>
       <c r="G100" t="n">
-        <v>3.585866666666669</v>
+        <v>3.587616666666669</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3982,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3996,7 +3898,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.718</v>
+        <v>3.722</v>
       </c>
       <c r="C101" t="n">
         <v>3.76</v>
@@ -4005,13 +3907,13 @@
         <v>3.76</v>
       </c>
       <c r="E101" t="n">
-        <v>3.713</v>
+        <v>3.695</v>
       </c>
       <c r="F101" t="n">
-        <v>750</v>
+        <v>104835.4604</v>
       </c>
       <c r="G101" t="n">
-        <v>3.584183333333335</v>
+        <v>3.585866666666669</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4021,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4035,36 +3933,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.759</v>
+        <v>3.718</v>
       </c>
       <c r="C102" t="n">
-        <v>3.755</v>
+        <v>3.76</v>
       </c>
       <c r="D102" t="n">
         <v>3.76</v>
       </c>
       <c r="E102" t="n">
-        <v>3.755</v>
+        <v>3.713</v>
       </c>
       <c r="F102" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="G102" t="n">
-        <v>3.581266666666669</v>
+        <v>3.584183333333335</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4074,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.737</v>
+        <v>3.759</v>
       </c>
       <c r="C103" t="n">
-        <v>3.71</v>
+        <v>3.755</v>
       </c>
       <c r="D103" t="n">
-        <v>3.737</v>
+        <v>3.76</v>
       </c>
       <c r="E103" t="n">
-        <v>3.71</v>
+        <v>3.755</v>
       </c>
       <c r="F103" t="n">
-        <v>58520.3834</v>
+        <v>900</v>
       </c>
       <c r="G103" t="n">
-        <v>3.578383333333335</v>
+        <v>3.581266666666669</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4099,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4113,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.709</v>
+        <v>3.737</v>
       </c>
       <c r="C104" t="n">
-        <v>3.69</v>
+        <v>3.71</v>
       </c>
       <c r="D104" t="n">
-        <v>3.709</v>
+        <v>3.737</v>
       </c>
       <c r="E104" t="n">
-        <v>3.69</v>
+        <v>3.71</v>
       </c>
       <c r="F104" t="n">
-        <v>33421.6081</v>
+        <v>58520.3834</v>
       </c>
       <c r="G104" t="n">
-        <v>3.574383333333335</v>
+        <v>3.578383333333335</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4138,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4152,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.699</v>
+        <v>3.709</v>
       </c>
       <c r="C105" t="n">
-        <v>3.699</v>
+        <v>3.69</v>
       </c>
       <c r="D105" t="n">
-        <v>3.699</v>
+        <v>3.709</v>
       </c>
       <c r="E105" t="n">
-        <v>3.699</v>
+        <v>3.69</v>
       </c>
       <c r="F105" t="n">
-        <v>49762.0533</v>
+        <v>33421.6081</v>
       </c>
       <c r="G105" t="n">
-        <v>3.570533333333335</v>
+        <v>3.574383333333335</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4177,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4191,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.697</v>
+        <v>3.699</v>
       </c>
       <c r="C106" t="n">
-        <v>3.697</v>
+        <v>3.699</v>
       </c>
       <c r="D106" t="n">
-        <v>3.697</v>
+        <v>3.699</v>
       </c>
       <c r="E106" t="n">
-        <v>3.697</v>
+        <v>3.699</v>
       </c>
       <c r="F106" t="n">
-        <v>150</v>
+        <v>49762.0533</v>
       </c>
       <c r="G106" t="n">
-        <v>3.566750000000002</v>
+        <v>3.570533333333335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4216,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4230,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.698</v>
+        <v>3.697</v>
       </c>
       <c r="C107" t="n">
-        <v>3.685</v>
+        <v>3.697</v>
       </c>
       <c r="D107" t="n">
-        <v>3.698</v>
+        <v>3.697</v>
       </c>
       <c r="E107" t="n">
-        <v>3.685</v>
+        <v>3.697</v>
       </c>
       <c r="F107" t="n">
-        <v>4150</v>
+        <v>150</v>
       </c>
       <c r="G107" t="n">
-        <v>3.563133333333335</v>
+        <v>3.566750000000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4255,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4269,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>3.698</v>
+      </c>
+      <c r="C108" t="n">
         <v>3.685</v>
-      </c>
-      <c r="C108" t="n">
-        <v>3.698</v>
       </c>
       <c r="D108" t="n">
         <v>3.698</v>
       </c>
       <c r="E108" t="n">
-        <v>3.671</v>
+        <v>3.685</v>
       </c>
       <c r="F108" t="n">
-        <v>2150</v>
+        <v>4150</v>
       </c>
       <c r="G108" t="n">
-        <v>3.559766666666669</v>
+        <v>3.563133333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4294,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4308,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.672</v>
+        <v>3.685</v>
       </c>
       <c r="C109" t="n">
-        <v>3.605</v>
+        <v>3.698</v>
       </c>
       <c r="D109" t="n">
-        <v>3.672</v>
+        <v>3.698</v>
       </c>
       <c r="E109" t="n">
-        <v>3.605</v>
+        <v>3.671</v>
       </c>
       <c r="F109" t="n">
-        <v>4396.597</v>
+        <v>2150</v>
       </c>
       <c r="G109" t="n">
-        <v>3.555133333333335</v>
+        <v>3.559766666666669</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4333,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4347,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>3.672</v>
+      </c>
+      <c r="C110" t="n">
         <v>3.605</v>
       </c>
-      <c r="C110" t="n">
-        <v>3.697</v>
-      </c>
       <c r="D110" t="n">
-        <v>3.697</v>
+        <v>3.672</v>
       </c>
       <c r="E110" t="n">
         <v>3.605</v>
       </c>
       <c r="F110" t="n">
-        <v>610</v>
+        <v>4396.597</v>
       </c>
       <c r="G110" t="n">
-        <v>3.554000000000002</v>
+        <v>3.555133333333335</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4372,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4386,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.588</v>
+        <v>3.605</v>
       </c>
       <c r="C111" t="n">
-        <v>3.417</v>
+        <v>3.697</v>
       </c>
       <c r="D111" t="n">
-        <v>3.588</v>
+        <v>3.697</v>
       </c>
       <c r="E111" t="n">
-        <v>3.417</v>
+        <v>3.605</v>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>610</v>
       </c>
       <c r="G111" t="n">
-        <v>3.546116666666669</v>
+        <v>3.554000000000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4411,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4425,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.689</v>
+        <v>3.588</v>
       </c>
       <c r="C112" t="n">
-        <v>3.689</v>
+        <v>3.417</v>
       </c>
       <c r="D112" t="n">
-        <v>3.689</v>
+        <v>3.588</v>
       </c>
       <c r="E112" t="n">
-        <v>3.41</v>
+        <v>3.417</v>
       </c>
       <c r="F112" t="n">
-        <v>65089.7211</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="n">
-        <v>3.546416666666669</v>
+        <v>3.546116666666669</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4450,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4464,7 +4318,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.408</v>
+        <v>3.689</v>
       </c>
       <c r="C113" t="n">
         <v>3.689</v>
@@ -4473,13 +4327,13 @@
         <v>3.689</v>
       </c>
       <c r="E113" t="n">
-        <v>3.215</v>
+        <v>3.41</v>
       </c>
       <c r="F113" t="n">
-        <v>30458.9723</v>
+        <v>65089.7211</v>
       </c>
       <c r="G113" t="n">
-        <v>3.557900000000002</v>
+        <v>3.546416666666669</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4489,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4503,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.233</v>
+        <v>3.408</v>
       </c>
       <c r="C114" t="n">
-        <v>3.233</v>
+        <v>3.689</v>
       </c>
       <c r="D114" t="n">
-        <v>3.233</v>
+        <v>3.689</v>
       </c>
       <c r="E114" t="n">
-        <v>3.233</v>
+        <v>3.215</v>
       </c>
       <c r="F114" t="n">
-        <v>155</v>
+        <v>30458.9723</v>
       </c>
       <c r="G114" t="n">
-        <v>3.552133333333336</v>
+        <v>3.557900000000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4528,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4542,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.586</v>
+        <v>3.233</v>
       </c>
       <c r="C115" t="n">
-        <v>3.588</v>
+        <v>3.233</v>
       </c>
       <c r="D115" t="n">
-        <v>3.588</v>
+        <v>3.233</v>
       </c>
       <c r="E115" t="n">
-        <v>3.586</v>
+        <v>3.233</v>
       </c>
       <c r="F115" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G115" t="n">
-        <v>3.552600000000002</v>
+        <v>3.552133333333336</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4567,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4581,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.587</v>
+        <v>3.586</v>
       </c>
       <c r="C116" t="n">
-        <v>3.587</v>
+        <v>3.588</v>
       </c>
       <c r="D116" t="n">
-        <v>3.587</v>
+        <v>3.588</v>
       </c>
       <c r="E116" t="n">
-        <v>3.587</v>
+        <v>3.586</v>
       </c>
       <c r="F116" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G116" t="n">
-        <v>3.555516666666668</v>
+        <v>3.552600000000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4606,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4623,19 +4461,19 @@
         <v>3.587</v>
       </c>
       <c r="C117" t="n">
-        <v>3.588</v>
+        <v>3.587</v>
       </c>
       <c r="D117" t="n">
-        <v>3.588</v>
+        <v>3.587</v>
       </c>
       <c r="E117" t="n">
         <v>3.587</v>
       </c>
       <c r="F117" t="n">
-        <v>10659.9625</v>
+        <v>150</v>
       </c>
       <c r="G117" t="n">
-        <v>3.557716666666669</v>
+        <v>3.555516666666668</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4645,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4662,19 +4496,19 @@
         <v>3.587</v>
       </c>
       <c r="C118" t="n">
-        <v>3.587</v>
+        <v>3.588</v>
       </c>
       <c r="D118" t="n">
-        <v>3.587</v>
+        <v>3.588</v>
       </c>
       <c r="E118" t="n">
         <v>3.587</v>
       </c>
       <c r="F118" t="n">
-        <v>20002.1329</v>
+        <v>10659.9625</v>
       </c>
       <c r="G118" t="n">
-        <v>3.555850000000001</v>
+        <v>3.557716666666669</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4684,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4710,10 +4540,10 @@
         <v>3.587</v>
       </c>
       <c r="F119" t="n">
-        <v>36671.4938</v>
+        <v>20002.1329</v>
       </c>
       <c r="G119" t="n">
-        <v>3.553983333333334</v>
+        <v>3.555850000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4723,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4740,19 +4566,19 @@
         <v>3.587</v>
       </c>
       <c r="C120" t="n">
-        <v>3.588</v>
+        <v>3.587</v>
       </c>
       <c r="D120" t="n">
-        <v>3.588</v>
+        <v>3.587</v>
       </c>
       <c r="E120" t="n">
         <v>3.587</v>
       </c>
       <c r="F120" t="n">
-        <v>73289.7855</v>
+        <v>36671.4938</v>
       </c>
       <c r="G120" t="n">
-        <v>3.556583333333335</v>
+        <v>3.553983333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4762,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4776,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.647</v>
+        <v>3.587</v>
       </c>
       <c r="C121" t="n">
-        <v>3.647</v>
+        <v>3.588</v>
       </c>
       <c r="D121" t="n">
-        <v>3.647</v>
+        <v>3.588</v>
       </c>
       <c r="E121" t="n">
-        <v>3.647</v>
+        <v>3.587</v>
       </c>
       <c r="F121" t="n">
-        <v>150</v>
+        <v>73289.7855</v>
       </c>
       <c r="G121" t="n">
-        <v>3.557533333333334</v>
+        <v>3.556583333333335</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4801,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4818,19 +4636,19 @@
         <v>3.647</v>
       </c>
       <c r="C122" t="n">
-        <v>3.76</v>
+        <v>3.647</v>
       </c>
       <c r="D122" t="n">
-        <v>3.76</v>
+        <v>3.647</v>
       </c>
       <c r="E122" t="n">
         <v>3.647</v>
       </c>
       <c r="F122" t="n">
-        <v>218991.7124</v>
+        <v>150</v>
       </c>
       <c r="G122" t="n">
-        <v>3.560366666666667</v>
+        <v>3.557533333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4840,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4854,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.755</v>
+        <v>3.647</v>
       </c>
       <c r="C123" t="n">
-        <v>3.755</v>
+        <v>3.76</v>
       </c>
       <c r="D123" t="n">
-        <v>3.755</v>
+        <v>3.76</v>
       </c>
       <c r="E123" t="n">
-        <v>3.755</v>
+        <v>3.647</v>
       </c>
       <c r="F123" t="n">
-        <v>150</v>
+        <v>218991.7124</v>
       </c>
       <c r="G123" t="n">
-        <v>3.565633333333334</v>
+        <v>3.560366666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4879,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4893,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.747</v>
+        <v>3.755</v>
       </c>
       <c r="C124" t="n">
-        <v>3.74</v>
+        <v>3.755</v>
       </c>
       <c r="D124" t="n">
-        <v>3.747</v>
+        <v>3.755</v>
       </c>
       <c r="E124" t="n">
-        <v>3.74</v>
+        <v>3.755</v>
       </c>
       <c r="F124" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G124" t="n">
-        <v>3.567983333333335</v>
+        <v>3.565633333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4918,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4932,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.76</v>
+        <v>3.747</v>
       </c>
       <c r="C125" t="n">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="D125" t="n">
-        <v>3.76</v>
+        <v>3.747</v>
       </c>
       <c r="E125" t="n">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="F125" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G125" t="n">
-        <v>3.570666666666668</v>
+        <v>3.567983333333335</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4957,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4971,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.759</v>
+        <v>3.76</v>
       </c>
       <c r="C126" t="n">
-        <v>3.759</v>
+        <v>3.76</v>
       </c>
       <c r="D126" t="n">
-        <v>3.759</v>
+        <v>3.76</v>
       </c>
       <c r="E126" t="n">
-        <v>3.759</v>
+        <v>3.76</v>
       </c>
       <c r="F126" t="n">
         <v>150</v>
       </c>
       <c r="G126" t="n">
-        <v>3.573950000000001</v>
+        <v>3.570666666666668</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4996,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5010,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.758</v>
+        <v>3.759</v>
       </c>
       <c r="C127" t="n">
-        <v>3.757</v>
+        <v>3.759</v>
       </c>
       <c r="D127" t="n">
-        <v>3.758</v>
+        <v>3.759</v>
       </c>
       <c r="E127" t="n">
-        <v>3.757</v>
+        <v>3.759</v>
       </c>
       <c r="F127" t="n">
-        <v>540982.0829</v>
+        <v>150</v>
       </c>
       <c r="G127" t="n">
-        <v>3.576750000000001</v>
+        <v>3.573950000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5035,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5049,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.756</v>
+        <v>3.758</v>
       </c>
       <c r="C128" t="n">
-        <v>3.756</v>
+        <v>3.757</v>
       </c>
       <c r="D128" t="n">
-        <v>3.756</v>
+        <v>3.758</v>
       </c>
       <c r="E128" t="n">
-        <v>3.756</v>
+        <v>3.757</v>
       </c>
       <c r="F128" t="n">
-        <v>870</v>
+        <v>540982.0829</v>
       </c>
       <c r="G128" t="n">
-        <v>3.580183333333334</v>
+        <v>3.576750000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5074,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5088,65 +4878,63 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.757</v>
+        <v>3.756</v>
       </c>
       <c r="C129" t="n">
-        <v>3.757</v>
+        <v>3.756</v>
       </c>
       <c r="D129" t="n">
-        <v>3.757</v>
+        <v>3.756</v>
       </c>
       <c r="E129" t="n">
-        <v>3.757</v>
+        <v>3.756</v>
       </c>
       <c r="F129" t="n">
-        <v>150</v>
+        <v>870</v>
       </c>
       <c r="G129" t="n">
-        <v>3.585383333333334</v>
+        <v>3.580183333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.756</v>
+        <v>3.757</v>
       </c>
       <c r="C130" t="n">
-        <v>3.746</v>
+        <v>3.757</v>
       </c>
       <c r="D130" t="n">
         <v>3.757</v>
       </c>
       <c r="E130" t="n">
-        <v>3.746</v>
+        <v>3.757</v>
       </c>
       <c r="F130" t="n">
-        <v>21650</v>
+        <v>150</v>
       </c>
       <c r="G130" t="n">
-        <v>3.590433333333334</v>
+        <v>3.585383333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5160,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.745</v>
+        <v>3.756</v>
       </c>
       <c r="C131" t="n">
-        <v>3.731</v>
+        <v>3.746</v>
       </c>
       <c r="D131" t="n">
-        <v>3.745</v>
+        <v>3.757</v>
       </c>
       <c r="E131" t="n">
-        <v>3.731</v>
+        <v>3.746</v>
       </c>
       <c r="F131" t="n">
-        <v>1750</v>
+        <v>21650</v>
       </c>
       <c r="G131" t="n">
-        <v>3.593783333333334</v>
+        <v>3.590433333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5195,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="C132" t="n">
         <v>3.731</v>
       </c>
-      <c r="C132" t="n">
-        <v>3.72</v>
-      </c>
       <c r="D132" t="n">
-        <v>3.755</v>
+        <v>3.745</v>
       </c>
       <c r="E132" t="n">
-        <v>3.72</v>
+        <v>3.731</v>
       </c>
       <c r="F132" t="n">
-        <v>6387.2455</v>
+        <v>1750</v>
       </c>
       <c r="G132" t="n">
-        <v>3.598050000000001</v>
+        <v>3.593783333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5230,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.71</v>
+        <v>3.731</v>
       </c>
       <c r="C133" t="n">
-        <v>3.696</v>
+        <v>3.72</v>
       </c>
       <c r="D133" t="n">
-        <v>3.71</v>
+        <v>3.755</v>
       </c>
       <c r="E133" t="n">
-        <v>3.696</v>
+        <v>3.72</v>
       </c>
       <c r="F133" t="n">
-        <v>1650</v>
+        <v>6387.2455</v>
       </c>
       <c r="G133" t="n">
-        <v>3.602283333333334</v>
+        <v>3.598050000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5265,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.689</v>
+        <v>3.71</v>
       </c>
       <c r="C134" t="n">
-        <v>3.683</v>
+        <v>3.696</v>
       </c>
       <c r="D134" t="n">
-        <v>3.689</v>
+        <v>3.71</v>
       </c>
       <c r="E134" t="n">
-        <v>3.683</v>
+        <v>3.696</v>
       </c>
       <c r="F134" t="n">
-        <v>300</v>
+        <v>1650</v>
       </c>
       <c r="G134" t="n">
-        <v>3.6063</v>
+        <v>3.602283333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5300,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.68</v>
+        <v>3.689</v>
       </c>
       <c r="C135" t="n">
-        <v>3.688</v>
+        <v>3.683</v>
       </c>
       <c r="D135" t="n">
-        <v>3.688</v>
+        <v>3.689</v>
       </c>
       <c r="E135" t="n">
-        <v>3.68</v>
+        <v>3.683</v>
       </c>
       <c r="F135" t="n">
-        <v>616.4184</v>
+        <v>300</v>
       </c>
       <c r="G135" t="n">
-        <v>3.610416666666667</v>
+        <v>3.6063</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5335,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.687</v>
+        <v>3.68</v>
       </c>
       <c r="C136" t="n">
-        <v>3.684</v>
+        <v>3.688</v>
       </c>
       <c r="D136" t="n">
-        <v>3.687</v>
+        <v>3.688</v>
       </c>
       <c r="E136" t="n">
-        <v>3.684</v>
+        <v>3.68</v>
       </c>
       <c r="F136" t="n">
-        <v>600</v>
+        <v>616.4184</v>
       </c>
       <c r="G136" t="n">
-        <v>3.614483333333333</v>
+        <v>3.610416666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5370,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.681</v>
+        <v>3.687</v>
       </c>
       <c r="C137" t="n">
-        <v>3.68</v>
+        <v>3.684</v>
       </c>
       <c r="D137" t="n">
-        <v>3.681</v>
+        <v>3.687</v>
       </c>
       <c r="E137" t="n">
-        <v>3.68</v>
+        <v>3.684</v>
       </c>
       <c r="F137" t="n">
-        <v>183.5816</v>
+        <v>600</v>
       </c>
       <c r="G137" t="n">
-        <v>3.61855</v>
+        <v>3.614483333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5405,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.677</v>
+        <v>3.681</v>
       </c>
       <c r="C138" t="n">
-        <v>3.669</v>
+        <v>3.68</v>
       </c>
       <c r="D138" t="n">
-        <v>3.677</v>
+        <v>3.681</v>
       </c>
       <c r="E138" t="n">
-        <v>3.669</v>
+        <v>3.68</v>
       </c>
       <c r="F138" t="n">
-        <v>3869.6075</v>
+        <v>183.5816</v>
       </c>
       <c r="G138" t="n">
-        <v>3.62285</v>
+        <v>3.61855</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5440,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.666</v>
+        <v>3.677</v>
       </c>
       <c r="C139" t="n">
-        <v>3.377</v>
+        <v>3.669</v>
       </c>
       <c r="D139" t="n">
-        <v>3.666</v>
+        <v>3.677</v>
       </c>
       <c r="E139" t="n">
-        <v>3.377</v>
+        <v>3.669</v>
       </c>
       <c r="F139" t="n">
-        <v>2250</v>
+        <v>3869.6075</v>
       </c>
       <c r="G139" t="n">
-        <v>3.62395</v>
+        <v>3.62285</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5475,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.371</v>
+        <v>3.666</v>
       </c>
       <c r="C140" t="n">
-        <v>3.314</v>
+        <v>3.377</v>
       </c>
       <c r="D140" t="n">
-        <v>3.371</v>
+        <v>3.666</v>
       </c>
       <c r="E140" t="n">
-        <v>3.314</v>
+        <v>3.377</v>
       </c>
       <c r="F140" t="n">
-        <v>30600</v>
+        <v>2250</v>
       </c>
       <c r="G140" t="n">
-        <v>3.62415</v>
+        <v>3.62395</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5510,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.376</v>
+        <v>3.371</v>
       </c>
       <c r="C141" t="n">
-        <v>3.759</v>
+        <v>3.314</v>
       </c>
       <c r="D141" t="n">
-        <v>3.759</v>
+        <v>3.371</v>
       </c>
       <c r="E141" t="n">
-        <v>3.376</v>
+        <v>3.314</v>
       </c>
       <c r="F141" t="n">
-        <v>4170</v>
+        <v>30600</v>
       </c>
       <c r="G141" t="n">
-        <v>3.633266666666667</v>
+        <v>3.62415</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5545,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.758</v>
+        <v>3.376</v>
       </c>
       <c r="C142" t="n">
-        <v>3.739</v>
+        <v>3.759</v>
       </c>
       <c r="D142" t="n">
-        <v>3.758</v>
+        <v>3.759</v>
       </c>
       <c r="E142" t="n">
-        <v>3.739</v>
+        <v>3.376</v>
       </c>
       <c r="F142" t="n">
-        <v>3000</v>
+        <v>4170</v>
       </c>
       <c r="G142" t="n">
-        <v>3.6416</v>
+        <v>3.633266666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5580,32 +5368,38 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>3.758</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3.739</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3.758</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.739</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G143" t="n">
+        <v>3.6416</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
         <v>3.759</v>
       </c>
-      <c r="C143" t="n">
-        <v>3.734</v>
-      </c>
-      <c r="D143" t="n">
-        <v>3.759</v>
-      </c>
-      <c r="E143" t="n">
-        <v>3.734</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G143" t="n">
-        <v>3.650933333333334</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5615,22 +5409,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.677</v>
+        <v>3.759</v>
       </c>
       <c r="C144" t="n">
-        <v>3.759</v>
+        <v>3.734</v>
       </c>
       <c r="D144" t="n">
         <v>3.759</v>
       </c>
       <c r="E144" t="n">
-        <v>3.677</v>
+        <v>3.734</v>
       </c>
       <c r="F144" t="n">
-        <v>4250</v>
+        <v>1050</v>
       </c>
       <c r="G144" t="n">
-        <v>3.6593</v>
+        <v>3.650933333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5640,7 +5434,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5650,32 +5448,36 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.703</v>
+        <v>3.677</v>
       </c>
       <c r="C145" t="n">
-        <v>3.68</v>
+        <v>3.759</v>
       </c>
       <c r="D145" t="n">
-        <v>3.703</v>
+        <v>3.759</v>
       </c>
       <c r="E145" t="n">
-        <v>3.68</v>
+        <v>3.677</v>
       </c>
       <c r="F145" t="n">
-        <v>31846.5395</v>
+        <v>4250</v>
       </c>
       <c r="G145" t="n">
-        <v>3.663383333333333</v>
+        <v>3.6593</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5685,22 +5487,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.679</v>
+        <v>3.703</v>
       </c>
       <c r="C146" t="n">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="D146" t="n">
-        <v>3.679</v>
+        <v>3.703</v>
       </c>
       <c r="E146" t="n">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="F146" t="n">
-        <v>37990.4487</v>
+        <v>31846.5395</v>
       </c>
       <c r="G146" t="n">
-        <v>3.667116666666666</v>
+        <v>3.663383333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5710,7 +5512,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5720,22 +5526,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.659</v>
+        <v>3.679</v>
       </c>
       <c r="C147" t="n">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="D147" t="n">
-        <v>3.7</v>
+        <v>3.679</v>
       </c>
       <c r="E147" t="n">
-        <v>3.638</v>
+        <v>3.66</v>
       </c>
       <c r="F147" t="n">
-        <v>5200</v>
+        <v>37990.4487</v>
       </c>
       <c r="G147" t="n">
-        <v>3.667316666666666</v>
+        <v>3.667116666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5745,7 +5551,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5755,22 +5565,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.368</v>
+        <v>3.659</v>
       </c>
       <c r="C148" t="n">
-        <v>3.368</v>
+        <v>3.7</v>
       </c>
       <c r="D148" t="n">
-        <v>3.368</v>
+        <v>3.7</v>
       </c>
       <c r="E148" t="n">
-        <v>3.368</v>
+        <v>3.638</v>
       </c>
       <c r="F148" t="n">
-        <v>112272.4735</v>
+        <v>5200</v>
       </c>
       <c r="G148" t="n">
-        <v>3.6681</v>
+        <v>3.667316666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5780,7 +5590,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5790,22 +5604,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.689</v>
+        <v>3.368</v>
       </c>
       <c r="C149" t="n">
-        <v>3.689</v>
+        <v>3.368</v>
       </c>
       <c r="D149" t="n">
-        <v>3.689</v>
+        <v>3.368</v>
       </c>
       <c r="E149" t="n">
-        <v>3.689</v>
+        <v>3.368</v>
       </c>
       <c r="F149" t="n">
-        <v>3950</v>
+        <v>112272.4735</v>
       </c>
       <c r="G149" t="n">
-        <v>3.669783333333333</v>
+        <v>3.6681</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5815,7 +5629,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5825,22 +5643,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.367</v>
+        <v>3.689</v>
       </c>
       <c r="C150" t="n">
-        <v>3.256</v>
+        <v>3.689</v>
       </c>
       <c r="D150" t="n">
-        <v>3.367</v>
+        <v>3.689</v>
       </c>
       <c r="E150" t="n">
-        <v>3.256</v>
+        <v>3.689</v>
       </c>
       <c r="F150" t="n">
-        <v>39713</v>
+        <v>3950</v>
       </c>
       <c r="G150" t="n">
-        <v>3.662799999999999</v>
+        <v>3.669783333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5850,7 +5668,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5860,22 +5682,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.689</v>
+        <v>3.367</v>
       </c>
       <c r="C151" t="n">
-        <v>3.689</v>
+        <v>3.256</v>
       </c>
       <c r="D151" t="n">
-        <v>3.689</v>
+        <v>3.367</v>
       </c>
       <c r="E151" t="n">
-        <v>3.689</v>
+        <v>3.256</v>
       </c>
       <c r="F151" t="n">
-        <v>160</v>
+        <v>39713</v>
       </c>
       <c r="G151" t="n">
-        <v>3.662999999999999</v>
+        <v>3.662799999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5885,7 +5707,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5895,22 +5721,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.499</v>
+        <v>3.689</v>
       </c>
       <c r="C152" t="n">
-        <v>3.499</v>
+        <v>3.689</v>
       </c>
       <c r="D152" t="n">
-        <v>3.499</v>
+        <v>3.689</v>
       </c>
       <c r="E152" t="n">
-        <v>3.499</v>
+        <v>3.689</v>
       </c>
       <c r="F152" t="n">
         <v>160</v>
       </c>
       <c r="G152" t="n">
-        <v>3.660116666666666</v>
+        <v>3.662999999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5920,7 +5746,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5930,22 +5760,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.578</v>
+        <v>3.499</v>
       </c>
       <c r="C153" t="n">
-        <v>3.578</v>
+        <v>3.499</v>
       </c>
       <c r="D153" t="n">
-        <v>3.578</v>
+        <v>3.499</v>
       </c>
       <c r="E153" t="n">
-        <v>3.578</v>
+        <v>3.499</v>
       </c>
       <c r="F153" t="n">
         <v>160</v>
       </c>
       <c r="G153" t="n">
-        <v>3.658283333333333</v>
+        <v>3.660116666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5955,7 +5785,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5965,22 +5799,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.575</v>
+        <v>3.578</v>
       </c>
       <c r="C154" t="n">
-        <v>3.576</v>
+        <v>3.578</v>
       </c>
       <c r="D154" t="n">
-        <v>3.576</v>
+        <v>3.578</v>
       </c>
       <c r="E154" t="n">
-        <v>3.575</v>
+        <v>3.578</v>
       </c>
       <c r="F154" t="n">
-        <v>78638.4151</v>
+        <v>160</v>
       </c>
       <c r="G154" t="n">
-        <v>3.656416666666666</v>
+        <v>3.658283333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5990,7 +5824,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6000,22 +5838,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.525</v>
+        <v>3.575</v>
       </c>
       <c r="C155" t="n">
-        <v>3.525</v>
+        <v>3.576</v>
       </c>
       <c r="D155" t="n">
-        <v>3.525</v>
+        <v>3.576</v>
       </c>
       <c r="E155" t="n">
-        <v>3.525</v>
+        <v>3.575</v>
       </c>
       <c r="F155" t="n">
-        <v>292.2509</v>
+        <v>78638.4151</v>
       </c>
       <c r="G155" t="n">
-        <v>3.6537</v>
+        <v>3.656416666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6025,7 +5863,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6035,22 +5877,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.268</v>
+        <v>3.525</v>
       </c>
       <c r="C156" t="n">
-        <v>3.52</v>
+        <v>3.525</v>
       </c>
       <c r="D156" t="n">
-        <v>3.52</v>
+        <v>3.525</v>
       </c>
       <c r="E156" t="n">
-        <v>3.268</v>
+        <v>3.525</v>
       </c>
       <c r="F156" t="n">
-        <v>20200</v>
+        <v>292.2509</v>
       </c>
       <c r="G156" t="n">
-        <v>3.649633333333334</v>
+        <v>3.6537</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6060,7 +5902,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6070,22 +5916,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.491</v>
+        <v>3.268</v>
       </c>
       <c r="C157" t="n">
-        <v>3.491</v>
+        <v>3.52</v>
       </c>
       <c r="D157" t="n">
-        <v>3.491</v>
+        <v>3.52</v>
       </c>
       <c r="E157" t="n">
-        <v>3.491</v>
+        <v>3.268</v>
       </c>
       <c r="F157" t="n">
-        <v>160</v>
+        <v>20200</v>
       </c>
       <c r="G157" t="n">
-        <v>3.644750000000001</v>
+        <v>3.649633333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6095,7 +5941,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6117,10 +5967,10 @@
         <v>3.491</v>
       </c>
       <c r="F158" t="n">
-        <v>39093.864</v>
+        <v>160</v>
       </c>
       <c r="G158" t="n">
-        <v>3.641183333333334</v>
+        <v>3.644750000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6130,7 +5980,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6140,22 +5994,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.523</v>
+        <v>3.491</v>
       </c>
       <c r="C159" t="n">
-        <v>3.524</v>
+        <v>3.491</v>
       </c>
       <c r="D159" t="n">
-        <v>3.524</v>
+        <v>3.491</v>
       </c>
       <c r="E159" t="n">
-        <v>3.523</v>
+        <v>3.491</v>
       </c>
       <c r="F159" t="n">
-        <v>24133.5509</v>
+        <v>39093.864</v>
       </c>
       <c r="G159" t="n">
-        <v>3.637083333333334</v>
+        <v>3.641183333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6165,7 +6019,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6175,22 +6033,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>3.523</v>
+      </c>
+      <c r="C160" t="n">
         <v>3.524</v>
       </c>
-      <c r="C160" t="n">
-        <v>3.648</v>
-      </c>
       <c r="D160" t="n">
-        <v>3.648</v>
+        <v>3.524</v>
       </c>
       <c r="E160" t="n">
-        <v>3.524</v>
+        <v>3.523</v>
       </c>
       <c r="F160" t="n">
-        <v>35000</v>
+        <v>24133.5509</v>
       </c>
       <c r="G160" t="n">
-        <v>3.635216666666667</v>
+        <v>3.637083333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6200,7 +6058,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6210,22 +6072,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.646</v>
+        <v>3.524</v>
       </c>
       <c r="C161" t="n">
-        <v>3.646</v>
+        <v>3.648</v>
       </c>
       <c r="D161" t="n">
-        <v>3.646</v>
+        <v>3.648</v>
       </c>
       <c r="E161" t="n">
-        <v>3.646</v>
+        <v>3.524</v>
       </c>
       <c r="F161" t="n">
-        <v>150</v>
+        <v>35000</v>
       </c>
       <c r="G161" t="n">
-        <v>3.633316666666667</v>
+        <v>3.635216666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6235,7 +6097,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6245,22 +6111,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.645</v>
+        <v>3.646</v>
       </c>
       <c r="C162" t="n">
-        <v>3.616</v>
+        <v>3.646</v>
       </c>
       <c r="D162" t="n">
-        <v>3.645</v>
+        <v>3.646</v>
       </c>
       <c r="E162" t="n">
-        <v>3.616</v>
+        <v>3.646</v>
       </c>
       <c r="F162" t="n">
-        <v>4500</v>
+        <v>150</v>
       </c>
       <c r="G162" t="n">
-        <v>3.631000000000001</v>
+        <v>3.633316666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6270,7 +6136,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6283,19 +6153,19 @@
         <v>3.645</v>
       </c>
       <c r="C163" t="n">
-        <v>3.645</v>
+        <v>3.616</v>
       </c>
       <c r="D163" t="n">
         <v>3.645</v>
       </c>
       <c r="E163" t="n">
-        <v>3.645</v>
+        <v>3.616</v>
       </c>
       <c r="F163" t="n">
-        <v>150</v>
+        <v>4500</v>
       </c>
       <c r="G163" t="n">
-        <v>3.629916666666667</v>
+        <v>3.631000000000001</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6305,7 +6175,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6327,10 +6201,10 @@
         <v>3.645</v>
       </c>
       <c r="F164" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G164" t="n">
-        <v>3.629166666666668</v>
+        <v>3.629916666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6340,7 +6214,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6350,7 +6228,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.644</v>
+        <v>3.645</v>
       </c>
       <c r="C165" t="n">
         <v>3.645</v>
@@ -6359,13 +6237,13 @@
         <v>3.645</v>
       </c>
       <c r="E165" t="n">
-        <v>3.643</v>
+        <v>3.645</v>
       </c>
       <c r="F165" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G165" t="n">
-        <v>3.628266666666668</v>
+        <v>3.629166666666668</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6375,7 +6253,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6385,7 +6267,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.643</v>
+        <v>3.644</v>
       </c>
       <c r="C166" t="n">
         <v>3.645</v>
@@ -6397,10 +6279,10 @@
         <v>3.643</v>
       </c>
       <c r="F166" t="n">
-        <v>100000</v>
+        <v>450</v>
       </c>
       <c r="G166" t="n">
-        <v>3.627400000000001</v>
+        <v>3.628266666666668</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6410,7 +6292,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6420,22 +6306,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.577</v>
+        <v>3.643</v>
       </c>
       <c r="C167" t="n">
-        <v>3.576</v>
+        <v>3.645</v>
       </c>
       <c r="D167" t="n">
-        <v>3.577</v>
+        <v>3.645</v>
       </c>
       <c r="E167" t="n">
-        <v>3.576</v>
+        <v>3.643</v>
       </c>
       <c r="F167" t="n">
-        <v>300</v>
+        <v>100000</v>
       </c>
       <c r="G167" t="n">
-        <v>3.625583333333334</v>
+        <v>3.627400000000001</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6445,7 +6331,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6455,22 +6345,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.575</v>
+        <v>3.577</v>
       </c>
       <c r="C168" t="n">
-        <v>3.575</v>
+        <v>3.576</v>
       </c>
       <c r="D168" t="n">
-        <v>3.575</v>
+        <v>3.577</v>
       </c>
       <c r="E168" t="n">
-        <v>3.575</v>
+        <v>3.576</v>
       </c>
       <c r="F168" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G168" t="n">
-        <v>3.623533333333334</v>
+        <v>3.625583333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6480,7 +6370,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6490,22 +6384,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.574</v>
+        <v>3.575</v>
       </c>
       <c r="C169" t="n">
-        <v>3.574</v>
+        <v>3.575</v>
       </c>
       <c r="D169" t="n">
-        <v>3.574</v>
+        <v>3.575</v>
       </c>
       <c r="E169" t="n">
-        <v>3.574</v>
+        <v>3.575</v>
       </c>
       <c r="F169" t="n">
         <v>150</v>
       </c>
       <c r="G169" t="n">
-        <v>3.623016666666667</v>
+        <v>3.623533333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6515,7 +6409,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6525,22 +6423,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.573</v>
+        <v>3.574</v>
       </c>
       <c r="C170" t="n">
-        <v>3.558</v>
+        <v>3.574</v>
       </c>
       <c r="D170" t="n">
-        <v>3.573</v>
+        <v>3.574</v>
       </c>
       <c r="E170" t="n">
-        <v>3.558</v>
+        <v>3.574</v>
       </c>
       <c r="F170" t="n">
-        <v>3325.2479</v>
+        <v>150</v>
       </c>
       <c r="G170" t="n">
-        <v>3.620700000000001</v>
+        <v>3.623016666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6550,7 +6448,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6560,22 +6462,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3.558</v>
+        <v>3.573</v>
       </c>
       <c r="C171" t="n">
         <v>3.558</v>
       </c>
       <c r="D171" t="n">
-        <v>3.558</v>
+        <v>3.573</v>
       </c>
       <c r="E171" t="n">
         <v>3.558</v>
       </c>
       <c r="F171" t="n">
-        <v>160</v>
+        <v>3325.2479</v>
       </c>
       <c r="G171" t="n">
-        <v>3.623050000000001</v>
+        <v>3.620700000000001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6585,7 +6487,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6595,22 +6501,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.559</v>
+        <v>3.558</v>
       </c>
       <c r="C172" t="n">
-        <v>3.559</v>
+        <v>3.558</v>
       </c>
       <c r="D172" t="n">
-        <v>3.559</v>
+        <v>3.558</v>
       </c>
       <c r="E172" t="n">
-        <v>3.559</v>
+        <v>3.558</v>
       </c>
       <c r="F172" t="n">
-        <v>10000</v>
+        <v>160</v>
       </c>
       <c r="G172" t="n">
-        <v>3.620883333333334</v>
+        <v>3.623050000000001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6620,7 +6526,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6633,19 +6543,19 @@
         <v>3.559</v>
       </c>
       <c r="C173" t="n">
-        <v>3.57</v>
+        <v>3.559</v>
       </c>
       <c r="D173" t="n">
-        <v>3.57</v>
+        <v>3.559</v>
       </c>
       <c r="E173" t="n">
-        <v>3.558</v>
+        <v>3.559</v>
       </c>
       <c r="F173" t="n">
-        <v>107310.0789</v>
+        <v>10000</v>
       </c>
       <c r="G173" t="n">
-        <v>3.618900000000001</v>
+        <v>3.620883333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6655,7 +6565,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6665,22 +6579,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.557</v>
+        <v>3.559</v>
       </c>
       <c r="C174" t="n">
-        <v>3.557</v>
+        <v>3.57</v>
       </c>
       <c r="D174" t="n">
-        <v>3.557</v>
+        <v>3.57</v>
       </c>
       <c r="E174" t="n">
-        <v>3.557</v>
+        <v>3.558</v>
       </c>
       <c r="F174" t="n">
-        <v>150</v>
+        <v>107310.0789</v>
       </c>
       <c r="G174" t="n">
-        <v>3.6243</v>
+        <v>3.618900000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6690,7 +6604,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6700,22 +6618,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3.489</v>
+        <v>3.557</v>
       </c>
       <c r="C175" t="n">
-        <v>3.489</v>
+        <v>3.557</v>
       </c>
       <c r="D175" t="n">
-        <v>3.489</v>
+        <v>3.557</v>
       </c>
       <c r="E175" t="n">
-        <v>3.489</v>
+        <v>3.557</v>
       </c>
       <c r="F175" t="n">
         <v>150</v>
       </c>
       <c r="G175" t="n">
-        <v>3.622650000000001</v>
+        <v>3.6243</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6725,7 +6643,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6738,19 +6660,19 @@
         <v>3.489</v>
       </c>
       <c r="C176" t="n">
-        <v>3.539</v>
+        <v>3.489</v>
       </c>
       <c r="D176" t="n">
-        <v>3.539</v>
+        <v>3.489</v>
       </c>
       <c r="E176" t="n">
-        <v>3.463</v>
+        <v>3.489</v>
       </c>
       <c r="F176" t="n">
-        <v>13950</v>
+        <v>150</v>
       </c>
       <c r="G176" t="n">
-        <v>3.621850000000001</v>
+        <v>3.622650000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6760,7 +6682,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6770,22 +6696,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.463</v>
+        <v>3.489</v>
       </c>
       <c r="C177" t="n">
-        <v>3.463</v>
+        <v>3.539</v>
       </c>
       <c r="D177" t="n">
-        <v>3.463</v>
+        <v>3.539</v>
       </c>
       <c r="E177" t="n">
         <v>3.463</v>
       </c>
       <c r="F177" t="n">
-        <v>97.2037</v>
+        <v>13950</v>
       </c>
       <c r="G177" t="n">
-        <v>3.619766666666667</v>
+        <v>3.621850000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6795,7 +6721,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6805,22 +6735,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3.454</v>
+        <v>3.463</v>
       </c>
       <c r="C178" t="n">
-        <v>3.34</v>
+        <v>3.463</v>
       </c>
       <c r="D178" t="n">
-        <v>3.454</v>
+        <v>3.463</v>
       </c>
       <c r="E178" t="n">
-        <v>3.34</v>
+        <v>3.463</v>
       </c>
       <c r="F178" t="n">
-        <v>116633.7655</v>
+        <v>97.2037</v>
       </c>
       <c r="G178" t="n">
-        <v>3.615650000000001</v>
+        <v>3.619766666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6830,7 +6760,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6840,22 +6774,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3.342</v>
+        <v>3.454</v>
       </c>
       <c r="C179" t="n">
-        <v>3.535</v>
+        <v>3.34</v>
       </c>
       <c r="D179" t="n">
-        <v>3.535</v>
+        <v>3.454</v>
       </c>
       <c r="E179" t="n">
-        <v>3.342</v>
+        <v>3.34</v>
       </c>
       <c r="F179" t="n">
-        <v>3362.5071</v>
+        <v>116633.7655</v>
       </c>
       <c r="G179" t="n">
-        <v>3.614783333333334</v>
+        <v>3.615650000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6865,7 +6799,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6875,7 +6813,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3.535</v>
+        <v>3.342</v>
       </c>
       <c r="C180" t="n">
         <v>3.535</v>
@@ -6884,13 +6822,13 @@
         <v>3.535</v>
       </c>
       <c r="E180" t="n">
-        <v>3.535</v>
+        <v>3.342</v>
       </c>
       <c r="F180" t="n">
-        <v>25793.3578</v>
+        <v>3362.5071</v>
       </c>
       <c r="G180" t="n">
-        <v>3.613900000000001</v>
+        <v>3.614783333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6900,7 +6838,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6922,10 +6864,10 @@
         <v>3.535</v>
       </c>
       <c r="F181" t="n">
-        <v>48730.0116</v>
+        <v>25793.3578</v>
       </c>
       <c r="G181" t="n">
-        <v>3.612033333333335</v>
+        <v>3.613900000000001</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6935,7 +6877,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6957,10 +6903,10 @@
         <v>3.535</v>
       </c>
       <c r="F182" t="n">
-        <v>66566.3095</v>
+        <v>48730.0116</v>
       </c>
       <c r="G182" t="n">
-        <v>3.608283333333334</v>
+        <v>3.612033333333335</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6970,7 +6916,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6983,19 +6933,19 @@
         <v>3.535</v>
       </c>
       <c r="C183" t="n">
-        <v>3.536</v>
+        <v>3.535</v>
       </c>
       <c r="D183" t="n">
-        <v>3.536</v>
+        <v>3.535</v>
       </c>
       <c r="E183" t="n">
         <v>3.535</v>
       </c>
       <c r="F183" t="n">
-        <v>8564.9591</v>
+        <v>66566.3095</v>
       </c>
       <c r="G183" t="n">
-        <v>3.604633333333334</v>
+        <v>3.608283333333334</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7005,7 +6955,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7015,22 +6969,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3.539</v>
+        <v>3.535</v>
       </c>
       <c r="C184" t="n">
-        <v>3.539</v>
+        <v>3.536</v>
       </c>
       <c r="D184" t="n">
-        <v>3.539</v>
+        <v>3.536</v>
       </c>
       <c r="E184" t="n">
-        <v>3.539</v>
+        <v>3.535</v>
       </c>
       <c r="F184" t="n">
-        <v>142</v>
+        <v>8564.9591</v>
       </c>
       <c r="G184" t="n">
-        <v>3.601283333333334</v>
+        <v>3.604633333333334</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7040,7 +6994,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7053,19 +7011,19 @@
         <v>3.539</v>
       </c>
       <c r="C185" t="n">
-        <v>3.541</v>
+        <v>3.539</v>
       </c>
       <c r="D185" t="n">
-        <v>3.541</v>
+        <v>3.539</v>
       </c>
       <c r="E185" t="n">
         <v>3.539</v>
       </c>
       <c r="F185" t="n">
-        <v>1000</v>
+        <v>142</v>
       </c>
       <c r="G185" t="n">
-        <v>3.597633333333334</v>
+        <v>3.601283333333334</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7075,7 +7033,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7085,22 +7047,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3.451</v>
+        <v>3.539</v>
       </c>
       <c r="C186" t="n">
-        <v>3.349</v>
+        <v>3.541</v>
       </c>
       <c r="D186" t="n">
-        <v>3.451</v>
+        <v>3.541</v>
       </c>
       <c r="E186" t="n">
-        <v>3.349</v>
+        <v>3.539</v>
       </c>
       <c r="F186" t="n">
-        <v>25612.7467</v>
+        <v>1000</v>
       </c>
       <c r="G186" t="n">
-        <v>3.590800000000001</v>
+        <v>3.597633333333334</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7110,7 +7072,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7120,22 +7086,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3.528</v>
+        <v>3.451</v>
       </c>
       <c r="C187" t="n">
-        <v>3.528</v>
+        <v>3.349</v>
       </c>
       <c r="D187" t="n">
-        <v>3.528</v>
+        <v>3.451</v>
       </c>
       <c r="E187" t="n">
-        <v>3.528</v>
+        <v>3.349</v>
       </c>
       <c r="F187" t="n">
-        <v>150</v>
+        <v>25612.7467</v>
       </c>
       <c r="G187" t="n">
-        <v>3.586983333333334</v>
+        <v>3.590800000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7145,7 +7111,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7158,19 +7128,19 @@
         <v>3.528</v>
       </c>
       <c r="C188" t="n">
-        <v>3.541</v>
+        <v>3.528</v>
       </c>
       <c r="D188" t="n">
-        <v>3.541</v>
+        <v>3.528</v>
       </c>
       <c r="E188" t="n">
         <v>3.528</v>
       </c>
       <c r="F188" t="n">
-        <v>2900</v>
+        <v>150</v>
       </c>
       <c r="G188" t="n">
-        <v>3.583400000000001</v>
+        <v>3.586983333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7180,7 +7150,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7190,22 +7164,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3.541</v>
+        <v>3.528</v>
       </c>
       <c r="C189" t="n">
         <v>3.541</v>
       </c>
       <c r="D189" t="n">
-        <v>3.544</v>
+        <v>3.541</v>
       </c>
       <c r="E189" t="n">
-        <v>3.541</v>
+        <v>3.528</v>
       </c>
       <c r="F189" t="n">
-        <v>80084.3417</v>
+        <v>2900</v>
       </c>
       <c r="G189" t="n">
-        <v>3.579800000000001</v>
+        <v>3.583400000000001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7215,8 +7189,51 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="F190" t="n">
+        <v>80084.3417</v>
+      </c>
+      <c r="G190" t="n">
+        <v>3.579800000000001</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest DVP.xlsx
+++ b/BackTest/2020-01-25 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>274.4444</v>
       </c>
       <c r="G2" t="n">
+        <v>3.923933333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.951000000000004</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>450</v>
       </c>
       <c r="G3" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.953733333333337</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>144.4444</v>
       </c>
       <c r="G4" t="n">
+        <v>3.911</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.95356666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2730</v>
       </c>
       <c r="G5" t="n">
+        <v>3.908733333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.95486666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1000</v>
       </c>
       <c r="G6" t="n">
+        <v>3.915466666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.956600000000003</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2558.3476</v>
       </c>
       <c r="G7" t="n">
+        <v>3.916733333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.95746666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1540</v>
       </c>
       <c r="G8" t="n">
+        <v>3.9184</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.957900000000004</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>144.4444</v>
       </c>
       <c r="G9" t="n">
+        <v>3.919466666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.958083333333337</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>266.6666</v>
       </c>
       <c r="G10" t="n">
+        <v>3.920533333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.958850000000004</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>16530</v>
       </c>
       <c r="G11" t="n">
+        <v>3.914066666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.958283333333337</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>190</v>
       </c>
       <c r="G12" t="n">
+        <v>3.907333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.956350000000004</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>560</v>
       </c>
       <c r="G13" t="n">
+        <v>3.900666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.954416666666671</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>17760</v>
       </c>
       <c r="G14" t="n">
+        <v>3.910066666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.953800000000004</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>270.4</v>
       </c>
       <c r="G15" t="n">
+        <v>3.909266666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.95656666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>9.6</v>
       </c>
       <c r="G16" t="n">
+        <v>3.907133333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.959033333333337</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>280</v>
       </c>
       <c r="G17" t="n">
+        <v>3.905333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.96071666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>980</v>
       </c>
       <c r="G18" t="n">
+        <v>3.9016</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.961500000000004</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2930</v>
       </c>
       <c r="G19" t="n">
+        <v>3.9102</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.95986666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>3.4945</v>
       </c>
       <c r="G20" t="n">
+        <v>3.908466666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.957250000000003</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>840</v>
       </c>
       <c r="G21" t="n">
+        <v>3.902333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.95371666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>735.5556</v>
       </c>
       <c r="G22" t="n">
+        <v>3.894866666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.954000000000003</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>455.5556</v>
       </c>
       <c r="G23" t="n">
+        <v>3.892133333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.95006666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>144.4444</v>
       </c>
       <c r="G24" t="n">
+        <v>3.890666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.94816666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>26540.6631</v>
       </c>
       <c r="G25" t="n">
+        <v>3.8892</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.944233333333337</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>3314.8925</v>
       </c>
       <c r="G26" t="n">
+        <v>3.886533333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.940300000000004</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>144.4444</v>
       </c>
       <c r="G27" t="n">
+        <v>3.8826</v>
+      </c>
+      <c r="H27" t="n">
         <v>3.936466666666671</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>32750</v>
       </c>
       <c r="G28" t="n">
+        <v>3.887266666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.934800000000004</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>16470</v>
       </c>
       <c r="G29" t="n">
+        <v>3.886533333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.934266666666671</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>15880</v>
       </c>
       <c r="G30" t="n">
+        <v>3.885933333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.933916666666671</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>12140</v>
       </c>
       <c r="G31" t="n">
+        <v>3.882</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.931900000000004</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>140</v>
       </c>
       <c r="G32" t="n">
+        <v>3.876800000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>3.929483333333338</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>280</v>
       </c>
       <c r="G33" t="n">
+        <v>3.8806</v>
+      </c>
+      <c r="H33" t="n">
         <v>3.928166666666671</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>10180</v>
       </c>
       <c r="G34" t="n">
+        <v>3.878733333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>3.926333333333338</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>140</v>
       </c>
       <c r="G35" t="n">
+        <v>3.878466666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.926733333333338</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>12070.675</v>
       </c>
       <c r="G36" t="n">
+        <v>3.879933333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>3.923900000000005</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>280</v>
       </c>
       <c r="G37" t="n">
+        <v>3.882466666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>3.921016666666671</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>11340</v>
       </c>
       <c r="G38" t="n">
+        <v>3.889600000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.919183333333338</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>11597.8022</v>
       </c>
       <c r="G39" t="n">
+        <v>3.892800000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>3.916416666666672</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>16264.4444</v>
       </c>
       <c r="G40" t="n">
+        <v>3.895600000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>3.913583333333338</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>135.5556</v>
       </c>
       <c r="G41" t="n">
+        <v>3.898400000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.910766666666672</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>7182.9696</v>
       </c>
       <c r="G42" t="n">
+        <v>3.900466666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>3.908283333333339</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>19740</v>
       </c>
       <c r="G43" t="n">
+        <v>3.898533333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.906783333333339</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>12000</v>
       </c>
       <c r="G44" t="n">
+        <v>3.893466666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.904500000000005</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>140</v>
       </c>
       <c r="G45" t="n">
+        <v>3.891533333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>3.903000000000005</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>308.8943</v>
       </c>
       <c r="G46" t="n">
+        <v>3.8936</v>
+      </c>
+      <c r="H46" t="n">
         <v>3.902000000000005</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>140</v>
       </c>
       <c r="G47" t="n">
+        <v>3.897533333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>3.900900000000005</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>700</v>
       </c>
       <c r="G48" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="H48" t="n">
         <v>3.899550000000005</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1130</v>
       </c>
       <c r="G49" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="H49" t="n">
         <v>3.898233333333338</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>136.2761</v>
       </c>
       <c r="G50" t="n">
+        <v>3.893933333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>3.897400000000005</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>378610.6241</v>
       </c>
       <c r="G51" t="n">
+        <v>3.886933333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>3.896166666666672</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>140</v>
       </c>
       <c r="G52" t="n">
+        <v>3.888600000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>3.895666666666671</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>669144.639</v>
       </c>
       <c r="G53" t="n">
+        <v>3.871333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>3.892866666666671</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1309464.6639</v>
       </c>
       <c r="G54" t="n">
+        <v>3.813266666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.879050000000005</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>37986.56479156189</v>
       </c>
       <c r="G55" t="n">
+        <v>3.7942</v>
+      </c>
+      <c r="H55" t="n">
         <v>3.874883333333338</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>35444.5874</v>
       </c>
       <c r="G56" t="n">
+        <v>3.773866666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.868216666666671</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>105156.7884</v>
       </c>
       <c r="G57" t="n">
+        <v>3.743933333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>3.858583333333338</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>19932.997</v>
       </c>
       <c r="G58" t="n">
+        <v>3.712333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>3.849700000000004</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>790133.6878</v>
       </c>
       <c r="G59" t="n">
+        <v>3.700066666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>3.847533333333338</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>431459.7042</v>
       </c>
       <c r="G60" t="n">
+        <v>3.684666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>3.842850000000005</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>321033.4871</v>
       </c>
       <c r="G61" t="n">
+        <v>3.651466666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>3.833550000000004</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>2450</v>
       </c>
       <c r="G62" t="n">
+        <v>3.6292</v>
+      </c>
+      <c r="H62" t="n">
         <v>3.827216666666671</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>10816.0493</v>
       </c>
       <c r="G63" t="n">
+        <v>3.6084</v>
+      </c>
+      <c r="H63" t="n">
         <v>3.821400000000005</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>33201.7415</v>
       </c>
       <c r="G64" t="n">
+        <v>3.577666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>3.814900000000004</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>9022.155000000001</v>
       </c>
       <c r="G65" t="n">
+        <v>3.558733333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>3.809900000000004</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>0.1101</v>
       </c>
       <c r="G66" t="n">
+        <v>3.547666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>3.804216666666671</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>1824.5115</v>
       </c>
       <c r="G67" t="n">
+        <v>3.5258</v>
+      </c>
+      <c r="H67" t="n">
         <v>3.797933333333338</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>30000</v>
       </c>
       <c r="G68" t="n">
+        <v>3.520333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>3.793350000000004</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>287.7903</v>
       </c>
       <c r="G69" t="n">
+        <v>3.557</v>
+      </c>
+      <c r="H69" t="n">
         <v>3.788433333333338</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>18303.4986</v>
       </c>
       <c r="G70" t="n">
+        <v>3.548066666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>3.781766666666671</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>54910.4959</v>
       </c>
       <c r="G71" t="n">
+        <v>3.540266666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>3.774766666666671</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>6647.8308</v>
       </c>
       <c r="G72" t="n">
+        <v>3.548133333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>3.768783333333338</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>570021.6486</v>
       </c>
       <c r="G73" t="n">
+        <v>3.548666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>3.761700000000004</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>64030.5731</v>
       </c>
       <c r="G74" t="n">
+        <v>3.531533333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>3.752900000000004</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>170000</v>
       </c>
       <c r="G75" t="n">
+        <v>3.5144</v>
+      </c>
+      <c r="H75" t="n">
         <v>3.744133333333338</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>125138.967</v>
       </c>
       <c r="G76" t="n">
+        <v>3.515</v>
+      </c>
+      <c r="H76" t="n">
         <v>3.735516666666671</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>841.8372000000001</v>
       </c>
       <c r="G77" t="n">
+        <v>3.504999999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>3.727133333333338</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>17055.2208</v>
       </c>
       <c r="G78" t="n">
+        <v>3.494733333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>3.719683333333338</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>23740.8125</v>
       </c>
       <c r="G79" t="n">
+        <v>3.492866666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>3.710566666666671</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>74425.2608</v>
       </c>
       <c r="G80" t="n">
+        <v>3.473666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>3.701200000000005</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>1000</v>
       </c>
       <c r="G81" t="n">
+        <v>3.453866666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>3.692100000000004</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>139442.7956</v>
       </c>
       <c r="G82" t="n">
+        <v>3.430533333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>3.681850000000004</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1185080.422</v>
       </c>
       <c r="G83" t="n">
+        <v>3.4072</v>
+      </c>
+      <c r="H83" t="n">
         <v>3.672116666666671</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>300</v>
       </c>
       <c r="G84" t="n">
+        <v>3.382133333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>3.661300000000004</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>5769.3299</v>
       </c>
       <c r="G85" t="n">
+        <v>3.3696</v>
+      </c>
+      <c r="H85" t="n">
         <v>3.651866666666671</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>160</v>
       </c>
       <c r="G86" t="n">
+        <v>3.369066666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>3.645400000000004</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>606531.4295</v>
       </c>
       <c r="G87" t="n">
+        <v>3.3628</v>
+      </c>
+      <c r="H87" t="n">
         <v>3.638833333333337</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>200</v>
       </c>
       <c r="G88" t="n">
+        <v>3.377733333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>3.63431666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>200</v>
       </c>
       <c r="G89" t="n">
+        <v>3.369666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>3.623683333333337</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>20400</v>
       </c>
       <c r="G90" t="n">
+        <v>3.3794</v>
+      </c>
+      <c r="H90" t="n">
         <v>3.617500000000004</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>31420.0001</v>
       </c>
       <c r="G91" t="n">
+        <v>3.395</v>
+      </c>
+      <c r="H91" t="n">
         <v>3.61376666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>840.0001</v>
       </c>
       <c r="G92" t="n">
+        <v>3.4108</v>
+      </c>
+      <c r="H92" t="n">
         <v>3.610633333333337</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>150</v>
       </c>
       <c r="G93" t="n">
+        <v>3.426533333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>3.60616666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>31000</v>
       </c>
       <c r="G94" t="n">
+        <v>3.445</v>
+      </c>
+      <c r="H94" t="n">
         <v>3.602133333333336</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>2700</v>
       </c>
       <c r="G95" t="n">
+        <v>3.470133333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>3.599116666666669</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>150</v>
       </c>
       <c r="G96" t="n">
+        <v>3.495866666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>3.596083333333336</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>40211.8967</v>
       </c>
       <c r="G97" t="n">
+        <v>3.532666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>3.594400000000002</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>110986.7011</v>
       </c>
       <c r="G98" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="H98" t="n">
         <v>3.591966666666669</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>150</v>
       </c>
       <c r="G99" t="n">
+        <v>3.6044</v>
+      </c>
+      <c r="H99" t="n">
         <v>3.589200000000003</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>600</v>
       </c>
       <c r="G100" t="n">
+        <v>3.638600000000001</v>
+      </c>
+      <c r="H100" t="n">
         <v>3.587616666666669</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>104835.4604</v>
       </c>
       <c r="G101" t="n">
+        <v>3.660266666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>3.585866666666669</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>750</v>
       </c>
       <c r="G102" t="n">
+        <v>3.681866666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>3.584183333333335</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>900</v>
       </c>
       <c r="G103" t="n">
+        <v>3.686333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>3.581266666666669</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>58520.3834</v>
       </c>
       <c r="G104" t="n">
+        <v>3.712266666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>3.578383333333335</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>33421.6081</v>
       </c>
       <c r="G105" t="n">
+        <v>3.719066666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>3.574383333333335</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>49762.0533</v>
       </c>
       <c r="G106" t="n">
+        <v>3.720666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>3.570533333333335</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>150</v>
       </c>
       <c r="G107" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="H107" t="n">
         <v>3.566750000000002</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>4150</v>
       </c>
       <c r="G108" t="n">
+        <v>3.722866666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>3.563133333333335</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>2150</v>
       </c>
       <c r="G109" t="n">
+        <v>3.723533333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>3.559766666666669</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>4396.597</v>
       </c>
       <c r="G110" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="H110" t="n">
         <v>3.555133333333335</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>610</v>
       </c>
       <c r="G111" t="n">
+        <v>3.7186</v>
+      </c>
+      <c r="H111" t="n">
         <v>3.554000000000002</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>2000</v>
       </c>
       <c r="G112" t="n">
+        <v>3.695466666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>3.546116666666669</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>65089.7211</v>
       </c>
       <c r="G113" t="n">
+        <v>3.689133333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>3.546416666666669</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>30458.9723</v>
       </c>
       <c r="G114" t="n">
+        <v>3.688066666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>3.557900000000002</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>155</v>
       </c>
       <c r="G115" t="n">
+        <v>3.652266666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>3.552133333333336</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,25 @@
         <v>160</v>
       </c>
       <c r="G116" t="n">
+        <v>3.6408</v>
+      </c>
+      <c r="H116" t="n">
         <v>3.552600000000002</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3.233</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3.233</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4827,27 @@
         <v>150</v>
       </c>
       <c r="G117" t="n">
+        <v>3.629266666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>3.555516666666668</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>3.233</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4871,27 @@
         <v>10659.9625</v>
       </c>
       <c r="G118" t="n">
+        <v>3.618133333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>3.557716666666669</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>3.233</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4915,21 @@
         <v>20002.1329</v>
       </c>
       <c r="G119" t="n">
+        <v>3.609933333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>3.555850000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4953,21 @@
         <v>36671.4938</v>
       </c>
       <c r="G120" t="n">
+        <v>3.603066666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>3.553983333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4991,21 @@
         <v>73289.7855</v>
       </c>
       <c r="G121" t="n">
+        <v>3.595666666666668</v>
+      </c>
+      <c r="H121" t="n">
         <v>3.556583333333335</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5029,25 @@
         <v>150</v>
       </c>
       <c r="G122" t="n">
+        <v>3.592333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>3.557533333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="L122" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5071,29 @@
         <v>218991.7124</v>
       </c>
       <c r="G123" t="n">
+        <v>3.597333333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>3.560366666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>3.647</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5117,27 @@
         <v>150</v>
       </c>
       <c r="G124" t="n">
+        <v>3.601133333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>3.565633333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5161,21 @@
         <v>300</v>
       </c>
       <c r="G125" t="n">
+        <v>3.610133333333335</v>
+      </c>
+      <c r="H125" t="n">
         <v>3.567983333333335</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5199,21 @@
         <v>150</v>
       </c>
       <c r="G126" t="n">
+        <v>3.614333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>3.570666666666668</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5237,21 @@
         <v>150</v>
       </c>
       <c r="G127" t="n">
+        <v>3.637133333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>3.573950000000001</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5275,21 @@
         <v>540982.0829</v>
       </c>
       <c r="G128" t="n">
+        <v>3.641666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>3.576750000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5313,21 @@
         <v>870</v>
       </c>
       <c r="G129" t="n">
+        <v>3.646133333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>3.580183333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5351,21 @@
         <v>150</v>
       </c>
       <c r="G130" t="n">
+        <v>3.681066666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>3.585383333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5389,21 @@
         <v>21650</v>
       </c>
       <c r="G131" t="n">
+        <v>3.691600000000001</v>
+      </c>
+      <c r="H131" t="n">
         <v>3.590433333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5427,21 @@
         <v>1750</v>
       </c>
       <c r="G132" t="n">
+        <v>3.7012</v>
+      </c>
+      <c r="H132" t="n">
         <v>3.593783333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5465,21 @@
         <v>6387.2455</v>
       </c>
       <c r="G133" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="H133" t="n">
         <v>3.598050000000001</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5503,21 @@
         <v>1650</v>
       </c>
       <c r="G134" t="n">
+        <v>3.717266666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>3.602283333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5541,21 @@
         <v>300</v>
       </c>
       <c r="G135" t="n">
+        <v>3.723666666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>3.6063</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5579,21 @@
         <v>616.4184</v>
       </c>
       <c r="G136" t="n">
+        <v>3.730333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>3.610416666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5617,21 @@
         <v>600</v>
       </c>
       <c r="G137" t="n">
+        <v>3.7328</v>
+      </c>
+      <c r="H137" t="n">
         <v>3.614483333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5655,21 @@
         <v>183.5816</v>
       </c>
       <c r="G138" t="n">
+        <v>3.727466666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>3.61855</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5693,21 @@
         <v>3869.6075</v>
       </c>
       <c r="G139" t="n">
+        <v>3.721733333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>3.62285</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5731,21 @@
         <v>2250</v>
       </c>
       <c r="G140" t="n">
+        <v>3.697533333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>3.62395</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5769,27 @@
         <v>30600</v>
       </c>
       <c r="G141" t="n">
+        <v>3.6678</v>
+      </c>
+      <c r="H141" t="n">
         <v>3.62415</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>3.377</v>
+      </c>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5813,27 @@
         <v>4170</v>
       </c>
       <c r="G142" t="n">
+        <v>3.6678</v>
+      </c>
+      <c r="H142" t="n">
         <v>3.633266666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>3.314</v>
+      </c>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,24 +5857,27 @@
         <v>3000</v>
       </c>
       <c r="G143" t="n">
+        <v>3.6666</v>
+      </c>
+      <c r="H143" t="n">
         <v>3.6416</v>
       </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
         <v>3.759</v>
       </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5424,22 +5901,25 @@
         <v>1050</v>
       </c>
       <c r="G144" t="n">
+        <v>3.665133333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>3.650933333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5463,22 +5943,25 @@
         <v>4250</v>
       </c>
       <c r="G145" t="n">
+        <v>3.665266666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>3.6593</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5502,22 +5985,25 @@
         <v>31846.5395</v>
       </c>
       <c r="G146" t="n">
+        <v>3.660866666666666</v>
+      </c>
+      <c r="H146" t="n">
         <v>3.663383333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,22 +6027,25 @@
         <v>37990.4487</v>
       </c>
       <c r="G147" t="n">
+        <v>3.656133333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>3.667116666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5580,22 +6069,25 @@
         <v>5200</v>
       </c>
       <c r="G148" t="n">
+        <v>3.6548</v>
+      </c>
+      <c r="H148" t="n">
         <v>3.667316666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5619,22 +6111,25 @@
         <v>112272.4735</v>
       </c>
       <c r="G149" t="n">
+        <v>3.632933333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>3.6681</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5658,22 +6153,27 @@
         <v>3950</v>
       </c>
       <c r="G150" t="n">
+        <v>3.633333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>3.669783333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,22 +6197,25 @@
         <v>39713</v>
       </c>
       <c r="G151" t="n">
+        <v>3.604533333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>3.662799999999999</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,22 +6239,25 @@
         <v>160</v>
       </c>
       <c r="G152" t="n">
+        <v>3.604866666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>3.662999999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5775,22 +6281,25 @@
         <v>160</v>
       </c>
       <c r="G153" t="n">
+        <v>3.5928</v>
+      </c>
+      <c r="H153" t="n">
         <v>3.660116666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5814,22 +6323,25 @@
         <v>160</v>
       </c>
       <c r="G154" t="n">
+        <v>3.586733333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>3.658283333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5853,22 +6365,25 @@
         <v>78638.4151</v>
       </c>
       <c r="G155" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="H155" t="n">
         <v>3.656416666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,22 +6407,25 @@
         <v>292.2509</v>
       </c>
       <c r="G156" t="n">
+        <v>3.614066666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>3.6537</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5931,22 +6449,25 @@
         <v>20200</v>
       </c>
       <c r="G157" t="n">
+        <v>3.598133333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>3.649633333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5970,22 +6491,25 @@
         <v>160</v>
       </c>
       <c r="G158" t="n">
+        <v>3.581600000000001</v>
+      </c>
+      <c r="H158" t="n">
         <v>3.644750000000001</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6009,22 +6533,25 @@
         <v>39093.864</v>
       </c>
       <c r="G159" t="n">
+        <v>3.565400000000001</v>
+      </c>
+      <c r="H159" t="n">
         <v>3.641183333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,22 +6575,25 @@
         <v>24133.5509</v>
       </c>
       <c r="G160" t="n">
+        <v>3.549733333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>3.637083333333334</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6087,22 +6617,25 @@
         <v>35000</v>
       </c>
       <c r="G161" t="n">
+        <v>3.547600000000001</v>
+      </c>
+      <c r="H161" t="n">
         <v>3.635216666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6126,22 +6659,25 @@
         <v>150</v>
       </c>
       <c r="G162" t="n">
+        <v>3.546666666666668</v>
+      </c>
+      <c r="H162" t="n">
         <v>3.633316666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6165,22 +6701,25 @@
         <v>4500</v>
       </c>
       <c r="G163" t="n">
+        <v>3.541066666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>3.631000000000001</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,22 +6743,25 @@
         <v>150</v>
       </c>
       <c r="G164" t="n">
+        <v>3.559533333333334</v>
+      </c>
+      <c r="H164" t="n">
         <v>3.629916666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6243,22 +6785,25 @@
         <v>300</v>
       </c>
       <c r="G165" t="n">
+        <v>3.556600000000001</v>
+      </c>
+      <c r="H165" t="n">
         <v>3.629166666666668</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6282,22 +6827,25 @@
         <v>450</v>
       </c>
       <c r="G166" t="n">
+        <v>3.582533333333335</v>
+      </c>
+      <c r="H166" t="n">
         <v>3.628266666666668</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6321,22 +6869,25 @@
         <v>100000</v>
       </c>
       <c r="G167" t="n">
+        <v>3.579600000000001</v>
+      </c>
+      <c r="H167" t="n">
         <v>3.627400000000001</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6360,22 +6911,25 @@
         <v>300</v>
       </c>
       <c r="G168" t="n">
+        <v>3.584733333333335</v>
+      </c>
+      <c r="H168" t="n">
         <v>3.625583333333334</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,22 +6953,25 @@
         <v>150</v>
       </c>
       <c r="G169" t="n">
+        <v>3.584533333333335</v>
+      </c>
+      <c r="H169" t="n">
         <v>3.623533333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6438,22 +6995,25 @@
         <v>150</v>
       </c>
       <c r="G170" t="n">
+        <v>3.584400000000001</v>
+      </c>
+      <c r="H170" t="n">
         <v>3.623016666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6477,22 +7037,25 @@
         <v>3325.2479</v>
       </c>
       <c r="G171" t="n">
+        <v>3.586600000000002</v>
+      </c>
+      <c r="H171" t="n">
         <v>3.620700000000001</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6516,22 +7079,25 @@
         <v>160</v>
       </c>
       <c r="G172" t="n">
+        <v>3.589133333333335</v>
+      </c>
+      <c r="H172" t="n">
         <v>3.623050000000001</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6555,22 +7121,25 @@
         <v>10000</v>
       </c>
       <c r="G173" t="n">
+        <v>3.593666666666668</v>
+      </c>
+      <c r="H173" t="n">
         <v>3.620883333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6594,22 +7163,25 @@
         <v>107310.0789</v>
       </c>
       <c r="G174" t="n">
+        <v>3.598933333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>3.618900000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6633,22 +7205,25 @@
         <v>150</v>
       </c>
       <c r="G175" t="n">
+        <v>3.601133333333335</v>
+      </c>
+      <c r="H175" t="n">
         <v>3.6243</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6672,22 +7247,25 @@
         <v>150</v>
       </c>
       <c r="G176" t="n">
+        <v>3.590533333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>3.622650000000001</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6711,22 +7289,25 @@
         <v>13950</v>
       </c>
       <c r="G177" t="n">
+        <v>3.583400000000001</v>
+      </c>
+      <c r="H177" t="n">
         <v>3.621850000000001</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6750,22 +7331,25 @@
         <v>97.2037</v>
       </c>
       <c r="G178" t="n">
+        <v>3.573200000000001</v>
+      </c>
+      <c r="H178" t="n">
         <v>3.619766666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6789,22 +7373,25 @@
         <v>116633.7655</v>
       </c>
       <c r="G179" t="n">
+        <v>3.552866666666668</v>
+      </c>
+      <c r="H179" t="n">
         <v>3.615650000000001</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6828,22 +7415,25 @@
         <v>3362.5071</v>
       </c>
       <c r="G180" t="n">
+        <v>3.545533333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>3.614783333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6867,22 +7457,27 @@
         <v>25793.3578</v>
       </c>
       <c r="G181" t="n">
+        <v>3.538200000000001</v>
+      </c>
+      <c r="H181" t="n">
         <v>3.613900000000001</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,22 +7501,27 @@
         <v>48730.0116</v>
       </c>
       <c r="G182" t="n">
+        <v>3.530866666666668</v>
+      </c>
+      <c r="H182" t="n">
         <v>3.612033333333335</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6945,22 +7545,25 @@
         <v>66566.3095</v>
       </c>
       <c r="G183" t="n">
+        <v>3.528133333333335</v>
+      </c>
+      <c r="H183" t="n">
         <v>3.608283333333334</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6984,22 +7587,25 @@
         <v>8564.9591</v>
       </c>
       <c r="G184" t="n">
+        <v>3.525533333333335</v>
+      </c>
+      <c r="H184" t="n">
         <v>3.604633333333334</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7023,22 +7629,25 @@
         <v>142</v>
       </c>
       <c r="G185" t="n">
+        <v>3.523200000000001</v>
+      </c>
+      <c r="H185" t="n">
         <v>3.601283333333334</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7062,22 +7671,25 @@
         <v>1000</v>
       </c>
       <c r="G186" t="n">
+        <v>3.522066666666668</v>
+      </c>
+      <c r="H186" t="n">
         <v>3.597633333333334</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7101,22 +7713,25 @@
         <v>25612.7467</v>
       </c>
       <c r="G187" t="n">
+        <v>3.508133333333335</v>
+      </c>
+      <c r="H187" t="n">
         <v>3.590800000000001</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7140,22 +7755,27 @@
         <v>150</v>
       </c>
       <c r="G188" t="n">
+        <v>3.506066666666668</v>
+      </c>
+      <c r="H188" t="n">
         <v>3.586983333333334</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3.349</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7179,22 +7799,25 @@
         <v>2900</v>
       </c>
       <c r="G189" t="n">
+        <v>3.504133333333335</v>
+      </c>
+      <c r="H189" t="n">
         <v>3.583400000000001</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7218,22 +7841,449 @@
         <v>80084.3417</v>
       </c>
       <c r="G190" t="n">
+        <v>3.503066666666668</v>
+      </c>
+      <c r="H190" t="n">
         <v>3.579800000000001</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="D191" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="F191" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>3.506533333333334</v>
+      </c>
+      <c r="H191" t="n">
+        <v>3.576383333333334</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1279215.8313</v>
+      </c>
+      <c r="G192" t="n">
+        <v>3.500666666666667</v>
+      </c>
+      <c r="H192" t="n">
+        <v>3.571716666666667</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.349</v>
+      </c>
+      <c r="F193" t="n">
+        <v>121797.615</v>
+      </c>
+      <c r="G193" t="n">
+        <v>3.506066666666667</v>
+      </c>
+      <c r="H193" t="n">
+        <v>3.568783333333334</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.627</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="F194" t="n">
+        <v>135083.1456</v>
+      </c>
+      <c r="G194" t="n">
+        <v>3.525200000000001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>3.567633333333334</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F195" t="n">
+        <v>16688.4149</v>
+      </c>
+      <c r="G195" t="n">
+        <v>3.533533333333334</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3.567250000000001</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>3.627</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="F196" t="n">
+        <v>118729.3818</v>
+      </c>
+      <c r="G196" t="n">
+        <v>3.529933333333334</v>
+      </c>
+      <c r="H196" t="n">
+        <v>3.563800000000001</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="D197" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="F197" t="n">
+        <v>56681.3353</v>
+      </c>
+      <c r="G197" t="n">
+        <v>3.538266666666667</v>
+      </c>
+      <c r="H197" t="n">
+        <v>3.563400000000001</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.436</v>
+      </c>
+      <c r="D198" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3.436</v>
+      </c>
+      <c r="F198" t="n">
+        <v>45776.5037</v>
+      </c>
+      <c r="G198" t="n">
+        <v>3.531666666666667</v>
+      </c>
+      <c r="H198" t="n">
+        <v>3.559333333333334</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="D199" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="F199" t="n">
+        <v>61288.1051</v>
+      </c>
+      <c r="G199" t="n">
+        <v>3.5252</v>
+      </c>
+      <c r="H199" t="n">
+        <v>3.555500000000001</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="F200" t="n">
+        <v>58228.4753</v>
+      </c>
+      <c r="G200" t="n">
+        <v>3.518533333333334</v>
+      </c>
+      <c r="H200" t="n">
+        <v>3.556533333333334</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest DVP.xlsx
+++ b/BackTest/2020-01-25 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.958</v>
+        <v>3.879</v>
       </c>
       <c r="C2" t="n">
-        <v>3.968</v>
+        <v>3.839</v>
       </c>
       <c r="D2" t="n">
-        <v>3.968</v>
+        <v>3.879</v>
       </c>
       <c r="E2" t="n">
-        <v>3.958</v>
+        <v>3.83</v>
       </c>
       <c r="F2" t="n">
-        <v>270.4</v>
+        <v>337693.0325</v>
       </c>
       <c r="G2" t="n">
-        <v>4530086.741733332</v>
+        <v>4264166.728033334</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.958</v>
+        <v>3.821</v>
       </c>
       <c r="C3" t="n">
-        <v>3.958</v>
+        <v>3.821</v>
       </c>
       <c r="D3" t="n">
-        <v>3.958</v>
+        <v>3.821</v>
       </c>
       <c r="E3" t="n">
-        <v>3.958</v>
+        <v>3.821</v>
       </c>
       <c r="F3" t="n">
-        <v>9.6</v>
+        <v>150</v>
       </c>
       <c r="G3" t="n">
-        <v>4530077.141733333</v>
+        <v>4264016.728033334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.952</v>
+        <v>3.818</v>
       </c>
       <c r="C4" t="n">
-        <v>3.943</v>
+        <v>3.836</v>
       </c>
       <c r="D4" t="n">
-        <v>3.952</v>
+        <v>3.838</v>
       </c>
       <c r="E4" t="n">
-        <v>3.943</v>
+        <v>3.812</v>
       </c>
       <c r="F4" t="n">
-        <v>280</v>
+        <v>96540.5079</v>
       </c>
       <c r="G4" t="n">
-        <v>4529797.141733333</v>
+        <v>4360557.235933334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.928</v>
+        <v>3.813</v>
       </c>
       <c r="C5" t="n">
-        <v>3.883</v>
+        <v>3.887</v>
       </c>
       <c r="D5" t="n">
-        <v>3.928</v>
+        <v>3.888</v>
       </c>
       <c r="E5" t="n">
-        <v>3.883</v>
+        <v>3.811</v>
       </c>
       <c r="F5" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="G5" t="n">
-        <v>4528817.141733333</v>
+        <v>4361157.235933334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.874</v>
+        <v>3.848</v>
       </c>
       <c r="C6" t="n">
-        <v>3.958</v>
+        <v>3.838</v>
       </c>
       <c r="D6" t="n">
-        <v>3.958</v>
+        <v>3.848</v>
       </c>
       <c r="E6" t="n">
-        <v>3.873</v>
+        <v>3.838</v>
       </c>
       <c r="F6" t="n">
-        <v>2930</v>
+        <v>450</v>
       </c>
       <c r="G6" t="n">
-        <v>4531747.141733333</v>
+        <v>4360707.235933334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.873</v>
+        <v>3.828</v>
       </c>
       <c r="C7" t="n">
-        <v>3.873</v>
+        <v>3.834</v>
       </c>
       <c r="D7" t="n">
-        <v>3.873</v>
+        <v>3.834</v>
       </c>
       <c r="E7" t="n">
-        <v>3.873</v>
+        <v>3.762</v>
       </c>
       <c r="F7" t="n">
-        <v>3.4945</v>
+        <v>36238.4701</v>
       </c>
       <c r="G7" t="n">
-        <v>4531743.647233333</v>
+        <v>4324468.765833334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.867</v>
+        <v>3.799</v>
       </c>
       <c r="C8" t="n">
-        <v>3.848</v>
+        <v>3.799</v>
       </c>
       <c r="D8" t="n">
-        <v>3.867</v>
+        <v>3.799</v>
       </c>
       <c r="E8" t="n">
-        <v>3.848</v>
+        <v>3.799</v>
       </c>
       <c r="F8" t="n">
-        <v>840</v>
+        <v>317461.2405</v>
       </c>
       <c r="G8" t="n">
-        <v>4530903.647233333</v>
+        <v>4007007.525333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.847</v>
+        <v>3.799</v>
       </c>
       <c r="C9" t="n">
-        <v>3.827</v>
+        <v>3.897</v>
       </c>
       <c r="D9" t="n">
-        <v>3.847</v>
+        <v>4.006</v>
       </c>
       <c r="E9" t="n">
-        <v>3.827</v>
+        <v>3.799</v>
       </c>
       <c r="F9" t="n">
-        <v>735.5556</v>
+        <v>520354.1214</v>
       </c>
       <c r="G9" t="n">
-        <v>4530168.091633333</v>
+        <v>4527361.646733334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.826</v>
+        <v>4.005</v>
       </c>
       <c r="C10" t="n">
-        <v>3.823</v>
+        <v>4.005</v>
       </c>
       <c r="D10" t="n">
-        <v>3.826</v>
+        <v>4.005</v>
       </c>
       <c r="E10" t="n">
-        <v>3.823</v>
+        <v>4.005</v>
       </c>
       <c r="F10" t="n">
-        <v>455.5556</v>
+        <v>11047.3698</v>
       </c>
       <c r="G10" t="n">
-        <v>4529712.536033333</v>
+        <v>4538409.016533335</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.823</v>
+        <v>4.004</v>
       </c>
       <c r="C11" t="n">
-        <v>3.823</v>
+        <v>4.005</v>
       </c>
       <c r="D11" t="n">
-        <v>3.823</v>
+        <v>4.005</v>
       </c>
       <c r="E11" t="n">
-        <v>3.823</v>
+        <v>4.004</v>
       </c>
       <c r="F11" t="n">
-        <v>144.4444</v>
+        <v>8000</v>
       </c>
       <c r="G11" t="n">
-        <v>4529712.536033333</v>
+        <v>4538409.016533335</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.823</v>
+        <v>4.005</v>
       </c>
       <c r="C12" t="n">
-        <v>3.823</v>
+        <v>4.007</v>
       </c>
       <c r="D12" t="n">
-        <v>3.823</v>
+        <v>4.007</v>
       </c>
       <c r="E12" t="n">
-        <v>3.823</v>
+        <v>4.005</v>
       </c>
       <c r="F12" t="n">
-        <v>26540.6631</v>
+        <v>1700</v>
       </c>
       <c r="G12" t="n">
-        <v>4529712.536033333</v>
+        <v>4540109.016533335</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.823</v>
+        <v>4.007</v>
       </c>
       <c r="C13" t="n">
-        <v>3.823</v>
+        <v>3.802</v>
       </c>
       <c r="D13" t="n">
-        <v>3.823</v>
+        <v>4.079</v>
       </c>
       <c r="E13" t="n">
-        <v>3.823</v>
+        <v>3.802</v>
       </c>
       <c r="F13" t="n">
-        <v>3314.8925</v>
+        <v>47144.4444</v>
       </c>
       <c r="G13" t="n">
-        <v>4529712.536033333</v>
+        <v>4492964.572133334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.83</v>
+        <v>4.076</v>
       </c>
       <c r="C14" t="n">
-        <v>3.83</v>
+        <v>3.81</v>
       </c>
       <c r="D14" t="n">
-        <v>3.83</v>
+        <v>4.076</v>
       </c>
       <c r="E14" t="n">
-        <v>3.83</v>
+        <v>3.802</v>
       </c>
       <c r="F14" t="n">
-        <v>144.4444</v>
+        <v>28291.8126</v>
       </c>
       <c r="G14" t="n">
-        <v>4529856.980433334</v>
+        <v>4521256.384733334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.836</v>
+        <v>4.075</v>
       </c>
       <c r="C15" t="n">
-        <v>3.959</v>
+        <v>3.842</v>
       </c>
       <c r="D15" t="n">
-        <v>3.959</v>
+        <v>4.075</v>
       </c>
       <c r="E15" t="n">
-        <v>3.836</v>
+        <v>3.811</v>
       </c>
       <c r="F15" t="n">
-        <v>32750</v>
+        <v>21968.8136</v>
       </c>
       <c r="G15" t="n">
-        <v>4562606.980433334</v>
+        <v>4543225.198333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.83</v>
+        <v>4.068</v>
       </c>
       <c r="C16" t="n">
-        <v>3.959</v>
+        <v>3.836</v>
       </c>
       <c r="D16" t="n">
-        <v>3.959</v>
+        <v>4.069</v>
       </c>
       <c r="E16" t="n">
-        <v>3.824</v>
+        <v>3.835</v>
       </c>
       <c r="F16" t="n">
-        <v>16470</v>
+        <v>131457.6623</v>
       </c>
       <c r="G16" t="n">
-        <v>4562606.980433334</v>
+        <v>4411767.536033334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.831</v>
+        <v>3.836</v>
       </c>
       <c r="C17" t="n">
-        <v>3.959</v>
+        <v>4.056</v>
       </c>
       <c r="D17" t="n">
-        <v>3.959</v>
+        <v>4.058</v>
       </c>
       <c r="E17" t="n">
-        <v>3.831</v>
+        <v>3.77</v>
       </c>
       <c r="F17" t="n">
-        <v>15880</v>
+        <v>180727.3273</v>
       </c>
       <c r="G17" t="n">
-        <v>4562606.980433334</v>
+        <v>4592494.863333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.848</v>
+        <v>3.79</v>
       </c>
       <c r="C18" t="n">
-        <v>3.899</v>
+        <v>4.03</v>
       </c>
       <c r="D18" t="n">
-        <v>3.899</v>
+        <v>4.03</v>
       </c>
       <c r="E18" t="n">
-        <v>3.848</v>
+        <v>3.79</v>
       </c>
       <c r="F18" t="n">
-        <v>12140</v>
+        <v>294.4444</v>
       </c>
       <c r="G18" t="n">
-        <v>4550466.980433334</v>
+        <v>4592200.418933334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865</v>
+        <v>3.791</v>
       </c>
       <c r="C19" t="n">
-        <v>3.865</v>
+        <v>4.06</v>
       </c>
       <c r="D19" t="n">
-        <v>3.865</v>
+        <v>4.06</v>
       </c>
       <c r="E19" t="n">
-        <v>3.865</v>
+        <v>3.791</v>
       </c>
       <c r="F19" t="n">
-        <v>140</v>
+        <v>588.8887999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>4550326.980433334</v>
+        <v>4592789.307733334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.86</v>
+        <v>4.059</v>
       </c>
       <c r="C20" t="n">
-        <v>3.94</v>
+        <v>3.81</v>
       </c>
       <c r="D20" t="n">
-        <v>3.94</v>
+        <v>4.059</v>
       </c>
       <c r="E20" t="n">
-        <v>3.86</v>
+        <v>3.809</v>
       </c>
       <c r="F20" t="n">
-        <v>280</v>
+        <v>2438.8888</v>
       </c>
       <c r="G20" t="n">
-        <v>4550606.980433334</v>
+        <v>4590350.418933334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.854</v>
+        <v>4.06</v>
       </c>
       <c r="C21" t="n">
-        <v>3.93</v>
+        <v>4.059</v>
       </c>
       <c r="D21" t="n">
-        <v>3.93</v>
+        <v>4.06</v>
       </c>
       <c r="E21" t="n">
-        <v>3.854</v>
+        <v>3.813</v>
       </c>
       <c r="F21" t="n">
-        <v>10180</v>
+        <v>424.4444</v>
       </c>
       <c r="G21" t="n">
-        <v>4540426.980433334</v>
+        <v>4590774.863333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.869</v>
+        <v>3.937</v>
       </c>
       <c r="C22" t="n">
-        <v>3.869</v>
+        <v>3.937</v>
       </c>
       <c r="D22" t="n">
-        <v>3.869</v>
+        <v>4.059</v>
       </c>
       <c r="E22" t="n">
-        <v>3.869</v>
+        <v>3.93</v>
       </c>
       <c r="F22" t="n">
-        <v>140</v>
+        <v>5284.4444</v>
       </c>
       <c r="G22" t="n">
-        <v>4540286.980433334</v>
+        <v>4585490.418933334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.86</v>
+        <v>4.059</v>
       </c>
       <c r="C23" t="n">
-        <v>3.87</v>
+        <v>4.059</v>
       </c>
       <c r="D23" t="n">
-        <v>3.87</v>
+        <v>4.059</v>
       </c>
       <c r="E23" t="n">
-        <v>3.86</v>
+        <v>4.059</v>
       </c>
       <c r="F23" t="n">
-        <v>12070.675</v>
+        <v>140</v>
       </c>
       <c r="G23" t="n">
-        <v>4552357.655433333</v>
+        <v>4585630.418933334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.868</v>
+        <v>4.059</v>
       </c>
       <c r="C24" t="n">
-        <v>3.865</v>
+        <v>4.059</v>
       </c>
       <c r="D24" t="n">
-        <v>3.868</v>
+        <v>4.059</v>
       </c>
       <c r="E24" t="n">
-        <v>3.865</v>
+        <v>4.059</v>
       </c>
       <c r="F24" t="n">
-        <v>280</v>
+        <v>2600.3795</v>
       </c>
       <c r="G24" t="n">
-        <v>4552077.655433333</v>
+        <v>4585630.418933334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.859</v>
+        <v>4.06</v>
       </c>
       <c r="C25" t="n">
-        <v>3.93</v>
+        <v>4.06</v>
       </c>
       <c r="D25" t="n">
-        <v>3.93</v>
+        <v>4.06</v>
       </c>
       <c r="E25" t="n">
-        <v>3.854</v>
+        <v>4.06</v>
       </c>
       <c r="F25" t="n">
-        <v>11340</v>
+        <v>10739.0585</v>
       </c>
       <c r="G25" t="n">
-        <v>4563417.655433333</v>
+        <v>4596369.477433334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.879</v>
+        <v>4.059</v>
       </c>
       <c r="C26" t="n">
-        <v>3.871</v>
+        <v>4.059</v>
       </c>
       <c r="D26" t="n">
-        <v>3.879</v>
+        <v>4.059</v>
       </c>
       <c r="E26" t="n">
-        <v>3.871</v>
+        <v>4.059</v>
       </c>
       <c r="F26" t="n">
-        <v>11597.8022</v>
+        <v>140</v>
       </c>
       <c r="G26" t="n">
-        <v>4551819.853233334</v>
+        <v>4596229.477433334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.865</v>
+        <v>4.058</v>
       </c>
       <c r="C27" t="n">
-        <v>3.865</v>
+        <v>3.991</v>
       </c>
       <c r="D27" t="n">
-        <v>3.93</v>
+        <v>4.058</v>
       </c>
       <c r="E27" t="n">
-        <v>3.859</v>
+        <v>3.991</v>
       </c>
       <c r="F27" t="n">
-        <v>16264.4444</v>
+        <v>42057.2344</v>
       </c>
       <c r="G27" t="n">
-        <v>4535555.408833333</v>
+        <v>4554172.243033334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.865</v>
+        <v>3.977</v>
       </c>
       <c r="C28" t="n">
-        <v>3.865</v>
+        <v>3.98</v>
       </c>
       <c r="D28" t="n">
-        <v>3.865</v>
+        <v>3.98</v>
       </c>
       <c r="E28" t="n">
-        <v>3.865</v>
+        <v>3.808</v>
       </c>
       <c r="F28" t="n">
-        <v>135.5556</v>
+        <v>90054.50659999999</v>
       </c>
       <c r="G28" t="n">
-        <v>4535555.408833333</v>
+        <v>4464117.736433334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.861</v>
+        <v>4.02</v>
       </c>
       <c r="C29" t="n">
-        <v>3.861</v>
+        <v>4.02</v>
       </c>
       <c r="D29" t="n">
-        <v>3.861</v>
+        <v>4.02</v>
       </c>
       <c r="E29" t="n">
-        <v>3.861</v>
+        <v>3.816</v>
       </c>
       <c r="F29" t="n">
-        <v>7182.9696</v>
+        <v>738.8887999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>4528372.439233333</v>
+        <v>4464856.625233334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.863</v>
+        <v>3.821</v>
       </c>
       <c r="C30" t="n">
-        <v>3.93</v>
+        <v>4.01</v>
       </c>
       <c r="D30" t="n">
-        <v>3.93</v>
+        <v>4.02</v>
       </c>
       <c r="E30" t="n">
-        <v>3.863</v>
+        <v>3.821</v>
       </c>
       <c r="F30" t="n">
-        <v>19740</v>
+        <v>588.8887999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>4548112.439233333</v>
+        <v>4464267.736433334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.887</v>
+        <v>3.828</v>
       </c>
       <c r="C31" t="n">
-        <v>3.883</v>
+        <v>4.019</v>
       </c>
       <c r="D31" t="n">
-        <v>3.887</v>
+        <v>4.02</v>
       </c>
       <c r="E31" t="n">
-        <v>3.883</v>
+        <v>3.828</v>
       </c>
       <c r="F31" t="n">
-        <v>12000</v>
+        <v>5338.8888</v>
       </c>
       <c r="G31" t="n">
-        <v>4536112.439233333</v>
+        <v>4469606.625233334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.93</v>
+        <v>3.834</v>
       </c>
       <c r="C32" t="n">
-        <v>3.93</v>
+        <v>4.04</v>
       </c>
       <c r="D32" t="n">
-        <v>3.93</v>
+        <v>4.04</v>
       </c>
       <c r="E32" t="n">
-        <v>3.93</v>
+        <v>3.834</v>
       </c>
       <c r="F32" t="n">
-        <v>140</v>
+        <v>6438.8888</v>
       </c>
       <c r="G32" t="n">
-        <v>4536252.439233333</v>
+        <v>4476045.514033333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.895</v>
+        <v>3.845</v>
       </c>
       <c r="C33" t="n">
-        <v>3.93</v>
+        <v>3.845</v>
       </c>
       <c r="D33" t="n">
-        <v>3.93</v>
+        <v>3.845</v>
       </c>
       <c r="E33" t="n">
-        <v>3.888</v>
+        <v>3.845</v>
       </c>
       <c r="F33" t="n">
-        <v>308.8943</v>
+        <v>144.4444</v>
       </c>
       <c r="G33" t="n">
-        <v>4536252.439233333</v>
+        <v>4475901.069633333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.924</v>
+        <v>4.04</v>
       </c>
       <c r="C34" t="n">
-        <v>3.924</v>
+        <v>4.04</v>
       </c>
       <c r="D34" t="n">
-        <v>3.924</v>
+        <v>4.04</v>
       </c>
       <c r="E34" t="n">
-        <v>3.924</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>140</v>
+        <v>5270</v>
       </c>
       <c r="G34" t="n">
-        <v>4536112.439233333</v>
+        <v>4481171.069633333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.921</v>
+        <v>4.038</v>
       </c>
       <c r="C35" t="n">
-        <v>3.902</v>
+        <v>4.038</v>
       </c>
       <c r="D35" t="n">
-        <v>3.921</v>
+        <v>4.038</v>
       </c>
       <c r="E35" t="n">
-        <v>3.902</v>
+        <v>4.038</v>
       </c>
       <c r="F35" t="n">
-        <v>700</v>
+        <v>140</v>
       </c>
       <c r="G35" t="n">
-        <v>4535412.439233333</v>
+        <v>4481031.069633333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.893</v>
+        <v>4.04</v>
       </c>
       <c r="C36" t="n">
-        <v>3.9</v>
+        <v>4.04</v>
       </c>
       <c r="D36" t="n">
-        <v>3.9</v>
+        <v>4.04</v>
       </c>
       <c r="E36" t="n">
-        <v>3.883</v>
+        <v>4.04</v>
       </c>
       <c r="F36" t="n">
-        <v>1130</v>
+        <v>140</v>
       </c>
       <c r="G36" t="n">
-        <v>4534282.439233333</v>
+        <v>4481171.069633333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.883</v>
+        <v>4.038</v>
       </c>
       <c r="C37" t="n">
-        <v>3.883</v>
+        <v>4.037</v>
       </c>
       <c r="D37" t="n">
-        <v>3.883</v>
+        <v>4.038</v>
       </c>
       <c r="E37" t="n">
-        <v>3.883</v>
+        <v>4.037</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2761</v>
+        <v>280</v>
       </c>
       <c r="G37" t="n">
-        <v>4534146.163133333</v>
+        <v>4480891.069633333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.88</v>
+        <v>4.036</v>
       </c>
       <c r="C38" t="n">
-        <v>3.765</v>
+        <v>4.035</v>
       </c>
       <c r="D38" t="n">
-        <v>3.88</v>
+        <v>4.036</v>
       </c>
       <c r="E38" t="n">
-        <v>3.765</v>
+        <v>4.035</v>
       </c>
       <c r="F38" t="n">
-        <v>378610.6241</v>
+        <v>280</v>
       </c>
       <c r="G38" t="n">
-        <v>4155535.539033332</v>
+        <v>4480611.069633333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.89</v>
+        <v>4.034</v>
       </c>
       <c r="C39" t="n">
-        <v>3.89</v>
+        <v>4.034</v>
       </c>
       <c r="D39" t="n">
-        <v>3.89</v>
+        <v>4.034</v>
       </c>
       <c r="E39" t="n">
-        <v>3.89</v>
+        <v>4.034</v>
       </c>
       <c r="F39" t="n">
         <v>140</v>
       </c>
       <c r="G39" t="n">
-        <v>4155675.539033332</v>
+        <v>4480471.069633333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.73</v>
+        <v>4.033</v>
       </c>
       <c r="C40" t="n">
-        <v>3.671</v>
+        <v>4.01</v>
       </c>
       <c r="D40" t="n">
-        <v>3.73</v>
+        <v>4.033</v>
       </c>
       <c r="E40" t="n">
-        <v>3.671</v>
+        <v>4.01</v>
       </c>
       <c r="F40" t="n">
-        <v>669144.639</v>
+        <v>3510</v>
       </c>
       <c r="G40" t="n">
-        <v>3486530.900033332</v>
+        <v>4476961.069633333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.65</v>
+        <v>4.009</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4.02</v>
       </c>
       <c r="D41" t="n">
-        <v>3.65</v>
+        <v>4.02</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>3.986</v>
       </c>
       <c r="F41" t="n">
-        <v>1309464.6639</v>
+        <v>64457.1459</v>
       </c>
       <c r="G41" t="n">
-        <v>2177066.236133332</v>
+        <v>4541418.215533333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.56</v>
+        <v>3.977</v>
       </c>
       <c r="C42" t="n">
-        <v>3.579</v>
+        <v>4.02</v>
       </c>
       <c r="D42" t="n">
-        <v>3.579</v>
+        <v>4.02</v>
       </c>
       <c r="E42" t="n">
-        <v>3.56</v>
+        <v>3.974</v>
       </c>
       <c r="F42" t="n">
-        <v>37986.56479156189</v>
+        <v>294.4444</v>
       </c>
       <c r="G42" t="n">
-        <v>2215052.800924894</v>
+        <v>4541418.215533333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.56</v>
+        <v>4.02</v>
       </c>
       <c r="C43" t="n">
-        <v>3.56</v>
+        <v>4.02</v>
       </c>
       <c r="D43" t="n">
-        <v>3.56</v>
+        <v>4.02</v>
       </c>
       <c r="E43" t="n">
-        <v>3.301</v>
+        <v>4.02</v>
       </c>
       <c r="F43" t="n">
-        <v>35444.5874</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="n">
-        <v>2179608.213524894</v>
+        <v>4541418.215533333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.579</v>
+        <v>3.99</v>
       </c>
       <c r="C44" t="n">
-        <v>3.412</v>
+        <v>3.99</v>
       </c>
       <c r="D44" t="n">
-        <v>3.579</v>
+        <v>3.99</v>
       </c>
       <c r="E44" t="n">
-        <v>3.4</v>
+        <v>3.99</v>
       </c>
       <c r="F44" t="n">
-        <v>105156.7884</v>
+        <v>130.4444</v>
       </c>
       <c r="G44" t="n">
-        <v>2074451.425124894</v>
+        <v>4541287.771133333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.54</v>
+        <v>3.99</v>
       </c>
       <c r="C45" t="n">
-        <v>3.456</v>
+        <v>3.99</v>
       </c>
       <c r="D45" t="n">
-        <v>3.57</v>
+        <v>3.99</v>
       </c>
       <c r="E45" t="n">
-        <v>3.456</v>
+        <v>3.99</v>
       </c>
       <c r="F45" t="n">
-        <v>19932.997</v>
+        <v>9.5556</v>
       </c>
       <c r="G45" t="n">
-        <v>2094384.422124894</v>
+        <v>4541287.771133333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.55</v>
+        <v>3.983</v>
       </c>
       <c r="C46" t="n">
-        <v>3.699</v>
+        <v>3.983</v>
       </c>
       <c r="D46" t="n">
-        <v>3.836</v>
+        <v>3.983</v>
       </c>
       <c r="E46" t="n">
-        <v>3.55</v>
+        <v>3.983</v>
       </c>
       <c r="F46" t="n">
-        <v>790133.6878</v>
+        <v>140</v>
       </c>
       <c r="G46" t="n">
-        <v>2884518.109924894</v>
+        <v>4541147.771133333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.7</v>
+        <v>3.979</v>
       </c>
       <c r="C47" t="n">
-        <v>3.699</v>
+        <v>3.979</v>
       </c>
       <c r="D47" t="n">
-        <v>3.71</v>
+        <v>3.979</v>
       </c>
       <c r="E47" t="n">
-        <v>3.699</v>
+        <v>3.979</v>
       </c>
       <c r="F47" t="n">
-        <v>431459.7042</v>
+        <v>130.4444</v>
       </c>
       <c r="G47" t="n">
-        <v>2884518.109924894</v>
+        <v>4541017.326733332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.45</v>
+        <v>3.979</v>
       </c>
       <c r="C48" t="n">
-        <v>3.432</v>
+        <v>3.933</v>
       </c>
       <c r="D48" t="n">
-        <v>3.45</v>
+        <v>3.979</v>
       </c>
       <c r="E48" t="n">
-        <v>3.432</v>
+        <v>3.933</v>
       </c>
       <c r="F48" t="n">
-        <v>321033.4871</v>
+        <v>3387.2754</v>
       </c>
       <c r="G48" t="n">
-        <v>2563484.622824894</v>
+        <v>4537630.051333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.59</v>
+        <v>3.916</v>
       </c>
       <c r="C49" t="n">
-        <v>3.59</v>
+        <v>3.839</v>
       </c>
       <c r="D49" t="n">
-        <v>3.59</v>
+        <v>3.98</v>
       </c>
       <c r="E49" t="n">
-        <v>3.59</v>
+        <v>3.839</v>
       </c>
       <c r="F49" t="n">
-        <v>2450</v>
+        <v>23530.9058</v>
       </c>
       <c r="G49" t="n">
-        <v>2565934.622824894</v>
+        <v>4514099.145533333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.59</v>
+        <v>3.92</v>
       </c>
       <c r="C50" t="n">
-        <v>3.59</v>
+        <v>3.92</v>
       </c>
       <c r="D50" t="n">
-        <v>3.59</v>
+        <v>3.92</v>
       </c>
       <c r="E50" t="n">
-        <v>3.59</v>
+        <v>3.92</v>
       </c>
       <c r="F50" t="n">
-        <v>10816.0493</v>
+        <v>150</v>
       </c>
       <c r="G50" t="n">
-        <v>2565934.622824894</v>
+        <v>4514249.145533333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.444</v>
+        <v>3.918</v>
       </c>
       <c r="C51" t="n">
-        <v>3.439</v>
+        <v>3.839</v>
       </c>
       <c r="D51" t="n">
-        <v>3.444</v>
+        <v>4.02</v>
       </c>
       <c r="E51" t="n">
-        <v>3.439</v>
+        <v>3.839</v>
       </c>
       <c r="F51" t="n">
-        <v>33201.7415</v>
+        <v>2605.5556</v>
       </c>
       <c r="G51" t="n">
-        <v>2532732.881324894</v>
+        <v>4511643.589933333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.599</v>
+        <v>3.839</v>
       </c>
       <c r="C52" t="n">
-        <v>3.599</v>
+        <v>3.829</v>
       </c>
       <c r="D52" t="n">
-        <v>3.599</v>
+        <v>3.98</v>
       </c>
       <c r="E52" t="n">
-        <v>3.599</v>
+        <v>3.829</v>
       </c>
       <c r="F52" t="n">
-        <v>9022.155000000001</v>
+        <v>25209.3231</v>
       </c>
       <c r="G52" t="n">
-        <v>2541755.036324894</v>
+        <v>4486434.266833333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.599</v>
+        <v>3.829</v>
       </c>
       <c r="C53" t="n">
-        <v>3.599</v>
+        <v>3.829</v>
       </c>
       <c r="D53" t="n">
-        <v>3.599</v>
+        <v>3.829</v>
       </c>
       <c r="E53" t="n">
-        <v>3.599</v>
+        <v>3.829</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1101</v>
+        <v>125.4444</v>
       </c>
       <c r="G53" t="n">
-        <v>2541755.036324894</v>
+        <v>4486434.266833333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.562</v>
+        <v>3.829</v>
       </c>
       <c r="C54" t="n">
-        <v>3.562</v>
+        <v>3.96</v>
       </c>
       <c r="D54" t="n">
-        <v>3.562</v>
+        <v>3.96</v>
       </c>
       <c r="E54" t="n">
-        <v>3.562</v>
+        <v>3.829</v>
       </c>
       <c r="F54" t="n">
-        <v>1824.5115</v>
+        <v>11600</v>
       </c>
       <c r="G54" t="n">
-        <v>2539930.524824894</v>
+        <v>4498034.266833333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.589</v>
+        <v>3.829</v>
       </c>
       <c r="C55" t="n">
-        <v>3.589</v>
+        <v>3.99</v>
       </c>
       <c r="D55" t="n">
-        <v>3.589</v>
+        <v>3.99</v>
       </c>
       <c r="E55" t="n">
-        <v>3.589</v>
+        <v>3.829</v>
       </c>
       <c r="F55" t="n">
-        <v>30000</v>
+        <v>274.4444</v>
       </c>
       <c r="G55" t="n">
-        <v>2569930.524824894</v>
+        <v>4498308.711233334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.55</v>
+        <v>3.989</v>
       </c>
       <c r="C56" t="n">
-        <v>3.55</v>
+        <v>3.989</v>
       </c>
       <c r="D56" t="n">
-        <v>3.55</v>
+        <v>3.989</v>
       </c>
       <c r="E56" t="n">
-        <v>3.55</v>
+        <v>3.989</v>
       </c>
       <c r="F56" t="n">
-        <v>287.7903</v>
+        <v>2009.8887</v>
       </c>
       <c r="G56" t="n">
-        <v>2569642.734524894</v>
+        <v>4496298.822533334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.484</v>
+        <v>3.829</v>
       </c>
       <c r="C57" t="n">
-        <v>3.445</v>
+        <v>3.829</v>
       </c>
       <c r="D57" t="n">
-        <v>3.484</v>
+        <v>3.829</v>
       </c>
       <c r="E57" t="n">
-        <v>3.445</v>
+        <v>3.829</v>
       </c>
       <c r="F57" t="n">
-        <v>18303.4986</v>
+        <v>144.4444</v>
       </c>
       <c r="G57" t="n">
-        <v>2551339.235924894</v>
+        <v>4496154.378133333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.443</v>
+        <v>3.97</v>
       </c>
       <c r="C58" t="n">
-        <v>3.443</v>
+        <v>3.98</v>
       </c>
       <c r="D58" t="n">
-        <v>3.443</v>
+        <v>3.98</v>
       </c>
       <c r="E58" t="n">
-        <v>3.443</v>
+        <v>3.97</v>
       </c>
       <c r="F58" t="n">
-        <v>54910.4959</v>
+        <v>260</v>
       </c>
       <c r="G58" t="n">
-        <v>2496428.740024894</v>
+        <v>4496414.378133333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,28 +2490,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.529</v>
+        <v>3.829</v>
       </c>
       <c r="C59" t="n">
-        <v>3.53</v>
+        <v>3.99</v>
       </c>
       <c r="D59" t="n">
-        <v>3.53</v>
+        <v>3.99</v>
       </c>
       <c r="E59" t="n">
-        <v>3.529</v>
+        <v>3.829</v>
       </c>
       <c r="F59" t="n">
-        <v>6647.8308</v>
+        <v>844.4444</v>
       </c>
       <c r="G59" t="n">
-        <v>2503076.570824894</v>
+        <v>4497258.822533334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2526,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.45</v>
+        <v>3.829</v>
       </c>
       <c r="C60" t="n">
-        <v>3.464</v>
+        <v>3.97</v>
       </c>
       <c r="D60" t="n">
-        <v>3.464</v>
+        <v>3.97</v>
       </c>
       <c r="E60" t="n">
-        <v>3.45</v>
+        <v>3.829</v>
       </c>
       <c r="F60" t="n">
-        <v>570021.6486</v>
+        <v>274.4444</v>
       </c>
       <c r="G60" t="n">
-        <v>1933054.922224894</v>
+        <v>4496984.378133333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.443</v>
+        <v>3.85</v>
       </c>
       <c r="C61" t="n">
-        <v>3.442</v>
+        <v>3.939</v>
       </c>
       <c r="D61" t="n">
-        <v>3.443</v>
+        <v>3.939</v>
       </c>
       <c r="E61" t="n">
-        <v>3.442</v>
+        <v>3.831</v>
       </c>
       <c r="F61" t="n">
-        <v>64030.5731</v>
+        <v>450</v>
       </c>
       <c r="G61" t="n">
-        <v>1869024.349124894</v>
+        <v>4496534.378133333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,28 +2598,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.442</v>
+        <v>3.829</v>
       </c>
       <c r="C62" t="n">
-        <v>3.442</v>
+        <v>3.829</v>
       </c>
       <c r="D62" t="n">
-        <v>3.442</v>
+        <v>3.829</v>
       </c>
       <c r="E62" t="n">
-        <v>3.442</v>
+        <v>3.829</v>
       </c>
       <c r="F62" t="n">
-        <v>170000</v>
+        <v>144.4444</v>
       </c>
       <c r="G62" t="n">
-        <v>1869024.349124894</v>
+        <v>4496389.933733333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.442</v>
+        <v>3.829</v>
       </c>
       <c r="C63" t="n">
-        <v>3.441</v>
+        <v>3.899</v>
       </c>
       <c r="D63" t="n">
-        <v>3.442</v>
+        <v>3.899</v>
       </c>
       <c r="E63" t="n">
-        <v>3.441</v>
+        <v>3.829</v>
       </c>
       <c r="F63" t="n">
-        <v>125138.967</v>
+        <v>2730</v>
       </c>
       <c r="G63" t="n">
-        <v>1743885.382124894</v>
+        <v>4499119.933733333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.44</v>
+        <v>3.84</v>
       </c>
       <c r="C64" t="n">
-        <v>3.44</v>
+        <v>3.94</v>
       </c>
       <c r="D64" t="n">
-        <v>3.44</v>
+        <v>3.94</v>
       </c>
       <c r="E64" t="n">
-        <v>3.44</v>
+        <v>3.84</v>
       </c>
       <c r="F64" t="n">
-        <v>841.8372000000001</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="n">
-        <v>1743043.544924894</v>
+        <v>4500119.933733333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.436</v>
+        <v>3.939</v>
       </c>
       <c r="C65" t="n">
-        <v>3.436</v>
+        <v>3.939</v>
       </c>
       <c r="D65" t="n">
-        <v>3.436</v>
+        <v>3.939</v>
       </c>
       <c r="E65" t="n">
-        <v>3.436</v>
+        <v>3.939</v>
       </c>
       <c r="F65" t="n">
-        <v>17055.2208</v>
+        <v>2558.3476</v>
       </c>
       <c r="G65" t="n">
-        <v>1725988.324124894</v>
+        <v>4497561.586133333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,28 +2742,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.411</v>
+        <v>3.933</v>
       </c>
       <c r="C66" t="n">
-        <v>3.411</v>
+        <v>3.864</v>
       </c>
       <c r="D66" t="n">
-        <v>3.411</v>
+        <v>3.933</v>
       </c>
       <c r="E66" t="n">
-        <v>3.411</v>
+        <v>3.864</v>
       </c>
       <c r="F66" t="n">
-        <v>23740.8125</v>
+        <v>1540</v>
       </c>
       <c r="G66" t="n">
-        <v>1702247.511624894</v>
+        <v>4496021.586133333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,28 +2778,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.381</v>
+        <v>3.858</v>
       </c>
       <c r="C67" t="n">
-        <v>3.311</v>
+        <v>3.845</v>
       </c>
       <c r="D67" t="n">
-        <v>3.381</v>
+        <v>3.858</v>
       </c>
       <c r="E67" t="n">
-        <v>3.311</v>
+        <v>3.845</v>
       </c>
       <c r="F67" t="n">
-        <v>74425.2608</v>
+        <v>144.4444</v>
       </c>
       <c r="G67" t="n">
-        <v>1627822.250824894</v>
+        <v>4495877.141733333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.302</v>
+        <v>3.845</v>
       </c>
       <c r="C68" t="n">
-        <v>3.302</v>
+        <v>3.845</v>
       </c>
       <c r="D68" t="n">
-        <v>3.302</v>
+        <v>3.845</v>
       </c>
       <c r="E68" t="n">
-        <v>3.302</v>
+        <v>3.845</v>
       </c>
       <c r="F68" t="n">
-        <v>1000</v>
+        <v>266.6666</v>
       </c>
       <c r="G68" t="n">
-        <v>1626822.250824894</v>
+        <v>4495877.141733333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.301</v>
+        <v>3.846</v>
       </c>
       <c r="C69" t="n">
-        <v>3.212</v>
+        <v>3.863</v>
       </c>
       <c r="D69" t="n">
-        <v>3.301</v>
+        <v>3.863</v>
       </c>
       <c r="E69" t="n">
-        <v>3.211</v>
+        <v>3.845</v>
       </c>
       <c r="F69" t="n">
-        <v>139442.7956</v>
+        <v>16530</v>
       </c>
       <c r="G69" t="n">
-        <v>1487379.455224894</v>
+        <v>4512407.141733333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.211</v>
+        <v>3.863</v>
       </c>
       <c r="C70" t="n">
-        <v>3.239</v>
+        <v>3.889</v>
       </c>
       <c r="D70" t="n">
-        <v>3.24</v>
+        <v>3.889</v>
       </c>
       <c r="E70" t="n">
-        <v>3.133</v>
+        <v>3.863</v>
       </c>
       <c r="F70" t="n">
-        <v>1185080.422</v>
+        <v>190</v>
       </c>
       <c r="G70" t="n">
-        <v>2672459.877224894</v>
+        <v>4512597.141733333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.174</v>
+        <v>3.888</v>
       </c>
       <c r="C71" t="n">
-        <v>3.174</v>
+        <v>3.889</v>
       </c>
       <c r="D71" t="n">
-        <v>3.174</v>
+        <v>3.889</v>
       </c>
       <c r="E71" t="n">
-        <v>3.174</v>
+        <v>3.887</v>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="G71" t="n">
-        <v>2672159.877224894</v>
+        <v>4512597.141733333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.257</v>
+        <v>3.888</v>
       </c>
       <c r="C72" t="n">
-        <v>3.257</v>
+        <v>3.97</v>
       </c>
       <c r="D72" t="n">
-        <v>3.257</v>
+        <v>3.97</v>
       </c>
       <c r="E72" t="n">
-        <v>3.257</v>
+        <v>3.888</v>
       </c>
       <c r="F72" t="n">
-        <v>5769.3299</v>
+        <v>17760</v>
       </c>
       <c r="G72" t="n">
-        <v>2677929.207124894</v>
+        <v>4530357.141733333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,35 +2994,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.435</v>
+        <v>3.958</v>
       </c>
       <c r="C73" t="n">
-        <v>3.435</v>
+        <v>3.968</v>
       </c>
       <c r="D73" t="n">
-        <v>3.435</v>
+        <v>3.968</v>
       </c>
       <c r="E73" t="n">
-        <v>3.435</v>
+        <v>3.958</v>
       </c>
       <c r="F73" t="n">
-        <v>160</v>
+        <v>270.4</v>
       </c>
       <c r="G73" t="n">
-        <v>2678089.207124894</v>
+        <v>4530086.741733332</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.257</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3.257</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
@@ -3034,38 +3030,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.39</v>
+        <v>3.958</v>
       </c>
       <c r="C74" t="n">
-        <v>3.436</v>
+        <v>3.958</v>
       </c>
       <c r="D74" t="n">
-        <v>3.436</v>
+        <v>3.958</v>
       </c>
       <c r="E74" t="n">
-        <v>3.39</v>
+        <v>3.958</v>
       </c>
       <c r="F74" t="n">
-        <v>606531.4295</v>
+        <v>9.6</v>
       </c>
       <c r="G74" t="n">
-        <v>3284620.636624894</v>
+        <v>4530077.141733333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>3.257</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3076,38 +3066,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.688</v>
+        <v>3.952</v>
       </c>
       <c r="C75" t="n">
-        <v>3.688</v>
+        <v>3.943</v>
       </c>
       <c r="D75" t="n">
-        <v>3.688</v>
+        <v>3.952</v>
       </c>
       <c r="E75" t="n">
-        <v>3.688</v>
+        <v>3.943</v>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="G75" t="n">
-        <v>3284820.636624894</v>
+        <v>4529797.141733333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>3.257</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3118,28 +3102,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.321</v>
+        <v>3.928</v>
       </c>
       <c r="C76" t="n">
-        <v>3.321</v>
+        <v>3.883</v>
       </c>
       <c r="D76" t="n">
-        <v>3.321</v>
+        <v>3.928</v>
       </c>
       <c r="E76" t="n">
-        <v>3.321</v>
+        <v>3.883</v>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="G76" t="n">
-        <v>3284620.636624894</v>
+        <v>4528817.141733333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3154,28 +3138,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.488</v>
+        <v>3.874</v>
       </c>
       <c r="C77" t="n">
-        <v>3.588</v>
+        <v>3.958</v>
       </c>
       <c r="D77" t="n">
-        <v>3.588</v>
+        <v>3.958</v>
       </c>
       <c r="E77" t="n">
-        <v>3.488</v>
+        <v>3.873</v>
       </c>
       <c r="F77" t="n">
-        <v>20400</v>
+        <v>2930</v>
       </c>
       <c r="G77" t="n">
-        <v>3305020.636624894</v>
+        <v>4531747.141733333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3190,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.588</v>
+        <v>3.873</v>
       </c>
       <c r="C78" t="n">
-        <v>3.675</v>
+        <v>3.873</v>
       </c>
       <c r="D78" t="n">
-        <v>3.678</v>
+        <v>3.873</v>
       </c>
       <c r="E78" t="n">
-        <v>3.588</v>
+        <v>3.873</v>
       </c>
       <c r="F78" t="n">
-        <v>31420.0001</v>
+        <v>3.4945</v>
       </c>
       <c r="G78" t="n">
-        <v>3336440.636724894</v>
+        <v>4531743.647233333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3226,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.675</v>
+        <v>3.867</v>
       </c>
       <c r="C79" t="n">
-        <v>3.677</v>
+        <v>3.848</v>
       </c>
       <c r="D79" t="n">
-        <v>3.677</v>
+        <v>3.867</v>
       </c>
       <c r="E79" t="n">
-        <v>3.342</v>
+        <v>3.848</v>
       </c>
       <c r="F79" t="n">
-        <v>840.0001</v>
+        <v>840</v>
       </c>
       <c r="G79" t="n">
-        <v>3337280.636824894</v>
+        <v>4530903.647233333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3262,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.599</v>
+        <v>3.847</v>
       </c>
       <c r="C80" t="n">
-        <v>3.672</v>
+        <v>3.827</v>
       </c>
       <c r="D80" t="n">
-        <v>3.672</v>
+        <v>3.847</v>
       </c>
       <c r="E80" t="n">
-        <v>3.599</v>
+        <v>3.827</v>
       </c>
       <c r="F80" t="n">
-        <v>150</v>
+        <v>735.5556</v>
       </c>
       <c r="G80" t="n">
-        <v>3337130.636824894</v>
+        <v>4530168.091633333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3298,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.599</v>
+        <v>3.826</v>
       </c>
       <c r="C81" t="n">
-        <v>3.688</v>
+        <v>3.823</v>
       </c>
       <c r="D81" t="n">
-        <v>3.688</v>
+        <v>3.826</v>
       </c>
       <c r="E81" t="n">
-        <v>3.599</v>
+        <v>3.823</v>
       </c>
       <c r="F81" t="n">
-        <v>31000</v>
+        <v>455.5556</v>
       </c>
       <c r="G81" t="n">
-        <v>3368130.636824894</v>
+        <v>4529712.536033333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3334,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.621</v>
+        <v>3.823</v>
       </c>
       <c r="C82" t="n">
-        <v>3.688</v>
+        <v>3.823</v>
       </c>
       <c r="D82" t="n">
-        <v>3.688</v>
+        <v>3.823</v>
       </c>
       <c r="E82" t="n">
-        <v>3.599</v>
+        <v>3.823</v>
       </c>
       <c r="F82" t="n">
-        <v>2700</v>
+        <v>144.4444</v>
       </c>
       <c r="G82" t="n">
-        <v>3368130.636824894</v>
+        <v>4529712.536033333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3370,28 +3354,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.688</v>
+        <v>3.823</v>
       </c>
       <c r="C83" t="n">
-        <v>3.688</v>
+        <v>3.823</v>
       </c>
       <c r="D83" t="n">
-        <v>3.688</v>
+        <v>3.823</v>
       </c>
       <c r="E83" t="n">
-        <v>3.688</v>
+        <v>3.823</v>
       </c>
       <c r="F83" t="n">
-        <v>150</v>
+        <v>26540.6631</v>
       </c>
       <c r="G83" t="n">
-        <v>3368130.636824894</v>
+        <v>4529712.536033333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3406,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.687</v>
+        <v>3.823</v>
       </c>
       <c r="C84" t="n">
-        <v>3.764</v>
+        <v>3.823</v>
       </c>
       <c r="D84" t="n">
-        <v>3.764</v>
+        <v>3.823</v>
       </c>
       <c r="E84" t="n">
-        <v>3.687</v>
+        <v>3.823</v>
       </c>
       <c r="F84" t="n">
-        <v>40211.8967</v>
+        <v>3314.8925</v>
       </c>
       <c r="G84" t="n">
-        <v>3408342.533524894</v>
+        <v>4529712.536033333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3442,28 +3426,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.764</v>
+        <v>3.83</v>
       </c>
       <c r="C85" t="n">
-        <v>3.784</v>
+        <v>3.83</v>
       </c>
       <c r="D85" t="n">
-        <v>3.784</v>
+        <v>3.83</v>
       </c>
       <c r="E85" t="n">
-        <v>3.764</v>
+        <v>3.83</v>
       </c>
       <c r="F85" t="n">
-        <v>110986.7011</v>
+        <v>144.4444</v>
       </c>
       <c r="G85" t="n">
-        <v>3519329.234624894</v>
+        <v>4529856.980433334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3478,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.705</v>
+        <v>3.836</v>
       </c>
       <c r="C86" t="n">
-        <v>3.705</v>
+        <v>3.959</v>
       </c>
       <c r="D86" t="n">
-        <v>3.705</v>
+        <v>3.959</v>
       </c>
       <c r="E86" t="n">
-        <v>3.705</v>
+        <v>3.836</v>
       </c>
       <c r="F86" t="n">
-        <v>150</v>
+        <v>32750</v>
       </c>
       <c r="G86" t="n">
-        <v>3519179.234624894</v>
+        <v>4562606.980433334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3514,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.699</v>
+        <v>3.83</v>
       </c>
       <c r="C87" t="n">
-        <v>3.77</v>
+        <v>3.959</v>
       </c>
       <c r="D87" t="n">
-        <v>3.77</v>
+        <v>3.959</v>
       </c>
       <c r="E87" t="n">
-        <v>3.692</v>
+        <v>3.824</v>
       </c>
       <c r="F87" t="n">
-        <v>600</v>
+        <v>16470</v>
       </c>
       <c r="G87" t="n">
-        <v>3519779.234624894</v>
+        <v>4562606.980433334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3550,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.722</v>
+        <v>3.831</v>
       </c>
       <c r="C88" t="n">
-        <v>3.76</v>
+        <v>3.959</v>
       </c>
       <c r="D88" t="n">
-        <v>3.76</v>
+        <v>3.959</v>
       </c>
       <c r="E88" t="n">
-        <v>3.695</v>
+        <v>3.831</v>
       </c>
       <c r="F88" t="n">
-        <v>104835.4604</v>
+        <v>15880</v>
       </c>
       <c r="G88" t="n">
-        <v>3414943.774224894</v>
+        <v>4562606.980433334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3586,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.718</v>
+        <v>3.848</v>
       </c>
       <c r="C89" t="n">
-        <v>3.76</v>
+        <v>3.899</v>
       </c>
       <c r="D89" t="n">
-        <v>3.76</v>
+        <v>3.899</v>
       </c>
       <c r="E89" t="n">
-        <v>3.713</v>
+        <v>3.848</v>
       </c>
       <c r="F89" t="n">
-        <v>750</v>
+        <v>12140</v>
       </c>
       <c r="G89" t="n">
-        <v>3414943.774224894</v>
+        <v>4550466.980433334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3622,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.759</v>
+        <v>3.865</v>
       </c>
       <c r="C90" t="n">
-        <v>3.755</v>
+        <v>3.865</v>
       </c>
       <c r="D90" t="n">
-        <v>3.76</v>
+        <v>3.865</v>
       </c>
       <c r="E90" t="n">
-        <v>3.755</v>
+        <v>3.865</v>
       </c>
       <c r="F90" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="G90" t="n">
-        <v>3414043.774224894</v>
+        <v>4550326.980433334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3658,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.737</v>
+        <v>3.86</v>
       </c>
       <c r="C91" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="D91" t="n">
-        <v>3.737</v>
+        <v>3.94</v>
       </c>
       <c r="E91" t="n">
-        <v>3.71</v>
+        <v>3.86</v>
       </c>
       <c r="F91" t="n">
-        <v>58520.3834</v>
+        <v>280</v>
       </c>
       <c r="G91" t="n">
-        <v>3355523.390824893</v>
+        <v>4550606.980433334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3694,28 +3678,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.709</v>
+        <v>3.854</v>
       </c>
       <c r="C92" t="n">
-        <v>3.69</v>
+        <v>3.93</v>
       </c>
       <c r="D92" t="n">
-        <v>3.709</v>
+        <v>3.93</v>
       </c>
       <c r="E92" t="n">
-        <v>3.69</v>
+        <v>3.854</v>
       </c>
       <c r="F92" t="n">
-        <v>33421.6081</v>
+        <v>10180</v>
       </c>
       <c r="G92" t="n">
-        <v>3322101.782724894</v>
+        <v>4540426.980433334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3730,28 +3714,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.699</v>
+        <v>3.869</v>
       </c>
       <c r="C93" t="n">
-        <v>3.699</v>
+        <v>3.869</v>
       </c>
       <c r="D93" t="n">
-        <v>3.699</v>
+        <v>3.869</v>
       </c>
       <c r="E93" t="n">
-        <v>3.699</v>
+        <v>3.869</v>
       </c>
       <c r="F93" t="n">
-        <v>49762.0533</v>
+        <v>140</v>
       </c>
       <c r="G93" t="n">
-        <v>3371863.836024893</v>
+        <v>4540286.980433334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3766,28 +3750,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.697</v>
+        <v>3.86</v>
       </c>
       <c r="C94" t="n">
-        <v>3.697</v>
+        <v>3.87</v>
       </c>
       <c r="D94" t="n">
-        <v>3.697</v>
+        <v>3.87</v>
       </c>
       <c r="E94" t="n">
-        <v>3.697</v>
+        <v>3.86</v>
       </c>
       <c r="F94" t="n">
-        <v>150</v>
+        <v>12070.675</v>
       </c>
       <c r="G94" t="n">
-        <v>3371713.836024893</v>
+        <v>4552357.655433333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3802,28 +3786,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.698</v>
+        <v>3.868</v>
       </c>
       <c r="C95" t="n">
-        <v>3.685</v>
+        <v>3.865</v>
       </c>
       <c r="D95" t="n">
-        <v>3.698</v>
+        <v>3.868</v>
       </c>
       <c r="E95" t="n">
-        <v>3.685</v>
+        <v>3.865</v>
       </c>
       <c r="F95" t="n">
-        <v>4150</v>
+        <v>280</v>
       </c>
       <c r="G95" t="n">
-        <v>3367563.836024893</v>
+        <v>4552077.655433333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3838,28 +3822,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.685</v>
+        <v>3.859</v>
       </c>
       <c r="C96" t="n">
-        <v>3.698</v>
+        <v>3.93</v>
       </c>
       <c r="D96" t="n">
-        <v>3.698</v>
+        <v>3.93</v>
       </c>
       <c r="E96" t="n">
-        <v>3.671</v>
+        <v>3.854</v>
       </c>
       <c r="F96" t="n">
-        <v>2150</v>
+        <v>11340</v>
       </c>
       <c r="G96" t="n">
-        <v>3369713.836024893</v>
+        <v>4563417.655433333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3874,28 +3858,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.672</v>
+        <v>3.879</v>
       </c>
       <c r="C97" t="n">
-        <v>3.605</v>
+        <v>3.871</v>
       </c>
       <c r="D97" t="n">
-        <v>3.672</v>
+        <v>3.879</v>
       </c>
       <c r="E97" t="n">
-        <v>3.605</v>
+        <v>3.871</v>
       </c>
       <c r="F97" t="n">
-        <v>4396.597</v>
+        <v>11597.8022</v>
       </c>
       <c r="G97" t="n">
-        <v>3365317.239024893</v>
+        <v>4551819.853233334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3910,28 +3894,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.605</v>
+        <v>3.865</v>
       </c>
       <c r="C98" t="n">
-        <v>3.697</v>
+        <v>3.865</v>
       </c>
       <c r="D98" t="n">
-        <v>3.697</v>
+        <v>3.93</v>
       </c>
       <c r="E98" t="n">
-        <v>3.605</v>
+        <v>3.859</v>
       </c>
       <c r="F98" t="n">
-        <v>610</v>
+        <v>16264.4444</v>
       </c>
       <c r="G98" t="n">
-        <v>3365927.239024893</v>
+        <v>4535555.408833333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3946,28 +3930,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.588</v>
+        <v>3.865</v>
       </c>
       <c r="C99" t="n">
-        <v>3.417</v>
+        <v>3.865</v>
       </c>
       <c r="D99" t="n">
-        <v>3.588</v>
+        <v>3.865</v>
       </c>
       <c r="E99" t="n">
-        <v>3.417</v>
+        <v>3.865</v>
       </c>
       <c r="F99" t="n">
-        <v>2000</v>
+        <v>135.5556</v>
       </c>
       <c r="G99" t="n">
-        <v>3363927.239024893</v>
+        <v>4535555.408833333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3982,28 +3966,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.689</v>
+        <v>3.861</v>
       </c>
       <c r="C100" t="n">
-        <v>3.689</v>
+        <v>3.861</v>
       </c>
       <c r="D100" t="n">
-        <v>3.689</v>
+        <v>3.861</v>
       </c>
       <c r="E100" t="n">
-        <v>3.41</v>
+        <v>3.861</v>
       </c>
       <c r="F100" t="n">
-        <v>65089.7211</v>
+        <v>7182.9696</v>
       </c>
       <c r="G100" t="n">
-        <v>3429016.960124894</v>
+        <v>4528372.439233333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4018,28 +4002,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.408</v>
+        <v>3.863</v>
       </c>
       <c r="C101" t="n">
-        <v>3.689</v>
+        <v>3.93</v>
       </c>
       <c r="D101" t="n">
-        <v>3.689</v>
+        <v>3.93</v>
       </c>
       <c r="E101" t="n">
-        <v>3.215</v>
+        <v>3.863</v>
       </c>
       <c r="F101" t="n">
-        <v>30458.9723</v>
+        <v>19740</v>
       </c>
       <c r="G101" t="n">
-        <v>3429016.960124894</v>
+        <v>4548112.439233333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4054,28 +4038,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.233</v>
+        <v>3.887</v>
       </c>
       <c r="C102" t="n">
-        <v>3.233</v>
+        <v>3.883</v>
       </c>
       <c r="D102" t="n">
-        <v>3.233</v>
+        <v>3.887</v>
       </c>
       <c r="E102" t="n">
-        <v>3.233</v>
+        <v>3.883</v>
       </c>
       <c r="F102" t="n">
-        <v>155</v>
+        <v>12000</v>
       </c>
       <c r="G102" t="n">
-        <v>3428861.960124894</v>
+        <v>4536112.439233333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4090,28 +4074,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.586</v>
+        <v>3.93</v>
       </c>
       <c r="C103" t="n">
-        <v>3.588</v>
+        <v>3.93</v>
       </c>
       <c r="D103" t="n">
-        <v>3.588</v>
+        <v>3.93</v>
       </c>
       <c r="E103" t="n">
-        <v>3.586</v>
+        <v>3.93</v>
       </c>
       <c r="F103" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G103" t="n">
-        <v>3429021.960124894</v>
+        <v>4536252.439233333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4126,28 +4110,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.587</v>
+        <v>3.895</v>
       </c>
       <c r="C104" t="n">
-        <v>3.587</v>
+        <v>3.93</v>
       </c>
       <c r="D104" t="n">
-        <v>3.587</v>
+        <v>3.93</v>
       </c>
       <c r="E104" t="n">
-        <v>3.587</v>
+        <v>3.888</v>
       </c>
       <c r="F104" t="n">
-        <v>150</v>
+        <v>308.8943</v>
       </c>
       <c r="G104" t="n">
-        <v>3428871.960124894</v>
+        <v>4536252.439233333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4162,28 +4146,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.587</v>
+        <v>3.924</v>
       </c>
       <c r="C105" t="n">
-        <v>3.588</v>
+        <v>3.924</v>
       </c>
       <c r="D105" t="n">
-        <v>3.588</v>
+        <v>3.924</v>
       </c>
       <c r="E105" t="n">
-        <v>3.587</v>
+        <v>3.924</v>
       </c>
       <c r="F105" t="n">
-        <v>10659.9625</v>
+        <v>140</v>
       </c>
       <c r="G105" t="n">
-        <v>3439531.922624893</v>
+        <v>4536112.439233333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4198,28 +4182,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.587</v>
+        <v>3.921</v>
       </c>
       <c r="C106" t="n">
-        <v>3.587</v>
+        <v>3.902</v>
       </c>
       <c r="D106" t="n">
-        <v>3.587</v>
+        <v>3.921</v>
       </c>
       <c r="E106" t="n">
-        <v>3.587</v>
+        <v>3.902</v>
       </c>
       <c r="F106" t="n">
-        <v>20002.1329</v>
+        <v>700</v>
       </c>
       <c r="G106" t="n">
-        <v>3419529.789724893</v>
+        <v>4535412.439233333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4234,28 +4218,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.587</v>
+        <v>3.893</v>
       </c>
       <c r="C107" t="n">
-        <v>3.587</v>
+        <v>3.9</v>
       </c>
       <c r="D107" t="n">
-        <v>3.587</v>
+        <v>3.9</v>
       </c>
       <c r="E107" t="n">
-        <v>3.587</v>
+        <v>3.883</v>
       </c>
       <c r="F107" t="n">
-        <v>36671.4938</v>
+        <v>1130</v>
       </c>
       <c r="G107" t="n">
-        <v>3419529.789724893</v>
+        <v>4534282.439233333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4270,28 +4254,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.587</v>
+        <v>3.883</v>
       </c>
       <c r="C108" t="n">
-        <v>3.588</v>
+        <v>3.883</v>
       </c>
       <c r="D108" t="n">
-        <v>3.588</v>
+        <v>3.883</v>
       </c>
       <c r="E108" t="n">
-        <v>3.587</v>
+        <v>3.883</v>
       </c>
       <c r="F108" t="n">
-        <v>73289.7855</v>
+        <v>136.2761</v>
       </c>
       <c r="G108" t="n">
-        <v>3492819.575224893</v>
+        <v>4534146.163133333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4306,28 +4290,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.647</v>
+        <v>3.88</v>
       </c>
       <c r="C109" t="n">
-        <v>3.647</v>
+        <v>3.765</v>
       </c>
       <c r="D109" t="n">
-        <v>3.647</v>
+        <v>3.88</v>
       </c>
       <c r="E109" t="n">
-        <v>3.647</v>
+        <v>3.765</v>
       </c>
       <c r="F109" t="n">
-        <v>150</v>
+        <v>378610.6241</v>
       </c>
       <c r="G109" t="n">
-        <v>3492969.575224893</v>
+        <v>4155535.539033332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4342,28 +4326,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.647</v>
+        <v>3.89</v>
       </c>
       <c r="C110" t="n">
-        <v>3.76</v>
+        <v>3.89</v>
       </c>
       <c r="D110" t="n">
-        <v>3.76</v>
+        <v>3.89</v>
       </c>
       <c r="E110" t="n">
-        <v>3.647</v>
+        <v>3.89</v>
       </c>
       <c r="F110" t="n">
-        <v>218991.7124</v>
+        <v>140</v>
       </c>
       <c r="G110" t="n">
-        <v>3711961.287624893</v>
+        <v>4155675.539033332</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4378,28 +4362,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.755</v>
+        <v>3.73</v>
       </c>
       <c r="C111" t="n">
-        <v>3.755</v>
+        <v>3.671</v>
       </c>
       <c r="D111" t="n">
-        <v>3.755</v>
+        <v>3.73</v>
       </c>
       <c r="E111" t="n">
-        <v>3.755</v>
+        <v>3.671</v>
       </c>
       <c r="F111" t="n">
-        <v>150</v>
+        <v>669144.639</v>
       </c>
       <c r="G111" t="n">
-        <v>3711811.287624893</v>
+        <v>3486530.900033332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4414,28 +4398,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.747</v>
+        <v>3.65</v>
       </c>
       <c r="C112" t="n">
-        <v>3.74</v>
+        <v>3</v>
       </c>
       <c r="D112" t="n">
-        <v>3.747</v>
+        <v>3.65</v>
       </c>
       <c r="E112" t="n">
-        <v>3.74</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
-        <v>300</v>
+        <v>1309464.6639</v>
       </c>
       <c r="G112" t="n">
-        <v>3711511.287624893</v>
+        <v>2177066.236133332</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4450,31 +4434,35 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.76</v>
+        <v>3.56</v>
       </c>
       <c r="C113" t="n">
-        <v>3.76</v>
+        <v>3.579</v>
       </c>
       <c r="D113" t="n">
-        <v>3.76</v>
+        <v>3.579</v>
       </c>
       <c r="E113" t="n">
-        <v>3.76</v>
+        <v>3.56</v>
       </c>
       <c r="F113" t="n">
-        <v>150</v>
+        <v>37986.56479156189</v>
       </c>
       <c r="G113" t="n">
-        <v>3711661.287624893</v>
+        <v>2215052.800924894</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3</v>
+      </c>
+      <c r="K113" t="n">
+        <v>3</v>
+      </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
@@ -4486,22 +4474,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.759</v>
+        <v>3.56</v>
       </c>
       <c r="C114" t="n">
-        <v>3.759</v>
+        <v>3.56</v>
       </c>
       <c r="D114" t="n">
-        <v>3.759</v>
+        <v>3.56</v>
       </c>
       <c r="E114" t="n">
-        <v>3.759</v>
+        <v>3.301</v>
       </c>
       <c r="F114" t="n">
-        <v>150</v>
+        <v>35444.5874</v>
       </c>
       <c r="G114" t="n">
-        <v>3711511.287624893</v>
+        <v>2179608.213524894</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4510,8 +4498,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>3</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4522,22 +4516,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.758</v>
+        <v>3.579</v>
       </c>
       <c r="C115" t="n">
-        <v>3.757</v>
+        <v>3.412</v>
       </c>
       <c r="D115" t="n">
-        <v>3.758</v>
+        <v>3.579</v>
       </c>
       <c r="E115" t="n">
-        <v>3.757</v>
+        <v>3.4</v>
       </c>
       <c r="F115" t="n">
-        <v>540982.0829</v>
+        <v>105156.7884</v>
       </c>
       <c r="G115" t="n">
-        <v>3170529.204724893</v>
+        <v>2074451.425124894</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4546,8 +4540,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>3</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4558,31 +4558,35 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.756</v>
+        <v>3.54</v>
       </c>
       <c r="C116" t="n">
-        <v>3.756</v>
+        <v>3.456</v>
       </c>
       <c r="D116" t="n">
-        <v>3.756</v>
+        <v>3.57</v>
       </c>
       <c r="E116" t="n">
-        <v>3.756</v>
+        <v>3.456</v>
       </c>
       <c r="F116" t="n">
-        <v>870</v>
+        <v>19932.997</v>
       </c>
       <c r="G116" t="n">
-        <v>3169659.204724893</v>
+        <v>2094384.422124894</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3.412</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3.412</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
@@ -4594,32 +4598,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.757</v>
+        <v>3.55</v>
       </c>
       <c r="C117" t="n">
-        <v>3.757</v>
+        <v>3.699</v>
       </c>
       <c r="D117" t="n">
-        <v>3.757</v>
+        <v>3.836</v>
       </c>
       <c r="E117" t="n">
-        <v>3.757</v>
+        <v>3.55</v>
       </c>
       <c r="F117" t="n">
-        <v>150</v>
+        <v>790133.6878</v>
       </c>
       <c r="G117" t="n">
-        <v>3169809.204724893</v>
+        <v>2884518.109924894</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="K117" t="n">
+        <v>3.412</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4630,22 +4642,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.756</v>
+        <v>3.7</v>
       </c>
       <c r="C118" t="n">
-        <v>3.746</v>
+        <v>3.699</v>
       </c>
       <c r="D118" t="n">
-        <v>3.757</v>
+        <v>3.71</v>
       </c>
       <c r="E118" t="n">
-        <v>3.746</v>
+        <v>3.699</v>
       </c>
       <c r="F118" t="n">
-        <v>21650</v>
+        <v>431459.7042</v>
       </c>
       <c r="G118" t="n">
-        <v>3148159.204724893</v>
+        <v>2884518.109924894</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4654,8 +4666,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>3.412</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4666,22 +4684,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.745</v>
+        <v>3.45</v>
       </c>
       <c r="C119" t="n">
-        <v>3.731</v>
+        <v>3.432</v>
       </c>
       <c r="D119" t="n">
-        <v>3.745</v>
+        <v>3.45</v>
       </c>
       <c r="E119" t="n">
-        <v>3.731</v>
+        <v>3.432</v>
       </c>
       <c r="F119" t="n">
-        <v>1750</v>
+        <v>321033.4871</v>
       </c>
       <c r="G119" t="n">
-        <v>3146409.204724893</v>
+        <v>2563484.622824894</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4702,31 +4720,35 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.731</v>
+        <v>3.59</v>
       </c>
       <c r="C120" t="n">
-        <v>3.72</v>
+        <v>3.59</v>
       </c>
       <c r="D120" t="n">
-        <v>3.755</v>
+        <v>3.59</v>
       </c>
       <c r="E120" t="n">
-        <v>3.72</v>
+        <v>3.59</v>
       </c>
       <c r="F120" t="n">
-        <v>6387.2455</v>
+        <v>2450</v>
       </c>
       <c r="G120" t="n">
-        <v>3140021.959224893</v>
+        <v>2565934.622824894</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>3.432</v>
+      </c>
+      <c r="K120" t="n">
+        <v>3.432</v>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
@@ -4738,22 +4760,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.71</v>
+        <v>3.59</v>
       </c>
       <c r="C121" t="n">
-        <v>3.696</v>
+        <v>3.59</v>
       </c>
       <c r="D121" t="n">
-        <v>3.71</v>
+        <v>3.59</v>
       </c>
       <c r="E121" t="n">
-        <v>3.696</v>
+        <v>3.59</v>
       </c>
       <c r="F121" t="n">
-        <v>1650</v>
+        <v>10816.0493</v>
       </c>
       <c r="G121" t="n">
-        <v>3138371.959224893</v>
+        <v>2565934.622824894</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4762,8 +4784,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>3.432</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4774,22 +4802,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.689</v>
+        <v>3.444</v>
       </c>
       <c r="C122" t="n">
-        <v>3.683</v>
+        <v>3.439</v>
       </c>
       <c r="D122" t="n">
-        <v>3.689</v>
+        <v>3.444</v>
       </c>
       <c r="E122" t="n">
-        <v>3.683</v>
+        <v>3.439</v>
       </c>
       <c r="F122" t="n">
-        <v>300</v>
+        <v>33201.7415</v>
       </c>
       <c r="G122" t="n">
-        <v>3138071.959224893</v>
+        <v>2532732.881324894</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4798,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>3.432</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4810,22 +4844,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.68</v>
+        <v>3.599</v>
       </c>
       <c r="C123" t="n">
-        <v>3.688</v>
+        <v>3.599</v>
       </c>
       <c r="D123" t="n">
-        <v>3.688</v>
+        <v>3.599</v>
       </c>
       <c r="E123" t="n">
-        <v>3.68</v>
+        <v>3.599</v>
       </c>
       <c r="F123" t="n">
-        <v>616.4184</v>
+        <v>9022.155000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>3138688.377624893</v>
+        <v>2541755.036324894</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4846,22 +4880,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.687</v>
+        <v>3.599</v>
       </c>
       <c r="C124" t="n">
-        <v>3.684</v>
+        <v>3.599</v>
       </c>
       <c r="D124" t="n">
-        <v>3.687</v>
+        <v>3.599</v>
       </c>
       <c r="E124" t="n">
-        <v>3.684</v>
+        <v>3.599</v>
       </c>
       <c r="F124" t="n">
-        <v>600</v>
+        <v>0.1101</v>
       </c>
       <c r="G124" t="n">
-        <v>3138088.377624893</v>
+        <v>2541755.036324894</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4882,22 +4916,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.681</v>
+        <v>3.562</v>
       </c>
       <c r="C125" t="n">
-        <v>3.68</v>
+        <v>3.562</v>
       </c>
       <c r="D125" t="n">
-        <v>3.681</v>
+        <v>3.562</v>
       </c>
       <c r="E125" t="n">
-        <v>3.68</v>
+        <v>3.562</v>
       </c>
       <c r="F125" t="n">
-        <v>183.5816</v>
+        <v>1824.5115</v>
       </c>
       <c r="G125" t="n">
-        <v>3137904.796024892</v>
+        <v>2539930.524824894</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4918,22 +4952,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.677</v>
+        <v>3.589</v>
       </c>
       <c r="C126" t="n">
-        <v>3.669</v>
+        <v>3.589</v>
       </c>
       <c r="D126" t="n">
-        <v>3.677</v>
+        <v>3.589</v>
       </c>
       <c r="E126" t="n">
-        <v>3.669</v>
+        <v>3.589</v>
       </c>
       <c r="F126" t="n">
-        <v>3869.6075</v>
+        <v>30000</v>
       </c>
       <c r="G126" t="n">
-        <v>3134035.188524893</v>
+        <v>2569930.524824894</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4954,22 +4988,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.666</v>
+        <v>3.55</v>
       </c>
       <c r="C127" t="n">
-        <v>3.377</v>
+        <v>3.55</v>
       </c>
       <c r="D127" t="n">
-        <v>3.666</v>
+        <v>3.55</v>
       </c>
       <c r="E127" t="n">
-        <v>3.377</v>
+        <v>3.55</v>
       </c>
       <c r="F127" t="n">
-        <v>2250</v>
+        <v>287.7903</v>
       </c>
       <c r="G127" t="n">
-        <v>3131785.188524893</v>
+        <v>2569642.734524894</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4990,22 +5024,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.371</v>
+        <v>3.484</v>
       </c>
       <c r="C128" t="n">
-        <v>3.314</v>
+        <v>3.445</v>
       </c>
       <c r="D128" t="n">
-        <v>3.371</v>
+        <v>3.484</v>
       </c>
       <c r="E128" t="n">
-        <v>3.314</v>
+        <v>3.445</v>
       </c>
       <c r="F128" t="n">
-        <v>30600</v>
+        <v>18303.4986</v>
       </c>
       <c r="G128" t="n">
-        <v>3101185.188524893</v>
+        <v>2551339.235924894</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5026,22 +5060,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.376</v>
+        <v>3.443</v>
       </c>
       <c r="C129" t="n">
-        <v>3.759</v>
+        <v>3.443</v>
       </c>
       <c r="D129" t="n">
-        <v>3.759</v>
+        <v>3.443</v>
       </c>
       <c r="E129" t="n">
-        <v>3.376</v>
+        <v>3.443</v>
       </c>
       <c r="F129" t="n">
-        <v>4170</v>
+        <v>54910.4959</v>
       </c>
       <c r="G129" t="n">
-        <v>3105355.188524893</v>
+        <v>2496428.740024894</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5062,22 +5096,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.758</v>
+        <v>3.529</v>
       </c>
       <c r="C130" t="n">
-        <v>3.739</v>
+        <v>3.53</v>
       </c>
       <c r="D130" t="n">
-        <v>3.758</v>
+        <v>3.53</v>
       </c>
       <c r="E130" t="n">
-        <v>3.739</v>
+        <v>3.529</v>
       </c>
       <c r="F130" t="n">
-        <v>3000</v>
+        <v>6647.8308</v>
       </c>
       <c r="G130" t="n">
-        <v>3102355.188524893</v>
+        <v>2503076.570824894</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5098,22 +5132,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.759</v>
+        <v>3.45</v>
       </c>
       <c r="C131" t="n">
-        <v>3.734</v>
+        <v>3.464</v>
       </c>
       <c r="D131" t="n">
-        <v>3.759</v>
+        <v>3.464</v>
       </c>
       <c r="E131" t="n">
-        <v>3.734</v>
+        <v>3.45</v>
       </c>
       <c r="F131" t="n">
-        <v>1050</v>
+        <v>570021.6486</v>
       </c>
       <c r="G131" t="n">
-        <v>3101305.188524893</v>
+        <v>1933054.922224894</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5134,22 +5168,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.677</v>
+        <v>3.443</v>
       </c>
       <c r="C132" t="n">
-        <v>3.759</v>
+        <v>3.442</v>
       </c>
       <c r="D132" t="n">
-        <v>3.759</v>
+        <v>3.443</v>
       </c>
       <c r="E132" t="n">
-        <v>3.677</v>
+        <v>3.442</v>
       </c>
       <c r="F132" t="n">
-        <v>4250</v>
+        <v>64030.5731</v>
       </c>
       <c r="G132" t="n">
-        <v>3105555.188524893</v>
+        <v>1869024.349124894</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5170,31 +5204,35 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.703</v>
+        <v>3.442</v>
       </c>
       <c r="C133" t="n">
-        <v>3.68</v>
+        <v>3.442</v>
       </c>
       <c r="D133" t="n">
-        <v>3.703</v>
+        <v>3.442</v>
       </c>
       <c r="E133" t="n">
-        <v>3.68</v>
+        <v>3.442</v>
       </c>
       <c r="F133" t="n">
-        <v>31846.5395</v>
+        <v>170000</v>
       </c>
       <c r="G133" t="n">
-        <v>3073708.649024893</v>
+        <v>1869024.349124894</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="K133" t="n">
+        <v>3.442</v>
+      </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
@@ -5206,22 +5244,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.679</v>
+        <v>3.442</v>
       </c>
       <c r="C134" t="n">
-        <v>3.66</v>
+        <v>3.441</v>
       </c>
       <c r="D134" t="n">
-        <v>3.679</v>
+        <v>3.442</v>
       </c>
       <c r="E134" t="n">
-        <v>3.66</v>
+        <v>3.441</v>
       </c>
       <c r="F134" t="n">
-        <v>37990.4487</v>
+        <v>125138.967</v>
       </c>
       <c r="G134" t="n">
-        <v>3035718.200324893</v>
+        <v>1743885.382124894</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5230,8 +5268,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5242,22 +5286,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.659</v>
+        <v>3.44</v>
       </c>
       <c r="C135" t="n">
-        <v>3.7</v>
+        <v>3.44</v>
       </c>
       <c r="D135" t="n">
-        <v>3.7</v>
+        <v>3.44</v>
       </c>
       <c r="E135" t="n">
-        <v>3.638</v>
+        <v>3.44</v>
       </c>
       <c r="F135" t="n">
-        <v>5200</v>
+        <v>841.8372000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>3040918.200324893</v>
+        <v>1743043.544924894</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5266,8 +5310,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5278,32 +5328,40 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.368</v>
+        <v>3.436</v>
       </c>
       <c r="C136" t="n">
-        <v>3.368</v>
+        <v>3.436</v>
       </c>
       <c r="D136" t="n">
-        <v>3.368</v>
+        <v>3.436</v>
       </c>
       <c r="E136" t="n">
-        <v>3.368</v>
+        <v>3.436</v>
       </c>
       <c r="F136" t="n">
-        <v>112272.4735</v>
+        <v>17055.2208</v>
       </c>
       <c r="G136" t="n">
-        <v>2928645.726824893</v>
+        <v>1725988.324124894</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="K136" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5314,22 +5372,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.689</v>
+        <v>3.411</v>
       </c>
       <c r="C137" t="n">
-        <v>3.689</v>
+        <v>3.411</v>
       </c>
       <c r="D137" t="n">
-        <v>3.689</v>
+        <v>3.411</v>
       </c>
       <c r="E137" t="n">
-        <v>3.689</v>
+        <v>3.411</v>
       </c>
       <c r="F137" t="n">
-        <v>3950</v>
+        <v>23740.8125</v>
       </c>
       <c r="G137" t="n">
-        <v>2932595.726824893</v>
+        <v>1702247.511624894</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5338,8 +5396,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5350,32 +5414,40 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.367</v>
+        <v>3.381</v>
       </c>
       <c r="C138" t="n">
-        <v>3.256</v>
+        <v>3.311</v>
       </c>
       <c r="D138" t="n">
-        <v>3.367</v>
+        <v>3.381</v>
       </c>
       <c r="E138" t="n">
-        <v>3.256</v>
+        <v>3.311</v>
       </c>
       <c r="F138" t="n">
-        <v>39713</v>
+        <v>74425.2608</v>
       </c>
       <c r="G138" t="n">
-        <v>2892882.726824893</v>
+        <v>1627822.250824894</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.411</v>
+      </c>
+      <c r="K138" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5386,32 +5458,40 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.689</v>
+        <v>3.302</v>
       </c>
       <c r="C139" t="n">
-        <v>3.689</v>
+        <v>3.302</v>
       </c>
       <c r="D139" t="n">
-        <v>3.689</v>
+        <v>3.302</v>
       </c>
       <c r="E139" t="n">
-        <v>3.689</v>
+        <v>3.302</v>
       </c>
       <c r="F139" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="G139" t="n">
-        <v>2893042.726824893</v>
+        <v>1626822.250824894</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.311</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5422,32 +5502,40 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.499</v>
+        <v>3.301</v>
       </c>
       <c r="C140" t="n">
-        <v>3.499</v>
+        <v>3.212</v>
       </c>
       <c r="D140" t="n">
-        <v>3.499</v>
+        <v>3.301</v>
       </c>
       <c r="E140" t="n">
-        <v>3.499</v>
+        <v>3.211</v>
       </c>
       <c r="F140" t="n">
-        <v>160</v>
+        <v>139442.7956</v>
       </c>
       <c r="G140" t="n">
-        <v>2892882.726824893</v>
+        <v>1487379.455224894</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.302</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5458,32 +5546,40 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.578</v>
+        <v>3.211</v>
       </c>
       <c r="C141" t="n">
-        <v>3.578</v>
+        <v>3.239</v>
       </c>
       <c r="D141" t="n">
-        <v>3.578</v>
+        <v>3.24</v>
       </c>
       <c r="E141" t="n">
-        <v>3.578</v>
+        <v>3.133</v>
       </c>
       <c r="F141" t="n">
-        <v>160</v>
+        <v>1185080.422</v>
       </c>
       <c r="G141" t="n">
-        <v>2893042.726824893</v>
+        <v>2672459.877224894</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="K141" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5494,32 +5590,40 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.575</v>
+        <v>3.174</v>
       </c>
       <c r="C142" t="n">
-        <v>3.576</v>
+        <v>3.174</v>
       </c>
       <c r="D142" t="n">
-        <v>3.576</v>
+        <v>3.174</v>
       </c>
       <c r="E142" t="n">
-        <v>3.575</v>
+        <v>3.174</v>
       </c>
       <c r="F142" t="n">
-        <v>78638.4151</v>
+        <v>300</v>
       </c>
       <c r="G142" t="n">
-        <v>2814404.311724893</v>
+        <v>2672159.877224894</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K142" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5530,32 +5634,40 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.525</v>
+        <v>3.257</v>
       </c>
       <c r="C143" t="n">
-        <v>3.525</v>
+        <v>3.257</v>
       </c>
       <c r="D143" t="n">
-        <v>3.525</v>
+        <v>3.257</v>
       </c>
       <c r="E143" t="n">
-        <v>3.525</v>
+        <v>3.257</v>
       </c>
       <c r="F143" t="n">
-        <v>292.2509</v>
+        <v>5769.3299</v>
       </c>
       <c r="G143" t="n">
-        <v>2814112.060824893</v>
+        <v>2677929.207124894</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5566,32 +5678,40 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.268</v>
+        <v>3.435</v>
       </c>
       <c r="C144" t="n">
-        <v>3.52</v>
+        <v>3.435</v>
       </c>
       <c r="D144" t="n">
-        <v>3.52</v>
+        <v>3.435</v>
       </c>
       <c r="E144" t="n">
-        <v>3.268</v>
+        <v>3.435</v>
       </c>
       <c r="F144" t="n">
-        <v>20200</v>
+        <v>160</v>
       </c>
       <c r="G144" t="n">
-        <v>2793912.060824893</v>
+        <v>2678089.207124894</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3.257</v>
+      </c>
+      <c r="K144" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5602,22 +5722,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.491</v>
+        <v>3.39</v>
       </c>
       <c r="C145" t="n">
-        <v>3.491</v>
+        <v>3.436</v>
       </c>
       <c r="D145" t="n">
-        <v>3.491</v>
+        <v>3.436</v>
       </c>
       <c r="E145" t="n">
-        <v>3.491</v>
+        <v>3.39</v>
       </c>
       <c r="F145" t="n">
-        <v>160</v>
+        <v>606531.4295</v>
       </c>
       <c r="G145" t="n">
-        <v>2793752.060824893</v>
+        <v>3284620.636624894</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5626,8 +5746,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5638,32 +5764,40 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.491</v>
+        <v>3.688</v>
       </c>
       <c r="C146" t="n">
-        <v>3.491</v>
+        <v>3.688</v>
       </c>
       <c r="D146" t="n">
-        <v>3.491</v>
+        <v>3.688</v>
       </c>
       <c r="E146" t="n">
-        <v>3.491</v>
+        <v>3.688</v>
       </c>
       <c r="F146" t="n">
-        <v>39093.864</v>
+        <v>200</v>
       </c>
       <c r="G146" t="n">
-        <v>2793752.060824893</v>
+        <v>3284820.636624894</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3.436</v>
+      </c>
+      <c r="K146" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5674,22 +5808,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.523</v>
+        <v>3.321</v>
       </c>
       <c r="C147" t="n">
-        <v>3.524</v>
+        <v>3.321</v>
       </c>
       <c r="D147" t="n">
-        <v>3.524</v>
+        <v>3.321</v>
       </c>
       <c r="E147" t="n">
-        <v>3.523</v>
+        <v>3.321</v>
       </c>
       <c r="F147" t="n">
-        <v>24133.5509</v>
+        <v>200</v>
       </c>
       <c r="G147" t="n">
-        <v>2817885.611724893</v>
+        <v>3284620.636624894</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5698,8 +5832,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5710,22 +5850,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.524</v>
+        <v>3.488</v>
       </c>
       <c r="C148" t="n">
-        <v>3.648</v>
+        <v>3.588</v>
       </c>
       <c r="D148" t="n">
-        <v>3.648</v>
+        <v>3.588</v>
       </c>
       <c r="E148" t="n">
-        <v>3.524</v>
+        <v>3.488</v>
       </c>
       <c r="F148" t="n">
-        <v>35000</v>
+        <v>20400</v>
       </c>
       <c r="G148" t="n">
-        <v>2852885.611724893</v>
+        <v>3305020.636624894</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5734,8 +5874,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5746,22 +5892,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.646</v>
+        <v>3.588</v>
       </c>
       <c r="C149" t="n">
-        <v>3.646</v>
+        <v>3.675</v>
       </c>
       <c r="D149" t="n">
-        <v>3.646</v>
+        <v>3.678</v>
       </c>
       <c r="E149" t="n">
-        <v>3.646</v>
+        <v>3.588</v>
       </c>
       <c r="F149" t="n">
-        <v>150</v>
+        <v>31420.0001</v>
       </c>
       <c r="G149" t="n">
-        <v>2852735.611724893</v>
+        <v>3336440.636724894</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5770,8 +5916,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5782,22 +5934,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.645</v>
+        <v>3.675</v>
       </c>
       <c r="C150" t="n">
-        <v>3.616</v>
+        <v>3.677</v>
       </c>
       <c r="D150" t="n">
-        <v>3.645</v>
+        <v>3.677</v>
       </c>
       <c r="E150" t="n">
-        <v>3.616</v>
+        <v>3.342</v>
       </c>
       <c r="F150" t="n">
-        <v>4500</v>
+        <v>840.0001</v>
       </c>
       <c r="G150" t="n">
-        <v>2848235.611724893</v>
+        <v>3337280.636824894</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5806,8 +5958,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5818,22 +5976,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.645</v>
+        <v>3.599</v>
       </c>
       <c r="C151" t="n">
-        <v>3.645</v>
+        <v>3.672</v>
       </c>
       <c r="D151" t="n">
-        <v>3.645</v>
+        <v>3.672</v>
       </c>
       <c r="E151" t="n">
-        <v>3.645</v>
+        <v>3.599</v>
       </c>
       <c r="F151" t="n">
         <v>150</v>
       </c>
       <c r="G151" t="n">
-        <v>2848385.611724893</v>
+        <v>3337130.636824894</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5842,8 +6000,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5854,22 +6018,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.645</v>
+        <v>3.599</v>
       </c>
       <c r="C152" t="n">
-        <v>3.645</v>
+        <v>3.688</v>
       </c>
       <c r="D152" t="n">
-        <v>3.645</v>
+        <v>3.688</v>
       </c>
       <c r="E152" t="n">
-        <v>3.645</v>
+        <v>3.599</v>
       </c>
       <c r="F152" t="n">
-        <v>300</v>
+        <v>31000</v>
       </c>
       <c r="G152" t="n">
-        <v>2848385.611724893</v>
+        <v>3368130.636824894</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5878,8 +6042,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5890,22 +6060,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.644</v>
+        <v>3.621</v>
       </c>
       <c r="C153" t="n">
-        <v>3.645</v>
+        <v>3.688</v>
       </c>
       <c r="D153" t="n">
-        <v>3.645</v>
+        <v>3.688</v>
       </c>
       <c r="E153" t="n">
-        <v>3.643</v>
+        <v>3.599</v>
       </c>
       <c r="F153" t="n">
-        <v>450</v>
+        <v>2700</v>
       </c>
       <c r="G153" t="n">
-        <v>2848385.611724893</v>
+        <v>3368130.636824894</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5914,8 +6084,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5926,22 +6102,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.643</v>
+        <v>3.688</v>
       </c>
       <c r="C154" t="n">
-        <v>3.645</v>
+        <v>3.688</v>
       </c>
       <c r="D154" t="n">
-        <v>3.645</v>
+        <v>3.688</v>
       </c>
       <c r="E154" t="n">
-        <v>3.643</v>
+        <v>3.688</v>
       </c>
       <c r="F154" t="n">
-        <v>100000</v>
+        <v>150</v>
       </c>
       <c r="G154" t="n">
-        <v>2848385.611724893</v>
+        <v>3368130.636824894</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5950,8 +6126,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5962,22 +6144,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.577</v>
+        <v>3.687</v>
       </c>
       <c r="C155" t="n">
-        <v>3.576</v>
+        <v>3.764</v>
       </c>
       <c r="D155" t="n">
-        <v>3.577</v>
+        <v>3.764</v>
       </c>
       <c r="E155" t="n">
-        <v>3.576</v>
+        <v>3.687</v>
       </c>
       <c r="F155" t="n">
-        <v>300</v>
+        <v>40211.8967</v>
       </c>
       <c r="G155" t="n">
-        <v>2848085.611724893</v>
+        <v>3408342.533524894</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5986,8 +6168,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5998,22 +6186,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.575</v>
+        <v>3.764</v>
       </c>
       <c r="C156" t="n">
-        <v>3.575</v>
+        <v>3.784</v>
       </c>
       <c r="D156" t="n">
-        <v>3.575</v>
+        <v>3.784</v>
       </c>
       <c r="E156" t="n">
-        <v>3.575</v>
+        <v>3.764</v>
       </c>
       <c r="F156" t="n">
-        <v>150</v>
+        <v>110986.7011</v>
       </c>
       <c r="G156" t="n">
-        <v>2847935.611724893</v>
+        <v>3519329.234624894</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6022,8 +6210,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6034,22 +6228,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.574</v>
+        <v>3.705</v>
       </c>
       <c r="C157" t="n">
-        <v>3.574</v>
+        <v>3.705</v>
       </c>
       <c r="D157" t="n">
-        <v>3.574</v>
+        <v>3.705</v>
       </c>
       <c r="E157" t="n">
-        <v>3.574</v>
+        <v>3.705</v>
       </c>
       <c r="F157" t="n">
         <v>150</v>
       </c>
       <c r="G157" t="n">
-        <v>2847785.611724893</v>
+        <v>3519179.234624894</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6058,8 +6252,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6070,22 +6270,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.573</v>
+        <v>3.699</v>
       </c>
       <c r="C158" t="n">
-        <v>3.558</v>
+        <v>3.77</v>
       </c>
       <c r="D158" t="n">
-        <v>3.573</v>
+        <v>3.77</v>
       </c>
       <c r="E158" t="n">
-        <v>3.558</v>
+        <v>3.692</v>
       </c>
       <c r="F158" t="n">
-        <v>3325.2479</v>
+        <v>600</v>
       </c>
       <c r="G158" t="n">
-        <v>2844460.363824893</v>
+        <v>3519779.234624894</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6094,8 +6294,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6106,22 +6312,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.558</v>
+        <v>3.722</v>
       </c>
       <c r="C159" t="n">
-        <v>3.558</v>
+        <v>3.76</v>
       </c>
       <c r="D159" t="n">
-        <v>3.558</v>
+        <v>3.76</v>
       </c>
       <c r="E159" t="n">
-        <v>3.558</v>
+        <v>3.695</v>
       </c>
       <c r="F159" t="n">
-        <v>160</v>
+        <v>104835.4604</v>
       </c>
       <c r="G159" t="n">
-        <v>2844460.363824893</v>
+        <v>3414943.774224894</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6130,8 +6336,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6142,36 +6354,38 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.559</v>
+        <v>3.718</v>
       </c>
       <c r="C160" t="n">
-        <v>3.559</v>
+        <v>3.76</v>
       </c>
       <c r="D160" t="n">
-        <v>3.559</v>
+        <v>3.76</v>
       </c>
       <c r="E160" t="n">
-        <v>3.559</v>
+        <v>3.713</v>
       </c>
       <c r="F160" t="n">
-        <v>10000</v>
+        <v>750</v>
       </c>
       <c r="G160" t="n">
-        <v>2854460.363824893</v>
+        <v>3414943.774224894</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>3.558</v>
-      </c>
-      <c r="L160" t="inlineStr"/>
+        <v>3.442</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6182,38 +6396,36 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.559</v>
+        <v>3.759</v>
       </c>
       <c r="C161" t="n">
-        <v>3.57</v>
+        <v>3.755</v>
       </c>
       <c r="D161" t="n">
-        <v>3.57</v>
+        <v>3.76</v>
       </c>
       <c r="E161" t="n">
-        <v>3.558</v>
+        <v>3.755</v>
       </c>
       <c r="F161" t="n">
-        <v>107310.0789</v>
+        <v>900</v>
       </c>
       <c r="G161" t="n">
-        <v>2961770.442724893</v>
+        <v>3414043.774224894</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>3.559</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M161" t="n">
@@ -6226,34 +6438,32 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.557</v>
+        <v>3.737</v>
       </c>
       <c r="C162" t="n">
-        <v>3.557</v>
+        <v>3.71</v>
       </c>
       <c r="D162" t="n">
-        <v>3.557</v>
+        <v>3.737</v>
       </c>
       <c r="E162" t="n">
-        <v>3.557</v>
+        <v>3.71</v>
       </c>
       <c r="F162" t="n">
-        <v>150</v>
+        <v>58520.3834</v>
       </c>
       <c r="G162" t="n">
-        <v>2961620.442724893</v>
+        <v>3355523.390824893</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>3.57</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6270,34 +6480,32 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.489</v>
+        <v>3.709</v>
       </c>
       <c r="C163" t="n">
-        <v>3.489</v>
+        <v>3.69</v>
       </c>
       <c r="D163" t="n">
-        <v>3.489</v>
+        <v>3.709</v>
       </c>
       <c r="E163" t="n">
-        <v>3.489</v>
+        <v>3.69</v>
       </c>
       <c r="F163" t="n">
-        <v>150</v>
+        <v>33421.6081</v>
       </c>
       <c r="G163" t="n">
-        <v>2961470.442724893</v>
+        <v>3322101.782724894</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>3.557</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6314,34 +6522,32 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.489</v>
+        <v>3.699</v>
       </c>
       <c r="C164" t="n">
-        <v>3.539</v>
+        <v>3.699</v>
       </c>
       <c r="D164" t="n">
-        <v>3.539</v>
+        <v>3.699</v>
       </c>
       <c r="E164" t="n">
-        <v>3.463</v>
+        <v>3.699</v>
       </c>
       <c r="F164" t="n">
-        <v>13950</v>
+        <v>49762.0533</v>
       </c>
       <c r="G164" t="n">
-        <v>2975420.442724893</v>
+        <v>3371863.836024893</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>3.489</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6358,34 +6564,32 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.463</v>
+        <v>3.697</v>
       </c>
       <c r="C165" t="n">
-        <v>3.463</v>
+        <v>3.697</v>
       </c>
       <c r="D165" t="n">
-        <v>3.463</v>
+        <v>3.697</v>
       </c>
       <c r="E165" t="n">
-        <v>3.463</v>
+        <v>3.697</v>
       </c>
       <c r="F165" t="n">
-        <v>97.2037</v>
+        <v>150</v>
       </c>
       <c r="G165" t="n">
-        <v>2975323.239024893</v>
+        <v>3371713.836024893</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>3.539</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6402,22 +6606,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.454</v>
+        <v>3.698</v>
       </c>
       <c r="C166" t="n">
-        <v>3.34</v>
+        <v>3.685</v>
       </c>
       <c r="D166" t="n">
-        <v>3.454</v>
+        <v>3.698</v>
       </c>
       <c r="E166" t="n">
-        <v>3.34</v>
+        <v>3.685</v>
       </c>
       <c r="F166" t="n">
-        <v>116633.7655</v>
+        <v>4150</v>
       </c>
       <c r="G166" t="n">
-        <v>2858689.473524893</v>
+        <v>3367563.836024893</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6427,7 +6631,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6444,22 +6648,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.342</v>
+        <v>3.685</v>
       </c>
       <c r="C167" t="n">
-        <v>3.535</v>
+        <v>3.698</v>
       </c>
       <c r="D167" t="n">
-        <v>3.535</v>
+        <v>3.698</v>
       </c>
       <c r="E167" t="n">
-        <v>3.342</v>
+        <v>3.671</v>
       </c>
       <c r="F167" t="n">
-        <v>3362.5071</v>
+        <v>2150</v>
       </c>
       <c r="G167" t="n">
-        <v>2862051.980624893</v>
+        <v>3369713.836024893</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6469,7 +6673,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6486,22 +6690,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.535</v>
+        <v>3.672</v>
       </c>
       <c r="C168" t="n">
-        <v>3.535</v>
+        <v>3.605</v>
       </c>
       <c r="D168" t="n">
-        <v>3.535</v>
+        <v>3.672</v>
       </c>
       <c r="E168" t="n">
-        <v>3.535</v>
+        <v>3.605</v>
       </c>
       <c r="F168" t="n">
-        <v>25793.3578</v>
+        <v>4396.597</v>
       </c>
       <c r="G168" t="n">
-        <v>2862051.980624893</v>
+        <v>3365317.239024893</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6511,7 +6715,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6528,22 +6732,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.535</v>
+        <v>3.605</v>
       </c>
       <c r="C169" t="n">
-        <v>3.535</v>
+        <v>3.697</v>
       </c>
       <c r="D169" t="n">
-        <v>3.535</v>
+        <v>3.697</v>
       </c>
       <c r="E169" t="n">
-        <v>3.535</v>
+        <v>3.605</v>
       </c>
       <c r="F169" t="n">
-        <v>48730.0116</v>
+        <v>610</v>
       </c>
       <c r="G169" t="n">
-        <v>2862051.980624893</v>
+        <v>3365927.239024893</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6553,7 +6757,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6570,22 +6774,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.535</v>
+        <v>3.588</v>
       </c>
       <c r="C170" t="n">
-        <v>3.535</v>
+        <v>3.417</v>
       </c>
       <c r="D170" t="n">
-        <v>3.535</v>
+        <v>3.588</v>
       </c>
       <c r="E170" t="n">
-        <v>3.535</v>
+        <v>3.417</v>
       </c>
       <c r="F170" t="n">
-        <v>66566.3095</v>
+        <v>2000</v>
       </c>
       <c r="G170" t="n">
-        <v>2862051.980624893</v>
+        <v>3363927.239024893</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6595,7 +6799,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6612,22 +6816,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3.535</v>
+        <v>3.689</v>
       </c>
       <c r="C171" t="n">
-        <v>3.536</v>
+        <v>3.689</v>
       </c>
       <c r="D171" t="n">
-        <v>3.536</v>
+        <v>3.689</v>
       </c>
       <c r="E171" t="n">
-        <v>3.535</v>
+        <v>3.41</v>
       </c>
       <c r="F171" t="n">
-        <v>8564.9591</v>
+        <v>65089.7211</v>
       </c>
       <c r="G171" t="n">
-        <v>2870616.939724893</v>
+        <v>3429016.960124894</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6637,7 +6841,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6654,22 +6858,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.539</v>
+        <v>3.408</v>
       </c>
       <c r="C172" t="n">
-        <v>3.539</v>
+        <v>3.689</v>
       </c>
       <c r="D172" t="n">
-        <v>3.539</v>
+        <v>3.689</v>
       </c>
       <c r="E172" t="n">
-        <v>3.539</v>
+        <v>3.215</v>
       </c>
       <c r="F172" t="n">
-        <v>142</v>
+        <v>30458.9723</v>
       </c>
       <c r="G172" t="n">
-        <v>2870758.939724893</v>
+        <v>3429016.960124894</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6679,7 +6883,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6696,22 +6900,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3.539</v>
+        <v>3.233</v>
       </c>
       <c r="C173" t="n">
-        <v>3.541</v>
+        <v>3.233</v>
       </c>
       <c r="D173" t="n">
-        <v>3.541</v>
+        <v>3.233</v>
       </c>
       <c r="E173" t="n">
-        <v>3.539</v>
+        <v>3.233</v>
       </c>
       <c r="F173" t="n">
-        <v>1000</v>
+        <v>155</v>
       </c>
       <c r="G173" t="n">
-        <v>2871758.939724893</v>
+        <v>3428861.960124894</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6721,7 +6925,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6738,32 +6942,34 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.451</v>
+        <v>3.586</v>
       </c>
       <c r="C174" t="n">
-        <v>3.349</v>
+        <v>3.588</v>
       </c>
       <c r="D174" t="n">
-        <v>3.451</v>
+        <v>3.588</v>
       </c>
       <c r="E174" t="n">
-        <v>3.349</v>
+        <v>3.586</v>
       </c>
       <c r="F174" t="n">
-        <v>25612.7467</v>
+        <v>160</v>
       </c>
       <c r="G174" t="n">
-        <v>2846146.193024893</v>
+        <v>3429021.960124894</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3.233</v>
+      </c>
       <c r="K174" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6780,22 +6986,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3.528</v>
+        <v>3.587</v>
       </c>
       <c r="C175" t="n">
-        <v>3.528</v>
+        <v>3.587</v>
       </c>
       <c r="D175" t="n">
-        <v>3.528</v>
+        <v>3.587</v>
       </c>
       <c r="E175" t="n">
-        <v>3.528</v>
+        <v>3.587</v>
       </c>
       <c r="F175" t="n">
         <v>150</v>
       </c>
       <c r="G175" t="n">
-        <v>2846296.193024893</v>
+        <v>3428871.960124894</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6805,7 +7011,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6822,22 +7028,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3.528</v>
+        <v>3.587</v>
       </c>
       <c r="C176" t="n">
-        <v>3.541</v>
+        <v>3.588</v>
       </c>
       <c r="D176" t="n">
-        <v>3.541</v>
+        <v>3.588</v>
       </c>
       <c r="E176" t="n">
-        <v>3.528</v>
+        <v>3.587</v>
       </c>
       <c r="F176" t="n">
-        <v>2900</v>
+        <v>10659.9625</v>
       </c>
       <c r="G176" t="n">
-        <v>2849196.193024893</v>
+        <v>3439531.922624893</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6847,7 +7053,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6864,22 +7070,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.541</v>
+        <v>3.587</v>
       </c>
       <c r="C177" t="n">
-        <v>3.541</v>
+        <v>3.587</v>
       </c>
       <c r="D177" t="n">
-        <v>3.544</v>
+        <v>3.587</v>
       </c>
       <c r="E177" t="n">
-        <v>3.541</v>
+        <v>3.587</v>
       </c>
       <c r="F177" t="n">
-        <v>80084.3417</v>
+        <v>20002.1329</v>
       </c>
       <c r="G177" t="n">
-        <v>2849196.193024893</v>
+        <v>3419529.789724893</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6889,7 +7095,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6906,22 +7112,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3.541</v>
+        <v>3.587</v>
       </c>
       <c r="C178" t="n">
-        <v>3.541</v>
+        <v>3.587</v>
       </c>
       <c r="D178" t="n">
-        <v>3.541</v>
+        <v>3.587</v>
       </c>
       <c r="E178" t="n">
-        <v>3.541</v>
+        <v>3.587</v>
       </c>
       <c r="F178" t="n">
-        <v>50000</v>
+        <v>36671.4938</v>
       </c>
       <c r="G178" t="n">
-        <v>2849196.193024893</v>
+        <v>3419529.789724893</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6931,7 +7137,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -6948,22 +7154,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3.541</v>
+        <v>3.587</v>
       </c>
       <c r="C179" t="n">
-        <v>3.451</v>
+        <v>3.588</v>
       </c>
       <c r="D179" t="n">
-        <v>3.541</v>
+        <v>3.588</v>
       </c>
       <c r="E179" t="n">
-        <v>3.451</v>
+        <v>3.587</v>
       </c>
       <c r="F179" t="n">
-        <v>1279215.8313</v>
+        <v>73289.7855</v>
       </c>
       <c r="G179" t="n">
-        <v>1569980.361724893</v>
+        <v>3492819.575224893</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6973,7 +7179,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -6990,22 +7196,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3.454</v>
+        <v>3.647</v>
       </c>
       <c r="C180" t="n">
-        <v>3.544</v>
+        <v>3.647</v>
       </c>
       <c r="D180" t="n">
-        <v>3.544</v>
+        <v>3.647</v>
       </c>
       <c r="E180" t="n">
-        <v>3.349</v>
+        <v>3.647</v>
       </c>
       <c r="F180" t="n">
-        <v>121797.615</v>
+        <v>150</v>
       </c>
       <c r="G180" t="n">
-        <v>1691777.976724893</v>
+        <v>3492969.575224893</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7015,7 +7221,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7032,22 +7238,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3.547</v>
+        <v>3.647</v>
       </c>
       <c r="C181" t="n">
-        <v>3.627</v>
+        <v>3.76</v>
       </c>
       <c r="D181" t="n">
-        <v>3.64</v>
+        <v>3.76</v>
       </c>
       <c r="E181" t="n">
-        <v>3.547</v>
+        <v>3.647</v>
       </c>
       <c r="F181" t="n">
-        <v>135083.1456</v>
+        <v>218991.7124</v>
       </c>
       <c r="G181" t="n">
-        <v>1826861.122324893</v>
+        <v>3711961.287624893</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7057,7 +7263,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7074,22 +7280,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3.66</v>
+        <v>3.755</v>
       </c>
       <c r="C182" t="n">
-        <v>3.66</v>
+        <v>3.755</v>
       </c>
       <c r="D182" t="n">
-        <v>3.66</v>
+        <v>3.755</v>
       </c>
       <c r="E182" t="n">
-        <v>3.66</v>
+        <v>3.755</v>
       </c>
       <c r="F182" t="n">
-        <v>16688.4149</v>
+        <v>150</v>
       </c>
       <c r="G182" t="n">
-        <v>1843549.537224893</v>
+        <v>3711811.287624893</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7099,7 +7305,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7116,22 +7322,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3.481</v>
+        <v>3.747</v>
       </c>
       <c r="C183" t="n">
-        <v>3.481</v>
+        <v>3.74</v>
       </c>
       <c r="D183" t="n">
-        <v>3.481</v>
+        <v>3.747</v>
       </c>
       <c r="E183" t="n">
-        <v>3.481</v>
+        <v>3.74</v>
       </c>
       <c r="F183" t="n">
-        <v>118729.3818</v>
+        <v>300</v>
       </c>
       <c r="G183" t="n">
-        <v>1724820.155424893</v>
+        <v>3711511.287624893</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7141,7 +7347,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7158,22 +7364,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3.481</v>
+        <v>3.76</v>
       </c>
       <c r="C184" t="n">
-        <v>3.66</v>
+        <v>3.76</v>
       </c>
       <c r="D184" t="n">
-        <v>3.66</v>
+        <v>3.76</v>
       </c>
       <c r="E184" t="n">
-        <v>3.481</v>
+        <v>3.76</v>
       </c>
       <c r="F184" t="n">
-        <v>56681.3353</v>
+        <v>150</v>
       </c>
       <c r="G184" t="n">
-        <v>1781501.490724893</v>
+        <v>3711661.287624893</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7183,7 +7389,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7200,22 +7406,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3.439</v>
+        <v>3.759</v>
       </c>
       <c r="C185" t="n">
-        <v>3.436</v>
+        <v>3.759</v>
       </c>
       <c r="D185" t="n">
-        <v>3.439</v>
+        <v>3.759</v>
       </c>
       <c r="E185" t="n">
-        <v>3.436</v>
+        <v>3.759</v>
       </c>
       <c r="F185" t="n">
-        <v>45776.5037</v>
+        <v>150</v>
       </c>
       <c r="G185" t="n">
-        <v>1735724.987024893</v>
+        <v>3711511.287624893</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7225,7 +7431,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7242,22 +7448,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3.43</v>
+        <v>3.758</v>
       </c>
       <c r="C186" t="n">
-        <v>3.439</v>
+        <v>3.757</v>
       </c>
       <c r="D186" t="n">
-        <v>3.439</v>
+        <v>3.758</v>
       </c>
       <c r="E186" t="n">
-        <v>3.43</v>
+        <v>3.757</v>
       </c>
       <c r="F186" t="n">
-        <v>61288.1051</v>
+        <v>540982.0829</v>
       </c>
       <c r="G186" t="n">
-        <v>1797013.092124893</v>
+        <v>3170529.204724893</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7267,7 +7473,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>3.558</v>
+        <v>3.442</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7284,22 +7490,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3.439</v>
+        <v>3.756</v>
       </c>
       <c r="C187" t="n">
-        <v>3.439</v>
+        <v>3.756</v>
       </c>
       <c r="D187" t="n">
-        <v>3.439</v>
+        <v>3.756</v>
       </c>
       <c r="E187" t="n">
-        <v>3.439</v>
+        <v>3.756</v>
       </c>
       <c r="F187" t="n">
-        <v>58228.4753</v>
+        <v>870</v>
       </c>
       <c r="G187" t="n">
-        <v>1797013.092124893</v>
+        <v>3169659.204724893</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7309,17 +7515,3021 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>3.757</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.757</v>
+      </c>
+      <c r="D188" t="n">
+        <v>3.757</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3.757</v>
+      </c>
+      <c r="F188" t="n">
+        <v>150</v>
+      </c>
+      <c r="G188" t="n">
+        <v>3169809.204724893</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3.756</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.746</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3.757</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.746</v>
+      </c>
+      <c r="F189" t="n">
+        <v>21650</v>
+      </c>
+      <c r="G189" t="n">
+        <v>3148159.204724893</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.731</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3.731</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G190" t="n">
+        <v>3146409.204724893</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3.731</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="D191" t="n">
+        <v>3.755</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F191" t="n">
+        <v>6387.2455</v>
+      </c>
+      <c r="G191" t="n">
+        <v>3140021.959224893</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.696</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3.696</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1650</v>
+      </c>
+      <c r="G192" t="n">
+        <v>3138371.959224893</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.683</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.683</v>
+      </c>
+      <c r="F193" t="n">
+        <v>300</v>
+      </c>
+      <c r="G193" t="n">
+        <v>3138071.959224893</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.688</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3.688</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F194" t="n">
+        <v>616.4184</v>
+      </c>
+      <c r="G194" t="n">
+        <v>3138688.377624893</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.687</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.684</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3.687</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3.684</v>
+      </c>
+      <c r="F195" t="n">
+        <v>600</v>
+      </c>
+      <c r="G195" t="n">
+        <v>3138088.377624893</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.681</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3.681</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F196" t="n">
+        <v>183.5816</v>
+      </c>
+      <c r="G196" t="n">
+        <v>3137904.796024892</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.677</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.669</v>
+      </c>
+      <c r="D197" t="n">
+        <v>3.677</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.669</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3869.6075</v>
+      </c>
+      <c r="G197" t="n">
+        <v>3134035.188524893</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.666</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.377</v>
+      </c>
+      <c r="D198" t="n">
+        <v>3.666</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3.377</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G198" t="n">
+        <v>3131785.188524893</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3.371</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.314</v>
+      </c>
+      <c r="D199" t="n">
+        <v>3.371</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3.314</v>
+      </c>
+      <c r="F199" t="n">
+        <v>30600</v>
+      </c>
+      <c r="G199" t="n">
+        <v>3101185.188524893</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3.376</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.759</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3.759</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3.376</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G200" t="n">
+        <v>3105355.188524893</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3.314</v>
+      </c>
+      <c r="K200" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3.758</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.739</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3.758</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3.739</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>3102355.188524893</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>3.759</v>
+      </c>
+      <c r="K201" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3.759</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.734</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3.759</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3.734</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G202" t="n">
+        <v>3101305.188524893</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>3.677</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.759</v>
+      </c>
+      <c r="D203" t="n">
+        <v>3.759</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3.677</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G203" t="n">
+        <v>3105555.188524893</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3.703</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3.703</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F204" t="n">
+        <v>31846.5395</v>
+      </c>
+      <c r="G204" t="n">
+        <v>3073708.649024893</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>3.679</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3.679</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F205" t="n">
+        <v>37990.4487</v>
+      </c>
+      <c r="G205" t="n">
+        <v>3035718.200324893</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.659</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3.638</v>
+      </c>
+      <c r="F206" t="n">
+        <v>5200</v>
+      </c>
+      <c r="G206" t="n">
+        <v>3040918.200324893</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="F207" t="n">
+        <v>112272.4735</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2928645.726824893</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="D208" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="F208" t="n">
+        <v>3950</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2932595.726824893</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="K208" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>3.367</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.256</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3.367</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3.256</v>
+      </c>
+      <c r="F209" t="n">
+        <v>39713</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2892882.726824893</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="D210" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="F210" t="n">
+        <v>160</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2893042.726824893</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3.499</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.499</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3.499</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3.499</v>
+      </c>
+      <c r="F211" t="n">
+        <v>160</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2892882.726824893</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3.578</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.578</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3.578</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3.578</v>
+      </c>
+      <c r="F212" t="n">
+        <v>160</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2893042.726824893</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.576</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3.576</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="F213" t="n">
+        <v>78638.4151</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2814404.311724893</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3.525</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.525</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3.525</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3.525</v>
+      </c>
+      <c r="F214" t="n">
+        <v>292.2509</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2814112.060824893</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3.268</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="D215" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="E215" t="n">
+        <v>3.268</v>
+      </c>
+      <c r="F215" t="n">
+        <v>20200</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2793912.060824893</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.491</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3.491</v>
+      </c>
+      <c r="D216" t="n">
+        <v>3.491</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3.491</v>
+      </c>
+      <c r="F216" t="n">
+        <v>160</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2793752.060824893</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3.491</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.491</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3.491</v>
+      </c>
+      <c r="E217" t="n">
+        <v>3.491</v>
+      </c>
+      <c r="F217" t="n">
+        <v>39093.864</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2793752.060824893</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3.523</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="D218" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3.523</v>
+      </c>
+      <c r="F218" t="n">
+        <v>24133.5509</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2817885.611724893</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3.648</v>
+      </c>
+      <c r="D219" t="n">
+        <v>3.648</v>
+      </c>
+      <c r="E219" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="F219" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2852885.611724893</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.646</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.646</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3.646</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3.646</v>
+      </c>
+      <c r="F220" t="n">
+        <v>150</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2852735.611724893</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.616</v>
+      </c>
+      <c r="D221" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3.616</v>
+      </c>
+      <c r="F221" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G221" t="n">
+        <v>2848235.611724893</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="E222" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="F222" t="n">
+        <v>150</v>
+      </c>
+      <c r="G222" t="n">
+        <v>2848385.611724893</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="D223" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="E223" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="F223" t="n">
+        <v>300</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2848385.611724893</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3.644</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="D224" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="E224" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="F224" t="n">
+        <v>450</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2848385.611724893</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="C225" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="D225" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="E225" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="F225" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2848385.611724893</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3.577</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3.576</v>
+      </c>
+      <c r="D226" t="n">
+        <v>3.577</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3.576</v>
+      </c>
+      <c r="F226" t="n">
+        <v>300</v>
+      </c>
+      <c r="G226" t="n">
+        <v>2848085.611724893</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="C227" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="D227" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="E227" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="F227" t="n">
+        <v>150</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2847935.611724893</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3.574</v>
+      </c>
+      <c r="C228" t="n">
+        <v>3.574</v>
+      </c>
+      <c r="D228" t="n">
+        <v>3.574</v>
+      </c>
+      <c r="E228" t="n">
+        <v>3.574</v>
+      </c>
+      <c r="F228" t="n">
+        <v>150</v>
+      </c>
+      <c r="G228" t="n">
+        <v>2847785.611724893</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3.573</v>
+      </c>
+      <c r="C229" t="n">
         <v>3.558</v>
       </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="D229" t="n">
+        <v>3.573</v>
+      </c>
+      <c r="E229" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="F229" t="n">
+        <v>3325.2479</v>
+      </c>
+      <c r="G229" t="n">
+        <v>2844460.363824893</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="C230" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="D230" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="E230" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="F230" t="n">
+        <v>160</v>
+      </c>
+      <c r="G230" t="n">
+        <v>2844460.363824893</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3.559</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3.559</v>
+      </c>
+      <c r="D231" t="n">
+        <v>3.559</v>
+      </c>
+      <c r="E231" t="n">
+        <v>3.559</v>
+      </c>
+      <c r="F231" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G231" t="n">
+        <v>2854460.363824893</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.559</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="D232" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E232" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="F232" t="n">
+        <v>107310.0789</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2961770.442724893</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3.557</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3.557</v>
+      </c>
+      <c r="D233" t="n">
+        <v>3.557</v>
+      </c>
+      <c r="E233" t="n">
+        <v>3.557</v>
+      </c>
+      <c r="F233" t="n">
+        <v>150</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2961620.442724893</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="D234" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="E234" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="F234" t="n">
+        <v>150</v>
+      </c>
+      <c r="G234" t="n">
+        <v>2961470.442724893</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3.539</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3.539</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="F235" t="n">
+        <v>13950</v>
+      </c>
+      <c r="G235" t="n">
+        <v>2975420.442724893</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="K235" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="C236" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="E236" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="F236" t="n">
+        <v>97.2037</v>
+      </c>
+      <c r="G236" t="n">
+        <v>2975323.239024893</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>3.539</v>
+      </c>
+      <c r="K236" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D237" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="E237" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F237" t="n">
+        <v>116633.7655</v>
+      </c>
+      <c r="G237" t="n">
+        <v>2858689.473524893</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="K237" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3.342</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="D238" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="E238" t="n">
+        <v>3.342</v>
+      </c>
+      <c r="F238" t="n">
+        <v>3362.5071</v>
+      </c>
+      <c r="G238" t="n">
+        <v>2862051.980624893</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K238" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="D239" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="E239" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="F239" t="n">
+        <v>25793.3578</v>
+      </c>
+      <c r="G239" t="n">
+        <v>2862051.980624893</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="C240" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="E240" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="F240" t="n">
+        <v>48730.0116</v>
+      </c>
+      <c r="G240" t="n">
+        <v>2862051.980624893</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="E241" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="F241" t="n">
+        <v>66566.3095</v>
+      </c>
+      <c r="G241" t="n">
+        <v>2862051.980624893</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3.536</v>
+      </c>
+      <c r="D242" t="n">
+        <v>3.536</v>
+      </c>
+      <c r="E242" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="F242" t="n">
+        <v>8564.9591</v>
+      </c>
+      <c r="G242" t="n">
+        <v>2870616.939724893</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3.539</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3.539</v>
+      </c>
+      <c r="D243" t="n">
+        <v>3.539</v>
+      </c>
+      <c r="E243" t="n">
+        <v>3.539</v>
+      </c>
+      <c r="F243" t="n">
+        <v>142</v>
+      </c>
+      <c r="G243" t="n">
+        <v>2870758.939724893</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3.539</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="D244" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="E244" t="n">
+        <v>3.539</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G244" t="n">
+        <v>2871758.939724893</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="C245" t="n">
+        <v>3.349</v>
+      </c>
+      <c r="D245" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="E245" t="n">
+        <v>3.349</v>
+      </c>
+      <c r="F245" t="n">
+        <v>25612.7467</v>
+      </c>
+      <c r="G245" t="n">
+        <v>2846146.193024893</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3.528</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3.528</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3.528</v>
+      </c>
+      <c r="E246" t="n">
+        <v>3.528</v>
+      </c>
+      <c r="F246" t="n">
+        <v>150</v>
+      </c>
+      <c r="G246" t="n">
+        <v>2846296.193024893</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>3.349</v>
+      </c>
+      <c r="K246" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3.528</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="D247" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="E247" t="n">
+        <v>3.528</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2900</v>
+      </c>
+      <c r="G247" t="n">
+        <v>2849196.193024893</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="C248" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="D248" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="E248" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="F248" t="n">
+        <v>80084.3417</v>
+      </c>
+      <c r="G248" t="n">
+        <v>2849196.193024893</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="C249" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="E249" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="F249" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G249" t="n">
+        <v>2849196.193024893</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="D250" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="E250" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1279215.8313</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1569980.361724893</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="D251" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="E251" t="n">
+        <v>3.349</v>
+      </c>
+      <c r="F251" t="n">
+        <v>121797.615</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1691777.976724893</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="C252" t="n">
+        <v>3.627</v>
+      </c>
+      <c r="D252" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="E252" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="F252" t="n">
+        <v>135083.1456</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1826861.122324893</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="K252" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="D253" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E253" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F253" t="n">
+        <v>16688.4149</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1843549.537224893</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="D254" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="E254" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="F254" t="n">
+        <v>118729.3818</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1724820.155424893</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="C255" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="D255" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E255" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="F255" t="n">
+        <v>56681.3353</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1781501.490724893</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3.436</v>
+      </c>
+      <c r="D256" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="E256" t="n">
+        <v>3.436</v>
+      </c>
+      <c r="F256" t="n">
+        <v>45776.5037</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1735724.987024893</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C257" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="D257" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="E257" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="F257" t="n">
+        <v>61288.1051</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1797013.092124893</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>3.436</v>
+      </c>
+      <c r="K257" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="C258" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="D258" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="E258" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="F258" t="n">
+        <v>58228.4753</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1797013.092124893</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="K258" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest DVP.xlsx
+++ b/BackTest/2020-01-25 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N258"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>4264166.728033334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>4481171.069633333</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>4480471.069633333</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>4541418.215533333</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>4541418.215533333</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>4541287.771133333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>4541287.771133333</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>4541147.771133333</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>4514099.145533333</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>4496298.822533334</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>4496154.378133333</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>4496414.378133333</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>4497258.822533334</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>4496984.378133333</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>4496534.378133333</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>4495877.141733333</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>4512407.141733333</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>4530077.141733333</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>4529797.141733333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>4531743.647233333</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>4529856.980433334</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>4552357.655433333</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>4552077.655433333</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>4563417.655433333</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>4551819.853233334</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>4535555.408833333</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>4535555.408833333</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>4528372.439233333</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>4548112.439233333</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>4536252.439233333</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>4536112.439233333</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>4534282.439233333</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>4534146.163133333</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>4155675.539033332</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>3486530.900033332</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,22 +4114,15 @@
         <v>2215052.800924894</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3</v>
-      </c>
-      <c r="K113" t="n">
-        <v>3</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4494,22 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4536,22 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4576,22 +4213,15 @@
         <v>2094384.422124894</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3.412</v>
-      </c>
-      <c r="K116" t="n">
-        <v>3.412</v>
-      </c>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4616,26 +4246,15 @@
         <v>2884518.109924894</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="K117" t="n">
-        <v>3.412</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4662,22 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>3.412</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4704,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4738,22 +4345,15 @@
         <v>2565934.622824894</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3.432</v>
-      </c>
-      <c r="K120" t="n">
-        <v>3.432</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4780,22 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>3.432</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4822,22 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>3.432</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4864,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4900,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4936,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4972,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5008,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5044,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5080,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5116,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5152,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5188,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5222,22 +4774,15 @@
         <v>1869024.349124894</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="K133" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5264,22 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5306,22 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5346,26 +4873,15 @@
         <v>1725988.324124894</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="K136" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5392,22 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5432,26 +4939,15 @@
         <v>1627822.250824894</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3.411</v>
-      </c>
-      <c r="K138" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5476,26 +4972,15 @@
         <v>1626822.250824894</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3.311</v>
-      </c>
-      <c r="K139" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5520,26 +5005,15 @@
         <v>1487379.455224894</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3.302</v>
-      </c>
-      <c r="K140" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5564,26 +5038,15 @@
         <v>2672459.877224894</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3.212</v>
-      </c>
-      <c r="K141" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5608,26 +5071,19 @@
         <v>2672159.877224894</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>3.239</v>
       </c>
       <c r="J142" t="n">
         <v>3.239</v>
       </c>
-      <c r="K142" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5652,26 +5108,23 @@
         <v>2677929.207124894</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>3.174</v>
       </c>
       <c r="J143" t="n">
-        <v>3.174</v>
-      </c>
-      <c r="K143" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>3.239</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5696,26 +5149,23 @@
         <v>2678089.207124894</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>3.257</v>
       </c>
       <c r="J144" t="n">
-        <v>3.257</v>
-      </c>
-      <c r="K144" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>3.239</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5740,24 +5190,23 @@
         <v>3284620.636624894</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>3.435</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5782,26 +5231,23 @@
         <v>3284820.636624894</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>3.436</v>
       </c>
       <c r="J146" t="n">
-        <v>3.436</v>
-      </c>
-      <c r="K146" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L146" t="inlineStr">
+        <v>3.239</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5828,22 +5274,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5870,22 +5313,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5912,22 +5352,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5954,22 +5391,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5996,22 +5430,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6038,22 +5469,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6080,22 +5508,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6122,22 +5547,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6164,22 +5586,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6206,22 +5625,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6248,22 +5664,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6290,22 +5703,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6332,22 +5742,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6374,22 +5781,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6416,22 +5820,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6458,22 +5859,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6500,22 +5898,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6542,22 +5937,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6584,22 +5976,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6626,22 +6015,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6668,22 +6054,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6710,22 +6093,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6752,22 +6132,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6794,22 +6171,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6836,22 +6210,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6878,22 +6249,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6920,22 +6288,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6960,26 +6325,21 @@
         <v>3429021.960124894</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>3.233</v>
-      </c>
-      <c r="K174" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L174" t="inlineStr">
+        <v>3.239</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7006,22 +6366,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7048,22 +6405,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7090,22 +6444,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7132,22 +6483,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7174,22 +6522,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7216,22 +6561,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7256,24 +6598,23 @@
         <v>3711961.287624893</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>3.647</v>
+      </c>
+      <c r="J181" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7300,22 +6641,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7342,22 +6680,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7384,22 +6719,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7426,22 +6758,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7468,22 +6797,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7510,22 +6836,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7552,22 +6875,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7594,22 +6914,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7636,22 +6953,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L190" t="inlineStr">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7678,22 +6992,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7720,22 +7031,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7762,22 +7070,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7804,22 +7109,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7846,22 +7148,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7888,22 +7187,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7930,22 +7226,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7970,24 +7263,23 @@
         <v>3131785.188524893</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L198" t="inlineStr">
+        <v>3.669</v>
+      </c>
+      <c r="J198" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8014,22 +7306,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8054,26 +7343,21 @@
         <v>3105355.188524893</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>3.314</v>
-      </c>
-      <c r="K200" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L200" t="inlineStr">
+        <v>3.239</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8098,26 +7382,23 @@
         <v>3102355.188524893</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>3.759</v>
       </c>
       <c r="J201" t="n">
-        <v>3.759</v>
-      </c>
-      <c r="K201" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L201" t="inlineStr">
+        <v>3.239</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8144,22 +7425,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8184,24 +7462,23 @@
         <v>3105555.188524893</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1.155543377585675</v>
       </c>
       <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+        <v>1.359666666666667</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8228,22 +7505,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8270,22 +7538,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8312,22 +7571,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8354,22 +7604,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8394,26 +7635,15 @@
         <v>2932595.726824893</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>3.368</v>
-      </c>
-      <c r="K208" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8440,22 +7670,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8482,22 +7703,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8524,22 +7736,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8566,22 +7769,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8608,22 +7802,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8650,22 +7835,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8692,22 +7868,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8734,22 +7901,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8776,22 +7934,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8818,22 +7967,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8860,22 +8000,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8902,22 +8033,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8944,22 +8066,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8986,22 +8099,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9028,22 +8132,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9070,22 +8165,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9112,22 +8198,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9154,22 +8231,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9196,22 +8264,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9238,22 +8297,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9280,22 +8330,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9322,22 +8363,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9362,24 +8394,19 @@
         <v>2854460.363824893</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+        <v>3.558</v>
+      </c>
+      <c r="J231" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9406,22 +8433,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9446,24 +8470,23 @@
         <v>2961620.442724893</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L233" t="inlineStr">
+        <v>3.57</v>
+      </c>
+      <c r="J233" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9490,22 +8513,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9530,26 +8550,21 @@
         <v>2975420.442724893</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>3.489</v>
-      </c>
-      <c r="K235" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L235" t="inlineStr">
+        <v>3.558</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9574,26 +8589,21 @@
         <v>2975323.239024893</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>3.539</v>
-      </c>
-      <c r="K236" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L236" t="inlineStr">
+        <v>3.558</v>
+      </c>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9618,26 +8628,21 @@
         <v>2858689.473524893</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>3.463</v>
-      </c>
-      <c r="K237" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L237" t="inlineStr">
+        <v>3.558</v>
+      </c>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9662,26 +8667,23 @@
         <v>2862051.980624893</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="J238" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K238" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L238" t="inlineStr">
+        <v>3.558</v>
+      </c>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9706,24 +8708,23 @@
         <v>2862051.980624893</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L239" t="inlineStr">
+        <v>3.535</v>
+      </c>
+      <c r="J239" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9750,22 +8751,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9792,22 +8790,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9834,22 +8829,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9876,22 +8868,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9918,22 +8907,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9960,22 +8946,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L245" t="inlineStr">
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10000,26 +8983,21 @@
         <v>2846296.193024893</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>3.349</v>
-      </c>
-      <c r="K246" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L246" t="inlineStr">
+        <v>3.558</v>
+      </c>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10044,24 +9022,23 @@
         <v>2849196.193024893</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L247" t="inlineStr">
+        <v>3.528</v>
+      </c>
+      <c r="J247" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10088,22 +9065,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L248" t="inlineStr">
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10128,24 +9102,23 @@
         <v>2849196.193024893</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L249" t="inlineStr">
+        <v>3.541</v>
+      </c>
+      <c r="J249" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10172,22 +9145,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L250" t="inlineStr">
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10214,22 +9184,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L251" t="inlineStr">
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10254,26 +9221,21 @@
         <v>1826861.122324893</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="K252" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L252" t="inlineStr">
+        <v>3.558</v>
+      </c>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10300,22 +9262,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L253" t="inlineStr">
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10342,22 +9301,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10382,24 +9338,23 @@
         <v>1781501.490724893</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L255" t="inlineStr">
+        <v>3.481</v>
+      </c>
+      <c r="J255" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10426,22 +9381,19 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10466,26 +9418,23 @@
         <v>1797013.092124893</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>3.436</v>
       </c>
       <c r="J257" t="n">
-        <v>3.436</v>
-      </c>
-      <c r="K257" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L257" t="inlineStr">
+        <v>3.558</v>
+      </c>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10510,28 +9459,25 @@
         <v>1797013.092124893</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>3.439</v>
       </c>
       <c r="J258" t="n">
-        <v>3.439</v>
-      </c>
-      <c r="K258" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="L258" t="inlineStr">
+        <v>3.558</v>
+      </c>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest DVP.xlsx
+++ b/BackTest/2020-01-25 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>4264016.728033334</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.839</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>4360557.235933334</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +565,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -586,8 +604,14 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>4324468.765833334</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>4007007.525333334</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>4527361.646733334</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>4538409.016533335</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>4538409.016533335</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>4540109.016533335</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>4492964.572133334</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +913,17 @@
         <v>4521256.384733334</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,13 +952,19 @@
         <v>4543225.198333334</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.9957814535035167</v>
       </c>
       <c r="M15" t="inlineStr"/>
     </row>
@@ -913,7 +991,7 @@
         <v>4411767.536033334</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +1024,7 @@
         <v>4592494.863333334</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +1057,7 @@
         <v>4592200.418933334</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1090,7 @@
         <v>4592789.307733334</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1123,7 @@
         <v>4590350.418933334</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1156,7 @@
         <v>4590774.863333334</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1189,7 @@
         <v>4585490.418933334</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1222,7 @@
         <v>4585630.418933334</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1255,7 @@
         <v>4585630.418933334</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1375,7 +1453,7 @@
         <v>4464267.736433334</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1486,7 @@
         <v>4469606.625233334</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1519,7 @@
         <v>4476045.514033333</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1552,7 @@
         <v>4475901.069633333</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1585,7 @@
         <v>4481171.069633333</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1618,7 @@
         <v>4481031.069633333</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1651,7 @@
         <v>4481171.069633333</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1684,7 @@
         <v>4480891.069633333</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1717,7 @@
         <v>4480611.069633333</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1750,7 @@
         <v>4480471.069633333</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1816,7 @@
         <v>4541418.215533333</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1882,7 @@
         <v>4541418.215533333</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1915,7 @@
         <v>4541287.771133333</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1948,7 @@
         <v>4541287.771133333</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1981,7 @@
         <v>4541147.771133333</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2014,7 @@
         <v>4541017.326733332</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2080,7 @@
         <v>4514099.145533333</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2233,7 +2311,7 @@
         <v>4496298.822533334</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2344,7 @@
         <v>4496154.378133333</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2377,7 @@
         <v>4496414.378133333</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2410,7 @@
         <v>4497258.822533334</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2443,7 @@
         <v>4496984.378133333</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2476,7 @@
         <v>4496534.378133333</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2629,7 +2707,7 @@
         <v>4495877.141733333</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2740,7 @@
         <v>4512407.141733333</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2773,7 @@
         <v>4512597.141733333</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2839,7 @@
         <v>4530357.141733333</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2905,7 @@
         <v>4530077.141733333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2938,7 @@
         <v>4529797.141733333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2971,7 @@
         <v>4528817.141733333</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3004,7 @@
         <v>4531747.141733333</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3037,7 @@
         <v>4531743.647233333</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3070,7 @@
         <v>4530903.647233333</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3103,7 @@
         <v>4530168.091633333</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3190,7 +3268,7 @@
         <v>4529856.980433334</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3301,7 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3334,7 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3487,7 +3565,7 @@
         <v>4552357.655433333</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3598,7 @@
         <v>4552077.655433333</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3631,7 @@
         <v>4563417.655433333</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3664,7 @@
         <v>4551819.853233334</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3697,7 @@
         <v>4535555.408833333</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3730,7 @@
         <v>4535555.408833333</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3763,7 @@
         <v>4528372.439233333</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3796,7 @@
         <v>4548112.439233333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3817,7 +3895,7 @@
         <v>4536252.439233333</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3928,7 @@
         <v>4536112.439233333</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3916,7 +3994,7 @@
         <v>4534282.439233333</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4027,7 @@
         <v>4534146.163133333</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4093,7 @@
         <v>4155675.539033332</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4126,7 @@
         <v>3486530.900033332</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4159,7 @@
         <v>2177066.236133332</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4192,7 @@
         <v>2215052.800924894</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4225,7 @@
         <v>2179608.213524894</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4258,7 @@
         <v>2074451.425124894</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4291,7 @@
         <v>2094384.422124894</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4324,7 @@
         <v>2884518.109924894</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4357,7 @@
         <v>2884518.109924894</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4390,7 @@
         <v>2563484.622824894</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4423,7 @@
         <v>2565934.622824894</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4456,7 @@
         <v>2565934.622824894</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4489,7 @@
         <v>2532732.881324894</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4522,7 @@
         <v>2541755.036324894</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4555,7 @@
         <v>2541755.036324894</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4588,7 @@
         <v>2539930.524824894</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4621,7 @@
         <v>2569930.524824894</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4654,7 @@
         <v>2569642.734524894</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4687,7 @@
         <v>2551339.235924894</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4720,7 @@
         <v>2496428.740024894</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4753,7 @@
         <v>2503076.570824894</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4786,7 @@
         <v>1933054.922224894</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4819,7 @@
         <v>1869024.349124894</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4852,7 @@
         <v>1869024.349124894</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4918,7 @@
         <v>1743043.544924894</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5071,14 +5149,10 @@
         <v>2672159.877224894</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3.239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
@@ -5108,19 +5182,11 @@
         <v>2677929.207124894</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3.174</v>
-      </c>
-      <c r="J143" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5149,19 +5215,11 @@
         <v>2678089.207124894</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3.257</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5190,19 +5248,11 @@
         <v>3284620.636624894</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.435</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5231,19 +5281,11 @@
         <v>3284820.636624894</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3.436</v>
-      </c>
-      <c r="J146" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5275,14 +5317,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5314,14 +5350,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5353,14 +5383,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5392,14 +5416,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5431,14 +5449,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5470,14 +5482,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5509,14 +5515,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5548,14 +5548,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5587,14 +5581,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5626,14 +5614,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5665,14 +5647,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5704,14 +5680,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5743,14 +5713,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5782,14 +5746,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5821,14 +5779,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5860,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5899,14 +5845,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5938,14 +5878,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5977,14 +5911,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6016,14 +5944,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6055,14 +5977,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6094,14 +6010,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6133,14 +6043,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6172,14 +6076,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6211,14 +6109,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6247,15 +6139,15 @@
         <v>3429016.960124894</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3.239</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L172" t="n">
@@ -6286,12 +6178,12 @@
         <v>3428861.960124894</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.239</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6325,12 +6217,12 @@
         <v>3429021.960124894</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.239</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.233</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6364,12 +6256,12 @@
         <v>3428871.960124894</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3.239</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6406,9 +6298,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6445,9 +6335,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6484,9 +6372,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6523,9 +6409,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6562,9 +6446,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6598,14 +6480,10 @@
         <v>3711961.287624893</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.647</v>
-      </c>
-      <c r="J181" t="n">
-        <v>3.239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6642,9 +6520,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6681,9 +6557,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6720,9 +6594,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6759,9 +6631,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6798,9 +6668,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6837,9 +6705,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6876,9 +6742,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6915,9 +6779,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6954,9 +6816,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6993,9 +6853,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7032,9 +6890,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7071,9 +6927,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7110,9 +6964,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7149,9 +7001,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7188,9 +7038,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7227,9 +7075,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7263,14 +7109,10 @@
         <v>3131785.188524893</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>3.669</v>
-      </c>
-      <c r="J198" t="n">
-        <v>3.239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7307,9 +7149,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7346,9 +7186,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7382,14 +7220,10 @@
         <v>3102355.188524893</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3.759</v>
-      </c>
-      <c r="J201" t="n">
-        <v>3.239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7426,9 +7260,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7462,23 +7294,19 @@
         <v>3105555.188524893</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3.239</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.155543377585675</v>
-      </c>
-      <c r="M203" t="n">
-        <v>1.359666666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7507,7 +7335,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7540,7 +7372,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7573,7 +7409,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7606,7 +7446,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7639,7 +7483,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7672,7 +7520,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7705,7 +7557,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7738,7 +7594,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7771,7 +7631,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7804,7 +7668,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7837,7 +7705,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7870,7 +7742,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7903,7 +7779,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7936,7 +7816,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7969,7 +7853,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8002,7 +7890,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8035,7 +7927,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8068,7 +7964,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8101,7 +8001,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8134,7 +8038,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8167,7 +8075,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8200,7 +8112,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8233,7 +8149,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8266,7 +8186,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8299,7 +8223,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8332,7 +8260,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8365,7 +8297,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8394,15 +8330,15 @@
         <v>2854460.363824893</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>3.558</v>
-      </c>
-      <c r="J231" t="n">
-        <v>3.558</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8434,12 +8370,10 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -8470,14 +8404,10 @@
         <v>2961620.442724893</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="J233" t="n">
-        <v>3.558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8514,9 +8444,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8553,9 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8592,9 +8518,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8631,9 +8555,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8667,14 +8589,10 @@
         <v>2862051.980624893</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J238" t="n">
-        <v>3.558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8708,14 +8626,10 @@
         <v>2862051.980624893</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>3.535</v>
-      </c>
-      <c r="J239" t="n">
-        <v>3.558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8752,9 +8666,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8791,9 +8703,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8830,9 +8740,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,9 +8777,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8908,9 +8814,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8947,9 +8851,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8986,9 +8888,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9022,14 +8922,10 @@
         <v>2849196.193024893</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>3.528</v>
-      </c>
-      <c r="J247" t="n">
-        <v>3.558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9066,9 +8962,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9102,14 +8996,10 @@
         <v>2849196.193024893</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>3.541</v>
-      </c>
-      <c r="J249" t="n">
-        <v>3.558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9146,9 +9036,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9185,9 +9073,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9224,9 +9110,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9263,9 +9147,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9302,9 +9184,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9338,14 +9218,10 @@
         <v>1781501.490724893</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="J255" t="n">
-        <v>3.558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9382,9 +9258,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9418,14 +9292,10 @@
         <v>1797013.092124893</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>3.436</v>
-      </c>
-      <c r="J257" t="n">
-        <v>3.558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9459,14 +9329,12 @@
         <v>1797013.092124893</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>3.439</v>
       </c>
-      <c r="J258" t="n">
-        <v>3.558</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9478,6 +9346,6 @@
       <c r="M258" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest DVP.xlsx
+++ b/BackTest/2020-01-25 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>4264016.728033334</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>4360557.235933334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -604,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>4324468.765833334</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>4007007.525333334</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>4527361.646733334</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>4538409.016533335</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>4538409.016533335</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>4540109.016533335</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>4492964.572133334</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>4521256.384733334</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,19 +880,17 @@
         <v>4543225.198333334</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.81</v>
+      </c>
       <c r="J15" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+        <v>3.81</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>0.9957814535035167</v>
+        <v>1</v>
       </c>
       <c r="M15" t="inlineStr"/>
     </row>
@@ -991,11 +917,17 @@
         <v>4411767.536033334</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1024,11 +956,17 @@
         <v>4592494.863333334</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1057,11 +995,17 @@
         <v>4592200.418933334</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1090,11 +1034,17 @@
         <v>4592789.307733334</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1123,11 +1073,17 @@
         <v>4590350.418933334</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1112,17 @@
         <v>4590774.863333334</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1189,11 +1151,17 @@
         <v>4585490.418933334</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1222,11 +1190,17 @@
         <v>4585630.418933334</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1255,11 +1229,17 @@
         <v>4585630.418933334</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1291,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1324,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1357,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1390,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1423,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1453,11 +1463,17 @@
         <v>4464267.736433334</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1486,11 +1502,17 @@
         <v>4469606.625233334</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1519,11 +1541,17 @@
         <v>4476045.514033333</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1552,11 +1580,17 @@
         <v>4475901.069633333</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1585,11 +1619,17 @@
         <v>4481171.069633333</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1618,11 +1658,17 @@
         <v>4481031.069633333</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1651,11 +1697,17 @@
         <v>4481171.069633333</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1684,11 +1736,17 @@
         <v>4480891.069633333</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1717,11 +1775,17 @@
         <v>4480611.069633333</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1750,11 +1814,17 @@
         <v>4480471.069633333</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1786,8 +1856,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1816,11 +1892,17 @@
         <v>4541418.215533333</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1852,8 +1934,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1882,11 +1970,17 @@
         <v>4541418.215533333</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1915,11 +2009,17 @@
         <v>4541287.771133333</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1948,11 +2048,17 @@
         <v>4541287.771133333</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1981,11 +2087,17 @@
         <v>4541147.771133333</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2014,11 +2126,17 @@
         <v>4541017.326733332</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2050,8 +2168,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2083,8 +2207,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2116,8 +2246,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2149,8 +2285,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2182,8 +2324,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2215,8 +2363,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2248,8 +2402,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2281,8 +2441,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2314,8 +2480,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2347,8 +2519,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2380,8 +2558,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2413,8 +2597,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2446,8 +2636,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2479,8 +2675,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2512,8 +2714,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2545,8 +2753,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2578,8 +2792,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2611,8 +2831,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2644,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2677,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2710,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2743,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2773,11 +3023,17 @@
         <v>4512597.141733333</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2809,8 +3065,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2839,11 +3101,17 @@
         <v>4530357.141733333</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2875,8 +3143,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2908,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2938,11 +3218,17 @@
         <v>4529797.141733333</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2971,11 +3257,17 @@
         <v>4528817.141733333</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3004,11 +3296,17 @@
         <v>4531747.141733333</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3037,11 +3335,17 @@
         <v>4531743.647233333</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3070,11 +3374,17 @@
         <v>4530903.647233333</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3103,11 +3413,17 @@
         <v>4530168.091633333</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3139,8 +3455,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3172,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3205,8 +3533,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3238,8 +3572,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3271,8 +3611,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3304,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3337,8 +3689,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3370,8 +3728,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3403,8 +3767,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3436,8 +3806,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3469,8 +3845,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3502,8 +3884,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3535,8 +3923,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3568,8 +3962,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3601,8 +4001,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3634,8 +4040,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3667,8 +4079,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3700,8 +4118,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3733,8 +4157,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3766,8 +4196,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3799,8 +4235,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3832,8 +4274,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3865,8 +4313,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3898,8 +4352,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3931,8 +4391,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3964,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3997,8 +4469,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4030,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4063,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4096,8 +4586,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4126,11 +4622,17 @@
         <v>3486530.900033332</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4159,11 +4661,17 @@
         <v>2177066.236133332</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4192,11 +4700,17 @@
         <v>2215052.800924894</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4225,11 +4739,17 @@
         <v>2179608.213524894</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4258,11 +4778,17 @@
         <v>2074451.425124894</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4291,11 +4817,17 @@
         <v>2094384.422124894</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4324,11 +4856,17 @@
         <v>2884518.109924894</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4357,11 +4895,17 @@
         <v>2884518.109924894</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4390,11 +4934,17 @@
         <v>2563484.622824894</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4423,11 +4973,17 @@
         <v>2565934.622824894</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4456,11 +5012,17 @@
         <v>2565934.622824894</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4489,11 +5051,17 @@
         <v>2532732.881324894</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4522,11 +5090,17 @@
         <v>2541755.036324894</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +5129,17 @@
         <v>2541755.036324894</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4588,11 +5168,17 @@
         <v>2539930.524824894</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4621,11 +5207,17 @@
         <v>2569930.524824894</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4654,11 +5246,17 @@
         <v>2569642.734524894</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4687,11 +5285,17 @@
         <v>2551339.235924894</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4720,11 +5324,17 @@
         <v>2496428.740024894</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4753,11 +5363,17 @@
         <v>2503076.570824894</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4786,11 +5402,17 @@
         <v>1933054.922224894</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4819,11 +5441,17 @@
         <v>1869024.349124894</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4852,11 +5480,17 @@
         <v>1869024.349124894</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4888,8 +5522,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4918,11 +5558,17 @@
         <v>1743043.544924894</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4954,8 +5600,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4987,8 +5639,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5020,8 +5678,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5053,8 +5717,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5086,8 +5756,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5119,8 +5795,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5152,8 +5834,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5185,8 +5873,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5215,11 +5909,19 @@
         <v>2678089.207124894</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3.257</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5251,8 +5953,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5284,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5317,8 +6031,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5350,8 +6070,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5383,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5416,8 +6148,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5449,8 +6187,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5482,8 +6226,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5515,8 +6265,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5548,8 +6304,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5581,8 +6343,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5614,8 +6382,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5647,8 +6421,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5680,8 +6460,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5713,8 +6499,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5746,8 +6538,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5779,8 +6577,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5812,8 +6616,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5845,8 +6655,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5878,8 +6694,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5911,8 +6733,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5944,8 +6772,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5977,8 +6811,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6010,8 +6850,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6043,8 +6889,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6076,8 +6928,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6109,8 +6967,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6139,15 +7003,15 @@
         <v>3429016.960124894</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3.689</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3.81</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L172" t="n">
@@ -6178,12 +7042,12 @@
         <v>3428861.960124894</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.689</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3.81</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6217,12 +7081,12 @@
         <v>3429021.960124894</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3.233</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3.81</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6256,12 +7120,12 @@
         <v>3428871.960124894</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3.81</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6298,7 +7162,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3.81</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6335,7 +7201,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3.81</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6372,7 +7240,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3.81</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6406,17 +7276,19 @@
         <v>3492819.575224893</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3.81</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1</v>
+        <v>0.9367322834645669</v>
       </c>
       <c r="M179" t="inlineStr"/>
     </row>
@@ -6443,15 +7315,11 @@
         <v>3492969.575224893</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6480,15 +7348,11 @@
         <v>3711961.287624893</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6517,15 +7381,11 @@
         <v>3711811.287624893</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6554,15 +7414,11 @@
         <v>3711511.287624893</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6591,15 +7447,11 @@
         <v>3711661.287624893</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6628,15 +7480,11 @@
         <v>3711511.287624893</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6665,15 +7513,11 @@
         <v>3170529.204724893</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6702,15 +7546,11 @@
         <v>3169659.204724893</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6739,15 +7579,11 @@
         <v>3169809.204724893</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6780,11 +7616,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6813,15 +7645,11 @@
         <v>3146409.204724893</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6850,15 +7678,11 @@
         <v>3140021.959224893</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6887,15 +7711,11 @@
         <v>3138371.959224893</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6928,11 +7748,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6965,11 +7781,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7002,11 +7814,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7039,11 +7847,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7076,11 +7880,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7113,11 +7913,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7946,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7187,11 +7979,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7224,11 +8012,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7261,11 +8045,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7298,11 +8078,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7335,11 +8111,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7372,11 +8144,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7409,11 +8177,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7446,11 +8210,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7483,11 +8243,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7520,11 +8276,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7557,11 +8309,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7594,11 +8342,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7631,11 +8375,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7668,11 +8408,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7705,11 +8441,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7742,11 +8474,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7779,11 +8507,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7816,11 +8540,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7853,11 +8573,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7890,11 +8606,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7927,11 +8639,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7964,11 +8672,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8001,11 +8705,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8038,11 +8738,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8075,11 +8771,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8112,11 +8804,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8149,11 +8837,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8186,11 +8870,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8223,11 +8903,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8260,11 +8936,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8297,11 +8969,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8334,11 +9002,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +9035,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8408,11 +9068,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8445,11 +9101,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8482,11 +9134,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8519,11 +9167,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8556,11 +9200,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8593,11 +9233,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8630,11 +9266,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8667,11 +9299,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8704,11 +9332,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8741,11 +9365,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8778,11 +9398,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8815,11 +9431,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8852,11 +9464,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8889,11 +9497,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8926,11 +9530,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8963,11 +9563,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9000,11 +9596,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9037,11 +9629,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9074,11 +9662,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9111,11 +9695,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9148,11 +9728,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9185,11 +9761,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9222,11 +9794,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9259,11 +9827,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9296,11 +9860,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9329,23 +9889,17 @@
         <v>1797013.092124893</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>3.439</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
       <c r="M258" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest DVP.xlsx
+++ b/BackTest/2020-01-25 BackTest DVP.xlsx
@@ -451,7 +451,7 @@
         <v>4264166.728033334</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>4264016.728033334</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.839</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>4360557.235933334</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>4361157.235933334</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.836</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>4360707.235933334</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.887</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -619,8 +647,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +686,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +725,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +764,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +839,17 @@
         <v>4540109.016533335</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +878,17 @@
         <v>4492964.572133334</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +917,17 @@
         <v>4521256.384733334</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,17 +956,19 @@
         <v>4543225.198333334</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.81</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>3.839</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.9957814535035167</v>
       </c>
       <c r="M15" t="inlineStr"/>
     </row>
@@ -917,17 +995,11 @@
         <v>4411767.536033334</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -956,17 +1028,11 @@
         <v>4592494.863333334</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -995,17 +1061,11 @@
         <v>4592200.418933334</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1037,14 +1097,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1076,14 +1130,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1163,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1151,17 +1193,11 @@
         <v>4585490.418933334</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1190,17 +1226,11 @@
         <v>4585630.418933334</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1229,17 +1259,11 @@
         <v>4585630.418933334</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1268,17 +1292,11 @@
         <v>4596369.477433334</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1307,17 +1325,11 @@
         <v>4596229.477433334</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1346,17 +1358,11 @@
         <v>4554172.243033334</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1385,17 +1391,11 @@
         <v>4464117.736433334</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1424,17 +1424,11 @@
         <v>4464856.625233334</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1463,17 +1457,11 @@
         <v>4464267.736433334</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1502,17 +1490,11 @@
         <v>4469606.625233334</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1541,17 +1523,11 @@
         <v>4476045.514033333</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1580,17 +1556,11 @@
         <v>4475901.069633333</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1622,14 +1592,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1658,17 +1622,11 @@
         <v>4481031.069633333</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1697,17 +1655,11 @@
         <v>4481171.069633333</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1736,17 +1688,11 @@
         <v>4480891.069633333</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1775,17 +1721,11 @@
         <v>4480611.069633333</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1814,17 +1754,11 @@
         <v>4480471.069633333</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1853,17 +1787,11 @@
         <v>4476961.069633333</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1892,17 +1820,11 @@
         <v>4541418.215533333</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1934,14 +1856,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1973,14 +1889,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2012,14 +1922,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2048,17 +1952,11 @@
         <v>4541287.771133333</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2087,17 +1985,11 @@
         <v>4541147.771133333</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2126,17 +2018,11 @@
         <v>4541017.326733332</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2165,17 +2051,11 @@
         <v>4537630.051333332</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2204,17 +2084,11 @@
         <v>4514099.145533333</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2243,17 +2117,11 @@
         <v>4514249.145533333</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2282,17 +2150,11 @@
         <v>4511643.589933333</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2324,14 +2186,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2360,17 +2216,11 @@
         <v>4486434.266833333</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2402,14 +2252,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2438,17 +2282,11 @@
         <v>4498308.711233334</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2477,17 +2315,11 @@
         <v>4496298.822533334</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2516,17 +2348,11 @@
         <v>4496154.378133333</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2555,17 +2381,11 @@
         <v>4496414.378133333</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2594,17 +2414,11 @@
         <v>4497258.822533334</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2633,17 +2447,11 @@
         <v>4496984.378133333</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2672,17 +2480,11 @@
         <v>4496534.378133333</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2711,17 +2513,11 @@
         <v>4496389.933733333</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2750,17 +2546,11 @@
         <v>4499119.933733333</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2789,17 +2579,11 @@
         <v>4500119.933733333</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2828,17 +2612,11 @@
         <v>4497561.586133333</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2867,17 +2645,11 @@
         <v>4496021.586133333</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2906,17 +2678,11 @@
         <v>4495877.141733333</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2948,14 +2714,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2987,14 +2747,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3026,14 +2780,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3062,17 +2810,11 @@
         <v>4512597.141733333</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3101,17 +2843,11 @@
         <v>4530357.141733333</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3140,17 +2876,11 @@
         <v>4530086.741733332</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3179,17 +2909,11 @@
         <v>4530077.141733333</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3218,17 +2942,11 @@
         <v>4529797.141733333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3257,17 +2975,11 @@
         <v>4528817.141733333</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3296,17 +3008,11 @@
         <v>4531747.141733333</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3335,17 +3041,11 @@
         <v>4531743.647233333</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3374,17 +3074,11 @@
         <v>4530903.647233333</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3416,14 +3110,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3452,17 +3140,11 @@
         <v>4529712.536033333</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3491,17 +3173,11 @@
         <v>4529712.536033333</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3533,14 +3209,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3569,17 +3239,11 @@
         <v>4529712.536033333</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3611,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3647,17 +3305,11 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3686,17 +3338,11 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3725,17 +3371,11 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3764,17 +3404,11 @@
         <v>4550466.980433334</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3803,17 +3437,11 @@
         <v>4550326.980433334</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3842,17 +3470,11 @@
         <v>4550606.980433334</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3881,17 +3503,11 @@
         <v>4540426.980433334</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3920,17 +3536,11 @@
         <v>4540286.980433334</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3959,17 +3569,11 @@
         <v>4552357.655433333</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3998,17 +3602,11 @@
         <v>4552077.655433333</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4037,17 +3635,11 @@
         <v>4563417.655433333</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4076,17 +3668,11 @@
         <v>4551819.853233334</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4115,17 +3701,11 @@
         <v>4535555.408833333</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4154,17 +3734,11 @@
         <v>4535555.408833333</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4193,17 +3767,11 @@
         <v>4528372.439233333</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4232,17 +3800,11 @@
         <v>4548112.439233333</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4271,17 +3833,11 @@
         <v>4536112.439233333</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4310,17 +3866,11 @@
         <v>4536252.439233333</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4349,17 +3899,11 @@
         <v>4536252.439233333</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4388,17 +3932,11 @@
         <v>4536112.439233333</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4427,17 +3965,11 @@
         <v>4535412.439233333</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4466,17 +3998,11 @@
         <v>4534282.439233333</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4505,17 +4031,11 @@
         <v>4534146.163133333</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4544,17 +4064,11 @@
         <v>4155535.539033332</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4583,17 +4097,11 @@
         <v>4155675.539033332</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4622,17 +4130,11 @@
         <v>3486530.900033332</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4661,17 +4163,11 @@
         <v>2177066.236133332</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4703,14 +4199,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4742,14 +4232,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4781,14 +4265,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4820,14 +4298,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4859,14 +4331,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4898,14 +4364,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4937,14 +4397,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4976,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5015,14 +4463,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5054,14 +4496,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5093,14 +4529,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5132,14 +4562,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5171,14 +4595,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5210,14 +4628,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5249,14 +4661,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5288,14 +4694,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5327,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5366,14 +4760,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5405,14 +4793,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5444,14 +4826,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5483,14 +4859,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5522,14 +4892,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5561,14 +4925,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5600,14 +4958,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5639,14 +4991,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5678,14 +5024,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5717,14 +5057,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5756,14 +5090,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5795,14 +5123,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5834,14 +5156,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5873,14 +5189,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5909,19 +5219,11 @@
         <v>2678089.207124894</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3.257</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5953,14 +5255,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5992,14 +5288,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6031,14 +5321,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6070,14 +5354,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6109,14 +5387,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6148,14 +5420,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6187,14 +5453,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6226,14 +5486,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6265,14 +5519,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6304,14 +5552,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6343,14 +5585,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6382,14 +5618,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6421,14 +5651,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6460,14 +5684,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6499,14 +5717,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6538,14 +5750,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6577,14 +5783,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6616,14 +5816,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6655,14 +5849,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6694,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6733,14 +5915,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6772,14 +5948,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6811,14 +5981,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6850,14 +6014,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6889,14 +6047,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6928,14 +6080,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6967,14 +6113,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7006,14 +6146,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7045,14 +6179,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7084,14 +6212,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7123,14 +6245,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7162,14 +6278,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7201,14 +6311,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7240,14 +6344,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7276,19 +6374,13 @@
         <v>3492819.575224893</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
-        <v>0.9367322834645669</v>
+        <v>1</v>
       </c>
       <c r="M179" t="inlineStr"/>
     </row>
@@ -7315,7 +6407,7 @@
         <v>3492969.575224893</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7348,7 +6440,7 @@
         <v>3711961.287624893</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7381,7 +6473,7 @@
         <v>3711811.287624893</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7414,7 +6506,7 @@
         <v>3711511.287624893</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7447,7 +6539,7 @@
         <v>3711661.287624893</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7480,7 +6572,7 @@
         <v>3711511.287624893</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7513,7 +6605,7 @@
         <v>3170529.204724893</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7546,7 +6638,7 @@
         <v>3169659.204724893</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7579,7 +6671,7 @@
         <v>3169809.204724893</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7645,7 +6737,7 @@
         <v>3146409.204724893</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7678,7 +6770,7 @@
         <v>3140021.959224893</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7711,7 +6803,7 @@
         <v>3138371.959224893</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>

--- a/BackTest/2020-01-25 BackTest DVP.xlsx
+++ b/BackTest/2020-01-25 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:L258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>337693.0325</v>
       </c>
       <c r="G2" t="n">
-        <v>4264166.728033334</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>150</v>
       </c>
       <c r="G3" t="n">
-        <v>4264016.728033334</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>96540.5079</v>
       </c>
       <c r="G4" t="n">
-        <v>4360557.235933334</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,15 @@
         <v>600</v>
       </c>
       <c r="G5" t="n">
-        <v>4361157.235933334</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.836</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +563,15 @@
         <v>450</v>
       </c>
       <c r="G6" t="n">
-        <v>4360707.235933334</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.887</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,24 +593,15 @@
         <v>36238.4701</v>
       </c>
       <c r="G7" t="n">
-        <v>4324468.765833334</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -680,24 +623,15 @@
         <v>317461.2405</v>
       </c>
       <c r="G8" t="n">
-        <v>4007007.525333334</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,24 +653,15 @@
         <v>520354.1214</v>
       </c>
       <c r="G9" t="n">
-        <v>4527361.646733334</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -758,24 +683,15 @@
         <v>11047.3698</v>
       </c>
       <c r="G10" t="n">
-        <v>4538409.016533335</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -797,24 +713,15 @@
         <v>8000</v>
       </c>
       <c r="G11" t="n">
-        <v>4538409.016533335</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,24 +743,15 @@
         <v>1700</v>
       </c>
       <c r="G12" t="n">
-        <v>4540109.016533335</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,24 +773,15 @@
         <v>47144.4444</v>
       </c>
       <c r="G13" t="n">
-        <v>4492964.572133334</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -914,24 +803,15 @@
         <v>28291.8126</v>
       </c>
       <c r="G14" t="n">
-        <v>4521256.384733334</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -953,24 +833,15 @@
         <v>21968.8136</v>
       </c>
       <c r="G15" t="n">
-        <v>4543225.198333334</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>0.9957814535035167</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -992,18 +863,15 @@
         <v>131457.6623</v>
       </c>
       <c r="G16" t="n">
-        <v>4411767.536033334</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1025,18 +893,15 @@
         <v>180727.3273</v>
       </c>
       <c r="G17" t="n">
-        <v>4592494.863333334</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1058,18 +923,15 @@
         <v>294.4444</v>
       </c>
       <c r="G18" t="n">
-        <v>4592200.418933334</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1091,18 +953,15 @@
         <v>588.8887999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>4592789.307733334</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1124,18 +983,15 @@
         <v>2438.8888</v>
       </c>
       <c r="G20" t="n">
-        <v>4590350.418933334</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1157,18 +1013,15 @@
         <v>424.4444</v>
       </c>
       <c r="G21" t="n">
-        <v>4590774.863333334</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1190,18 +1043,15 @@
         <v>5284.4444</v>
       </c>
       <c r="G22" t="n">
-        <v>4585490.418933334</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1223,18 +1073,15 @@
         <v>140</v>
       </c>
       <c r="G23" t="n">
-        <v>4585630.418933334</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1256,18 +1103,15 @@
         <v>2600.3795</v>
       </c>
       <c r="G24" t="n">
-        <v>4585630.418933334</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1289,18 +1133,15 @@
         <v>10739.0585</v>
       </c>
       <c r="G25" t="n">
-        <v>4596369.477433334</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,18 +1163,15 @@
         <v>140</v>
       </c>
       <c r="G26" t="n">
-        <v>4596229.477433334</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1355,18 +1193,15 @@
         <v>42057.2344</v>
       </c>
       <c r="G27" t="n">
-        <v>4554172.243033334</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1388,18 +1223,15 @@
         <v>90054.50659999999</v>
       </c>
       <c r="G28" t="n">
-        <v>4464117.736433334</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1421,18 +1253,15 @@
         <v>738.8887999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>4464856.625233334</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1454,18 +1283,15 @@
         <v>588.8887999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>4464267.736433334</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1487,18 +1313,15 @@
         <v>5338.8888</v>
       </c>
       <c r="G31" t="n">
-        <v>4469606.625233334</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1520,18 +1343,15 @@
         <v>6438.8888</v>
       </c>
       <c r="G32" t="n">
-        <v>4476045.514033333</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1553,18 +1373,15 @@
         <v>144.4444</v>
       </c>
       <c r="G33" t="n">
-        <v>4475901.069633333</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1586,18 +1403,15 @@
         <v>5270</v>
       </c>
       <c r="G34" t="n">
-        <v>4481171.069633333</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1619,18 +1433,15 @@
         <v>140</v>
       </c>
       <c r="G35" t="n">
-        <v>4481031.069633333</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,18 +1463,15 @@
         <v>140</v>
       </c>
       <c r="G36" t="n">
-        <v>4481171.069633333</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1685,18 +1493,15 @@
         <v>280</v>
       </c>
       <c r="G37" t="n">
-        <v>4480891.069633333</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1718,18 +1523,15 @@
         <v>280</v>
       </c>
       <c r="G38" t="n">
-        <v>4480611.069633333</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1751,18 +1553,15 @@
         <v>140</v>
       </c>
       <c r="G39" t="n">
-        <v>4480471.069633333</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1784,18 +1583,15 @@
         <v>3510</v>
       </c>
       <c r="G40" t="n">
-        <v>4476961.069633333</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1817,18 +1613,15 @@
         <v>64457.1459</v>
       </c>
       <c r="G41" t="n">
-        <v>4541418.215533333</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1850,18 +1643,15 @@
         <v>294.4444</v>
       </c>
       <c r="G42" t="n">
-        <v>4541418.215533333</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,18 +1673,15 @@
         <v>2000</v>
       </c>
       <c r="G43" t="n">
-        <v>4541418.215533333</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1916,18 +1703,15 @@
         <v>130.4444</v>
       </c>
       <c r="G44" t="n">
-        <v>4541287.771133333</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1949,18 +1733,15 @@
         <v>9.5556</v>
       </c>
       <c r="G45" t="n">
-        <v>4541287.771133333</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1982,18 +1763,15 @@
         <v>140</v>
       </c>
       <c r="G46" t="n">
-        <v>4541147.771133333</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2015,18 +1793,15 @@
         <v>130.4444</v>
       </c>
       <c r="G47" t="n">
-        <v>4541017.326733332</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2048,18 +1823,15 @@
         <v>3387.2754</v>
       </c>
       <c r="G48" t="n">
-        <v>4537630.051333332</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2081,18 +1853,15 @@
         <v>23530.9058</v>
       </c>
       <c r="G49" t="n">
-        <v>4514099.145533333</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2114,18 +1883,15 @@
         <v>150</v>
       </c>
       <c r="G50" t="n">
-        <v>4514249.145533333</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2147,18 +1913,15 @@
         <v>2605.5556</v>
       </c>
       <c r="G51" t="n">
-        <v>4511643.589933333</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2180,18 +1943,15 @@
         <v>25209.3231</v>
       </c>
       <c r="G52" t="n">
-        <v>4486434.266833333</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2213,18 +1973,15 @@
         <v>125.4444</v>
       </c>
       <c r="G53" t="n">
-        <v>4486434.266833333</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2246,18 +2003,15 @@
         <v>11600</v>
       </c>
       <c r="G54" t="n">
-        <v>4498034.266833333</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2279,18 +2033,15 @@
         <v>274.4444</v>
       </c>
       <c r="G55" t="n">
-        <v>4498308.711233334</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2312,18 +2063,15 @@
         <v>2009.8887</v>
       </c>
       <c r="G56" t="n">
-        <v>4496298.822533334</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2345,18 +2093,15 @@
         <v>144.4444</v>
       </c>
       <c r="G57" t="n">
-        <v>4496154.378133333</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2378,18 +2123,15 @@
         <v>260</v>
       </c>
       <c r="G58" t="n">
-        <v>4496414.378133333</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2411,18 +2153,15 @@
         <v>844.4444</v>
       </c>
       <c r="G59" t="n">
-        <v>4497258.822533334</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2444,18 +2183,15 @@
         <v>274.4444</v>
       </c>
       <c r="G60" t="n">
-        <v>4496984.378133333</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2477,18 +2213,15 @@
         <v>450</v>
       </c>
       <c r="G61" t="n">
-        <v>4496534.378133333</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2510,18 +2243,15 @@
         <v>144.4444</v>
       </c>
       <c r="G62" t="n">
-        <v>4496389.933733333</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2543,18 +2273,15 @@
         <v>2730</v>
       </c>
       <c r="G63" t="n">
-        <v>4499119.933733333</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2576,18 +2303,15 @@
         <v>1000</v>
       </c>
       <c r="G64" t="n">
-        <v>4500119.933733333</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2609,18 +2333,15 @@
         <v>2558.3476</v>
       </c>
       <c r="G65" t="n">
-        <v>4497561.586133333</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2642,18 +2363,15 @@
         <v>1540</v>
       </c>
       <c r="G66" t="n">
-        <v>4496021.586133333</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2675,18 +2393,15 @@
         <v>144.4444</v>
       </c>
       <c r="G67" t="n">
-        <v>4495877.141733333</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2708,18 +2423,15 @@
         <v>266.6666</v>
       </c>
       <c r="G68" t="n">
-        <v>4495877.141733333</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2741,18 +2453,15 @@
         <v>16530</v>
       </c>
       <c r="G69" t="n">
-        <v>4512407.141733333</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2774,18 +2483,15 @@
         <v>190</v>
       </c>
       <c r="G70" t="n">
-        <v>4512597.141733333</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2807,18 +2513,15 @@
         <v>560</v>
       </c>
       <c r="G71" t="n">
-        <v>4512597.141733333</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2840,18 +2543,15 @@
         <v>17760</v>
       </c>
       <c r="G72" t="n">
-        <v>4530357.141733333</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2873,18 +2573,15 @@
         <v>270.4</v>
       </c>
       <c r="G73" t="n">
-        <v>4530086.741733332</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2906,18 +2603,15 @@
         <v>9.6</v>
       </c>
       <c r="G74" t="n">
-        <v>4530077.141733333</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2939,18 +2633,15 @@
         <v>280</v>
       </c>
       <c r="G75" t="n">
-        <v>4529797.141733333</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2972,18 +2663,15 @@
         <v>980</v>
       </c>
       <c r="G76" t="n">
-        <v>4528817.141733333</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3005,18 +2693,15 @@
         <v>2930</v>
       </c>
       <c r="G77" t="n">
-        <v>4531747.141733333</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3038,18 +2723,15 @@
         <v>3.4945</v>
       </c>
       <c r="G78" t="n">
-        <v>4531743.647233333</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3071,18 +2753,15 @@
         <v>840</v>
       </c>
       <c r="G79" t="n">
-        <v>4530903.647233333</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3104,18 +2783,15 @@
         <v>735.5556</v>
       </c>
       <c r="G80" t="n">
-        <v>4530168.091633333</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3137,18 +2813,15 @@
         <v>455.5556</v>
       </c>
       <c r="G81" t="n">
-        <v>4529712.536033333</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3170,18 +2843,15 @@
         <v>144.4444</v>
       </c>
       <c r="G82" t="n">
-        <v>4529712.536033333</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3203,18 +2873,15 @@
         <v>26540.6631</v>
       </c>
       <c r="G83" t="n">
-        <v>4529712.536033333</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3236,18 +2903,15 @@
         <v>3314.8925</v>
       </c>
       <c r="G84" t="n">
-        <v>4529712.536033333</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3269,18 +2933,15 @@
         <v>144.4444</v>
       </c>
       <c r="G85" t="n">
-        <v>4529856.980433334</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3302,18 +2963,15 @@
         <v>32750</v>
       </c>
       <c r="G86" t="n">
-        <v>4562606.980433334</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3335,18 +2993,15 @@
         <v>16470</v>
       </c>
       <c r="G87" t="n">
-        <v>4562606.980433334</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3368,18 +3023,15 @@
         <v>15880</v>
       </c>
       <c r="G88" t="n">
-        <v>4562606.980433334</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3401,18 +3053,15 @@
         <v>12140</v>
       </c>
       <c r="G89" t="n">
-        <v>4550466.980433334</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3434,18 +3083,15 @@
         <v>140</v>
       </c>
       <c r="G90" t="n">
-        <v>4550326.980433334</v>
-      </c>
-      <c r="H90" t="n">
         <v>2</v>
       </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3467,18 +3113,15 @@
         <v>280</v>
       </c>
       <c r="G91" t="n">
-        <v>4550606.980433334</v>
-      </c>
-      <c r="H91" t="n">
         <v>2</v>
       </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3500,18 +3143,15 @@
         <v>10180</v>
       </c>
       <c r="G92" t="n">
-        <v>4540426.980433334</v>
-      </c>
-      <c r="H92" t="n">
         <v>2</v>
       </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3533,18 +3173,15 @@
         <v>140</v>
       </c>
       <c r="G93" t="n">
-        <v>4540286.980433334</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3566,18 +3203,15 @@
         <v>12070.675</v>
       </c>
       <c r="G94" t="n">
-        <v>4552357.655433333</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3599,18 +3233,15 @@
         <v>280</v>
       </c>
       <c r="G95" t="n">
-        <v>4552077.655433333</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3632,18 +3263,15 @@
         <v>11340</v>
       </c>
       <c r="G96" t="n">
-        <v>4563417.655433333</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3665,18 +3293,15 @@
         <v>11597.8022</v>
       </c>
       <c r="G97" t="n">
-        <v>4551819.853233334</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3698,18 +3323,15 @@
         <v>16264.4444</v>
       </c>
       <c r="G98" t="n">
-        <v>4535555.408833333</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3731,18 +3353,15 @@
         <v>135.5556</v>
       </c>
       <c r="G99" t="n">
-        <v>4535555.408833333</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3764,18 +3383,15 @@
         <v>7182.9696</v>
       </c>
       <c r="G100" t="n">
-        <v>4528372.439233333</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3797,18 +3413,15 @@
         <v>19740</v>
       </c>
       <c r="G101" t="n">
-        <v>4548112.439233333</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3830,18 +3443,15 @@
         <v>12000</v>
       </c>
       <c r="G102" t="n">
-        <v>4536112.439233333</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3863,18 +3473,15 @@
         <v>140</v>
       </c>
       <c r="G103" t="n">
-        <v>4536252.439233333</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3896,18 +3503,15 @@
         <v>308.8943</v>
       </c>
       <c r="G104" t="n">
-        <v>4536252.439233333</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3929,18 +3533,15 @@
         <v>140</v>
       </c>
       <c r="G105" t="n">
-        <v>4536112.439233333</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3962,18 +3563,15 @@
         <v>700</v>
       </c>
       <c r="G106" t="n">
-        <v>4535412.439233333</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3995,18 +3593,15 @@
         <v>1130</v>
       </c>
       <c r="G107" t="n">
-        <v>4534282.439233333</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4028,18 +3623,15 @@
         <v>136.2761</v>
       </c>
       <c r="G108" t="n">
-        <v>4534146.163133333</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4061,18 +3653,15 @@
         <v>378610.6241</v>
       </c>
       <c r="G109" t="n">
-        <v>4155535.539033332</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4094,18 +3683,15 @@
         <v>140</v>
       </c>
       <c r="G110" t="n">
-        <v>4155675.539033332</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4127,18 +3713,15 @@
         <v>669144.639</v>
       </c>
       <c r="G111" t="n">
-        <v>3486530.900033332</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4160,18 +3743,15 @@
         <v>1309464.6639</v>
       </c>
       <c r="G112" t="n">
-        <v>2177066.236133332</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4193,18 +3773,15 @@
         <v>37986.56479156189</v>
       </c>
       <c r="G113" t="n">
-        <v>2215052.800924894</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4226,18 +3803,15 @@
         <v>35444.5874</v>
       </c>
       <c r="G114" t="n">
-        <v>2179608.213524894</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4259,18 +3833,15 @@
         <v>105156.7884</v>
       </c>
       <c r="G115" t="n">
-        <v>2074451.425124894</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4292,18 +3863,15 @@
         <v>19932.997</v>
       </c>
       <c r="G116" t="n">
-        <v>2094384.422124894</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4325,18 +3893,15 @@
         <v>790133.6878</v>
       </c>
       <c r="G117" t="n">
-        <v>2884518.109924894</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4358,18 +3923,15 @@
         <v>431459.7042</v>
       </c>
       <c r="G118" t="n">
-        <v>2884518.109924894</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4391,18 +3953,15 @@
         <v>321033.4871</v>
       </c>
       <c r="G119" t="n">
-        <v>2563484.622824894</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4424,18 +3983,15 @@
         <v>2450</v>
       </c>
       <c r="G120" t="n">
-        <v>2565934.622824894</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4457,18 +4013,15 @@
         <v>10816.0493</v>
       </c>
       <c r="G121" t="n">
-        <v>2565934.622824894</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4490,18 +4043,15 @@
         <v>33201.7415</v>
       </c>
       <c r="G122" t="n">
-        <v>2532732.881324894</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4523,18 +4073,15 @@
         <v>9022.155000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>2541755.036324894</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4556,18 +4103,15 @@
         <v>0.1101</v>
       </c>
       <c r="G124" t="n">
-        <v>2541755.036324894</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4589,18 +4133,15 @@
         <v>1824.5115</v>
       </c>
       <c r="G125" t="n">
-        <v>2539930.524824894</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4622,18 +4163,15 @@
         <v>30000</v>
       </c>
       <c r="G126" t="n">
-        <v>2569930.524824894</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4655,18 +4193,15 @@
         <v>287.7903</v>
       </c>
       <c r="G127" t="n">
-        <v>2569642.734524894</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4688,18 +4223,15 @@
         <v>18303.4986</v>
       </c>
       <c r="G128" t="n">
-        <v>2551339.235924894</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4721,18 +4253,15 @@
         <v>54910.4959</v>
       </c>
       <c r="G129" t="n">
-        <v>2496428.740024894</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4754,18 +4283,15 @@
         <v>6647.8308</v>
       </c>
       <c r="G130" t="n">
-        <v>2503076.570824894</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4787,18 +4313,15 @@
         <v>570021.6486</v>
       </c>
       <c r="G131" t="n">
-        <v>1933054.922224894</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4820,18 +4343,15 @@
         <v>64030.5731</v>
       </c>
       <c r="G132" t="n">
-        <v>1869024.349124894</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4853,18 +4373,15 @@
         <v>170000</v>
       </c>
       <c r="G133" t="n">
-        <v>1869024.349124894</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4886,18 +4403,15 @@
         <v>125138.967</v>
       </c>
       <c r="G134" t="n">
-        <v>1743885.382124894</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4919,18 +4433,15 @@
         <v>841.8372000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>1743043.544924894</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4952,18 +4463,15 @@
         <v>17055.2208</v>
       </c>
       <c r="G136" t="n">
-        <v>1725988.324124894</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4985,18 +4493,15 @@
         <v>23740.8125</v>
       </c>
       <c r="G137" t="n">
-        <v>1702247.511624894</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5018,18 +4523,15 @@
         <v>74425.2608</v>
       </c>
       <c r="G138" t="n">
-        <v>1627822.250824894</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5051,18 +4553,15 @@
         <v>1000</v>
       </c>
       <c r="G139" t="n">
-        <v>1626822.250824894</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5084,18 +4583,15 @@
         <v>139442.7956</v>
       </c>
       <c r="G140" t="n">
-        <v>1487379.455224894</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5117,18 +4613,15 @@
         <v>1185080.422</v>
       </c>
       <c r="G141" t="n">
-        <v>2672459.877224894</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5150,18 +4643,19 @@
         <v>300</v>
       </c>
       <c r="G142" t="n">
-        <v>2672159.877224894</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>3.239</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3.239</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5183,18 +4677,23 @@
         <v>5769.3299</v>
       </c>
       <c r="G143" t="n">
-        <v>2677929.207124894</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>3.174</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5216,18 +4715,23 @@
         <v>160</v>
       </c>
       <c r="G144" t="n">
-        <v>2678089.207124894</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>3.257</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5249,18 +4753,15 @@
         <v>606531.4295</v>
       </c>
       <c r="G145" t="n">
-        <v>3284620.636624894</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5282,18 +4783,19 @@
         <v>200</v>
       </c>
       <c r="G146" t="n">
-        <v>3284820.636624894</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>3.436</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3.436</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5315,18 +4817,21 @@
         <v>200</v>
       </c>
       <c r="G147" t="n">
-        <v>3284620.636624894</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>3.436</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5348,18 +4853,21 @@
         <v>20400</v>
       </c>
       <c r="G148" t="n">
-        <v>3305020.636624894</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>3.436</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5381,18 +4889,15 @@
         <v>31420.0001</v>
       </c>
       <c r="G149" t="n">
-        <v>3336440.636724894</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5414,18 +4919,15 @@
         <v>840.0001</v>
       </c>
       <c r="G150" t="n">
-        <v>3337280.636824894</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5447,18 +4949,15 @@
         <v>150</v>
       </c>
       <c r="G151" t="n">
-        <v>3337130.636824894</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5480,18 +4979,15 @@
         <v>31000</v>
       </c>
       <c r="G152" t="n">
-        <v>3368130.636824894</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5513,18 +5009,15 @@
         <v>2700</v>
       </c>
       <c r="G153" t="n">
-        <v>3368130.636824894</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5546,18 +5039,15 @@
         <v>150</v>
       </c>
       <c r="G154" t="n">
-        <v>3368130.636824894</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5579,18 +5069,15 @@
         <v>40211.8967</v>
       </c>
       <c r="G155" t="n">
-        <v>3408342.533524894</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5612,18 +5099,15 @@
         <v>110986.7011</v>
       </c>
       <c r="G156" t="n">
-        <v>3519329.234624894</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5645,18 +5129,15 @@
         <v>150</v>
       </c>
       <c r="G157" t="n">
-        <v>3519179.234624894</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5678,18 +5159,15 @@
         <v>600</v>
       </c>
       <c r="G158" t="n">
-        <v>3519779.234624894</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5711,18 +5189,15 @@
         <v>104835.4604</v>
       </c>
       <c r="G159" t="n">
-        <v>3414943.774224894</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5744,18 +5219,15 @@
         <v>750</v>
       </c>
       <c r="G160" t="n">
-        <v>3414943.774224894</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5777,18 +5249,15 @@
         <v>900</v>
       </c>
       <c r="G161" t="n">
-        <v>3414043.774224894</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5810,18 +5279,15 @@
         <v>58520.3834</v>
       </c>
       <c r="G162" t="n">
-        <v>3355523.390824893</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5843,18 +5309,15 @@
         <v>33421.6081</v>
       </c>
       <c r="G163" t="n">
-        <v>3322101.782724894</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5876,18 +5339,15 @@
         <v>49762.0533</v>
       </c>
       <c r="G164" t="n">
-        <v>3371863.836024893</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5909,18 +5369,15 @@
         <v>150</v>
       </c>
       <c r="G165" t="n">
-        <v>3371713.836024893</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5942,18 +5399,15 @@
         <v>4150</v>
       </c>
       <c r="G166" t="n">
-        <v>3367563.836024893</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5975,18 +5429,15 @@
         <v>2150</v>
       </c>
       <c r="G167" t="n">
-        <v>3369713.836024893</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6008,18 +5459,15 @@
         <v>4396.597</v>
       </c>
       <c r="G168" t="n">
-        <v>3365317.239024893</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6041,18 +5489,15 @@
         <v>610</v>
       </c>
       <c r="G169" t="n">
-        <v>3365927.239024893</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6074,18 +5519,15 @@
         <v>2000</v>
       </c>
       <c r="G170" t="n">
-        <v>3363927.239024893</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6107,18 +5549,15 @@
         <v>65089.7211</v>
       </c>
       <c r="G171" t="n">
-        <v>3429016.960124894</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6140,18 +5579,15 @@
         <v>30458.9723</v>
       </c>
       <c r="G172" t="n">
-        <v>3429016.960124894</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6173,18 +5609,15 @@
         <v>155</v>
       </c>
       <c r="G173" t="n">
-        <v>3428861.960124894</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6206,18 +5639,15 @@
         <v>160</v>
       </c>
       <c r="G174" t="n">
-        <v>3429021.960124894</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6239,18 +5669,15 @@
         <v>150</v>
       </c>
       <c r="G175" t="n">
-        <v>3428871.960124894</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6272,18 +5699,15 @@
         <v>10659.9625</v>
       </c>
       <c r="G176" t="n">
-        <v>3439531.922624893</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6305,18 +5729,15 @@
         <v>20002.1329</v>
       </c>
       <c r="G177" t="n">
-        <v>3419529.789724893</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6338,18 +5759,15 @@
         <v>36671.4938</v>
       </c>
       <c r="G178" t="n">
-        <v>3419529.789724893</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6371,18 +5789,15 @@
         <v>73289.7855</v>
       </c>
       <c r="G179" t="n">
-        <v>3492819.575224893</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6404,18 +5819,15 @@
         <v>150</v>
       </c>
       <c r="G180" t="n">
-        <v>3492969.575224893</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6437,18 +5849,15 @@
         <v>218991.7124</v>
       </c>
       <c r="G181" t="n">
-        <v>3711961.287624893</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6470,18 +5879,15 @@
         <v>150</v>
       </c>
       <c r="G182" t="n">
-        <v>3711811.287624893</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6503,18 +5909,15 @@
         <v>300</v>
       </c>
       <c r="G183" t="n">
-        <v>3711511.287624893</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6536,18 +5939,15 @@
         <v>150</v>
       </c>
       <c r="G184" t="n">
-        <v>3711661.287624893</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6569,18 +5969,15 @@
         <v>150</v>
       </c>
       <c r="G185" t="n">
-        <v>3711511.287624893</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6602,18 +5999,15 @@
         <v>540982.0829</v>
       </c>
       <c r="G186" t="n">
-        <v>3170529.204724893</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6635,18 +6029,15 @@
         <v>870</v>
       </c>
       <c r="G187" t="n">
-        <v>3169659.204724893</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6668,18 +6059,15 @@
         <v>150</v>
       </c>
       <c r="G188" t="n">
-        <v>3169809.204724893</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6701,18 +6089,15 @@
         <v>21650</v>
       </c>
       <c r="G189" t="n">
-        <v>3148159.204724893</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6734,18 +6119,15 @@
         <v>1750</v>
       </c>
       <c r="G190" t="n">
-        <v>3146409.204724893</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6767,18 +6149,15 @@
         <v>6387.2455</v>
       </c>
       <c r="G191" t="n">
-        <v>3140021.959224893</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6800,18 +6179,15 @@
         <v>1650</v>
       </c>
       <c r="G192" t="n">
-        <v>3138371.959224893</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6833,18 +6209,15 @@
         <v>300</v>
       </c>
       <c r="G193" t="n">
-        <v>3138071.959224893</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6866,18 +6239,15 @@
         <v>616.4184</v>
       </c>
       <c r="G194" t="n">
-        <v>3138688.377624893</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6899,18 +6269,15 @@
         <v>600</v>
       </c>
       <c r="G195" t="n">
-        <v>3138088.377624893</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6932,18 +6299,15 @@
         <v>183.5816</v>
       </c>
       <c r="G196" t="n">
-        <v>3137904.796024892</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6965,18 +6329,15 @@
         <v>3869.6075</v>
       </c>
       <c r="G197" t="n">
-        <v>3134035.188524893</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6998,18 +6359,15 @@
         <v>2250</v>
       </c>
       <c r="G198" t="n">
-        <v>3131785.188524893</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7031,18 +6389,15 @@
         <v>30600</v>
       </c>
       <c r="G199" t="n">
-        <v>3101185.188524893</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7064,18 +6419,15 @@
         <v>4170</v>
       </c>
       <c r="G200" t="n">
-        <v>3105355.188524893</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7097,18 +6449,15 @@
         <v>3000</v>
       </c>
       <c r="G201" t="n">
-        <v>3102355.188524893</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7130,18 +6479,15 @@
         <v>1050</v>
       </c>
       <c r="G202" t="n">
-        <v>3101305.188524893</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7163,18 +6509,15 @@
         <v>4250</v>
       </c>
       <c r="G203" t="n">
-        <v>3105555.188524893</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7196,18 +6539,15 @@
         <v>31846.5395</v>
       </c>
       <c r="G204" t="n">
-        <v>3073708.649024893</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7229,18 +6569,15 @@
         <v>37990.4487</v>
       </c>
       <c r="G205" t="n">
-        <v>3035718.200324893</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7262,18 +6599,15 @@
         <v>5200</v>
       </c>
       <c r="G206" t="n">
-        <v>3040918.200324893</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7295,18 +6629,15 @@
         <v>112272.4735</v>
       </c>
       <c r="G207" t="n">
-        <v>2928645.726824893</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7328,18 +6659,15 @@
         <v>3950</v>
       </c>
       <c r="G208" t="n">
-        <v>2932595.726824893</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7361,18 +6689,15 @@
         <v>39713</v>
       </c>
       <c r="G209" t="n">
-        <v>2892882.726824893</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7394,18 +6719,15 @@
         <v>160</v>
       </c>
       <c r="G210" t="n">
-        <v>2893042.726824893</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7427,18 +6749,15 @@
         <v>160</v>
       </c>
       <c r="G211" t="n">
-        <v>2892882.726824893</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7460,18 +6779,15 @@
         <v>160</v>
       </c>
       <c r="G212" t="n">
-        <v>2893042.726824893</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7493,18 +6809,15 @@
         <v>78638.4151</v>
       </c>
       <c r="G213" t="n">
-        <v>2814404.311724893</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7526,18 +6839,15 @@
         <v>292.2509</v>
       </c>
       <c r="G214" t="n">
-        <v>2814112.060824893</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7559,18 +6869,15 @@
         <v>20200</v>
       </c>
       <c r="G215" t="n">
-        <v>2793912.060824893</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7592,18 +6899,15 @@
         <v>160</v>
       </c>
       <c r="G216" t="n">
-        <v>2793752.060824893</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7625,18 +6929,15 @@
         <v>39093.864</v>
       </c>
       <c r="G217" t="n">
-        <v>2793752.060824893</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7658,18 +6959,15 @@
         <v>24133.5509</v>
       </c>
       <c r="G218" t="n">
-        <v>2817885.611724893</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7691,18 +6989,15 @@
         <v>35000</v>
       </c>
       <c r="G219" t="n">
-        <v>2852885.611724893</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7724,18 +7019,15 @@
         <v>150</v>
       </c>
       <c r="G220" t="n">
-        <v>2852735.611724893</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7757,18 +7049,15 @@
         <v>4500</v>
       </c>
       <c r="G221" t="n">
-        <v>2848235.611724893</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7790,18 +7079,15 @@
         <v>150</v>
       </c>
       <c r="G222" t="n">
-        <v>2848385.611724893</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7823,18 +7109,15 @@
         <v>300</v>
       </c>
       <c r="G223" t="n">
-        <v>2848385.611724893</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7856,18 +7139,15 @@
         <v>450</v>
       </c>
       <c r="G224" t="n">
-        <v>2848385.611724893</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7889,18 +7169,15 @@
         <v>100000</v>
       </c>
       <c r="G225" t="n">
-        <v>2848385.611724893</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7922,18 +7199,15 @@
         <v>300</v>
       </c>
       <c r="G226" t="n">
-        <v>2848085.611724893</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7955,18 +7229,15 @@
         <v>150</v>
       </c>
       <c r="G227" t="n">
-        <v>2847935.611724893</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7988,18 +7259,15 @@
         <v>150</v>
       </c>
       <c r="G228" t="n">
-        <v>2847785.611724893</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8021,18 +7289,15 @@
         <v>3325.2479</v>
       </c>
       <c r="G229" t="n">
-        <v>2844460.363824893</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8054,18 +7319,15 @@
         <v>160</v>
       </c>
       <c r="G230" t="n">
-        <v>2844460.363824893</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8087,18 +7349,15 @@
         <v>10000</v>
       </c>
       <c r="G231" t="n">
-        <v>2854460.363824893</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8120,18 +7379,15 @@
         <v>107310.0789</v>
       </c>
       <c r="G232" t="n">
-        <v>2961770.442724893</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8153,18 +7409,15 @@
         <v>150</v>
       </c>
       <c r="G233" t="n">
-        <v>2961620.442724893</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8186,18 +7439,15 @@
         <v>150</v>
       </c>
       <c r="G234" t="n">
-        <v>2961470.442724893</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8219,18 +7469,15 @@
         <v>13950</v>
       </c>
       <c r="G235" t="n">
-        <v>2975420.442724893</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8252,18 +7499,15 @@
         <v>97.2037</v>
       </c>
       <c r="G236" t="n">
-        <v>2975323.239024893</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8285,18 +7529,15 @@
         <v>116633.7655</v>
       </c>
       <c r="G237" t="n">
-        <v>2858689.473524893</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8318,18 +7559,15 @@
         <v>3362.5071</v>
       </c>
       <c r="G238" t="n">
-        <v>2862051.980624893</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8351,18 +7589,15 @@
         <v>25793.3578</v>
       </c>
       <c r="G239" t="n">
-        <v>2862051.980624893</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8384,18 +7619,15 @@
         <v>48730.0116</v>
       </c>
       <c r="G240" t="n">
-        <v>2862051.980624893</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8417,18 +7649,15 @@
         <v>66566.3095</v>
       </c>
       <c r="G241" t="n">
-        <v>2862051.980624893</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8450,18 +7679,15 @@
         <v>8564.9591</v>
       </c>
       <c r="G242" t="n">
-        <v>2870616.939724893</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8483,18 +7709,15 @@
         <v>142</v>
       </c>
       <c r="G243" t="n">
-        <v>2870758.939724893</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8516,18 +7739,15 @@
         <v>1000</v>
       </c>
       <c r="G244" t="n">
-        <v>2871758.939724893</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8549,18 +7769,15 @@
         <v>25612.7467</v>
       </c>
       <c r="G245" t="n">
-        <v>2846146.193024893</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8582,18 +7799,15 @@
         <v>150</v>
       </c>
       <c r="G246" t="n">
-        <v>2846296.193024893</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8615,18 +7829,15 @@
         <v>2900</v>
       </c>
       <c r="G247" t="n">
-        <v>2849196.193024893</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8648,18 +7859,15 @@
         <v>80084.3417</v>
       </c>
       <c r="G248" t="n">
-        <v>2849196.193024893</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8681,18 +7889,15 @@
         <v>50000</v>
       </c>
       <c r="G249" t="n">
-        <v>2849196.193024893</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8714,18 +7919,15 @@
         <v>1279215.8313</v>
       </c>
       <c r="G250" t="n">
-        <v>1569980.361724893</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8747,18 +7949,15 @@
         <v>121797.615</v>
       </c>
       <c r="G251" t="n">
-        <v>1691777.976724893</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8780,18 +7979,15 @@
         <v>135083.1456</v>
       </c>
       <c r="G252" t="n">
-        <v>1826861.122324893</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8813,18 +8009,15 @@
         <v>16688.4149</v>
       </c>
       <c r="G253" t="n">
-        <v>1843549.537224893</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8846,18 +8039,15 @@
         <v>118729.3818</v>
       </c>
       <c r="G254" t="n">
-        <v>1724820.155424893</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8879,18 +8069,15 @@
         <v>56681.3353</v>
       </c>
       <c r="G255" t="n">
-        <v>1781501.490724893</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8912,18 +8099,15 @@
         <v>45776.5037</v>
       </c>
       <c r="G256" t="n">
-        <v>1735724.987024893</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8945,18 +8129,15 @@
         <v>61288.1051</v>
       </c>
       <c r="G257" t="n">
-        <v>1797013.092124893</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8978,18 +8159,15 @@
         <v>58228.4753</v>
       </c>
       <c r="G258" t="n">
-        <v>1797013.092124893</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
